--- a/data/hotels_by_city/Dallas/Dallas_shard_688.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_688.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="462">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1268 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r576612117-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>5588563</t>
+  </si>
+  <si>
+    <t>576612117</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel!</t>
+  </si>
+  <si>
+    <t>Great place Great locationGreat staffI have become a frequent guest at this hotel due to my work schedule and high quality stays!!Austin is one of my favorite front desk staff.  He makes checkin and getting my luggage upstairs easy and smooth. Little wait time and easy. He also helped me book a room for one of my coworkers. Earlier they were booked but later in the week he let me know one Had opened up and we immediately booked it!  Great staff here with a kind personal touch!  The breakfast is always fresh and hot. I love their scrambled eggs and fresh fruit!  Ladies that work there all r kind and helpful. Very clean and plenty of things to chose from. Was pleasantly surprised!!!My room is always clean and cozy. Quiet and relaxing. Best place for a road warrior. Also like the fitness center and oh- location is excellent. Plenty of places to walk to - restaurants bars shops. Awesome. I will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Zackary C, Front Office Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Great place Great locationGreat staffI have become a frequent guest at this hotel due to my work schedule and high quality stays!!Austin is one of my favorite front desk staff.  He makes checkin and getting my luggage upstairs easy and smooth. Little wait time and easy. He also helped me book a room for one of my coworkers. Earlier they were booked but later in the week he let me know one Had opened up and we immediately booked it!  Great staff here with a kind personal touch!  The breakfast is always fresh and hot. I love their scrambled eggs and fresh fruit!  Ladies that work there all r kind and helpful. Very clean and plenty of things to chose from. Was pleasantly surprised!!!My room is always clean and cozy. Quiet and relaxing. Best place for a road warrior. Also like the fitness center and oh- location is excellent. Plenty of places to walk to - restaurants bars shops. Awesome. I will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r569387478-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>569387478</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t>Great hotel in a great location!!</t>
+  </si>
+  <si>
+    <t>We stayed here on a recent trip to Plano! The hotel is very nice and very clean! The rooms are also very spacious. The location of the hotel is great! It is in a newly developed area and is near lots of shopping. You could walk to several different eating places if you wanted to. We look forward to staying here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed here on a recent trip to Plano! The hotel is very nice and very clean! The rooms are also very spacious. The location of the hotel is great! It is in a newly developed area and is near lots of shopping. You could walk to several different eating places if you wanted to. We look forward to staying here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r569102955-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>569102955</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Not bad for a free stay</t>
+  </si>
+  <si>
+    <t>I used my Marriott Rewards points for a 3-night stay. Hotel room was a good size but the bathroom was a little tight. Breakfast was standard fare but could have been better.If you're in a room next to the stairwell you will be able to hear people going up and down. Not a big deal unless there are a bunch of kids staying in the hotel, like there was during our stayVery convenient to Frisco/Plano shopping and diningElevators are really slow so you'll need some patienceWould stay here again next time I'm in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Zackary C, Front Office Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>I used my Marriott Rewards points for a 3-night stay. Hotel room was a good size but the bathroom was a little tight. Breakfast was standard fare but could have been better.If you're in a room next to the stairwell you will be able to hear people going up and down. Not a big deal unless there are a bunch of kids staying in the hotel, like there was during our stayVery convenient to Frisco/Plano shopping and diningElevators are really slow so you'll need some patienceWould stay here again next time I'm in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r562815101-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>562815101</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>The BEST home away from home</t>
+  </si>
+  <si>
+    <t>I just enjoyed the most peaceful, quiet night away from home in years at SpringHill Suites Dallas Plano/Frisco. It's a wonderful facility, bright, clean and beautifully decorated. The coffee is excellent, giving Starbuck's a run for its quality. The complementary breakfast was delicious, well balanced, and provided lengthy enjoyment for every guest on a Sunday morning. The hotel is located near the best shopping and within minutes of Stonebriar Community Church, a Frisco treasure. I will definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>I just enjoyed the most peaceful, quiet night away from home in years at SpringHill Suites Dallas Plano/Frisco. It's a wonderful facility, bright, clean and beautifully decorated. The coffee is excellent, giving Starbuck's a run for its quality. The complementary breakfast was delicious, well balanced, and provided lengthy enjoyment for every guest on a Sunday morning. The hotel is located near the best shopping and within minutes of Stonebriar Community Church, a Frisco treasure. I will definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r559883920-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>559883920</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel/Great Location</t>
+  </si>
+  <si>
+    <t>This hotel checks all the marks. The decor is great and the hotel lends itself making someone feel comfortable which visiting the Frisco area. The restaurant/bar is great for happy hour and the staff was extremely nice. All in all, great location. MoreShow less</t>
+  </si>
+  <si>
+    <t>Zackary C, Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2018</t>
+  </si>
+  <si>
+    <t>This hotel checks all the marks. The decor is great and the hotel lends itself making someone feel comfortable which visiting the Frisco area. The restaurant/bar is great for happy hour and the staff was extremely nice. All in all, great location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r558187097-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>558187097</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Not a true suite but easily fits a family</t>
+  </si>
+  <si>
+    <t>I'd never stayed at this Marriott brand.  It wasn't a true suite with 2 separate rooms.  The living room area was delineated by a 3/4 wall with half of the wall being frosted glass.  There was a fridge &amp; microwave.  There was a pull out couch &amp; a chaise lounge type chair plus 2 queen beds so a family with lots of kids could easily fit.  I forgot my toothbrush &amp; they had an area that sold things.  But the front desk asked what I was looking for &amp; said toothbrush &amp; toothpaste were complementary.  So that was a pleasant surprise.  Check in was 3 PM but I arrive at 9 AM &amp; was given a room immediately.  Obviously if they are full that's not going to happen.  But it's nice that they didn't stand fast on the official check in time. Wi-fi was free for enough to do email.  But if you needed to stream video it was $4.95 a day.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I'd never stayed at this Marriott brand.  It wasn't a true suite with 2 separate rooms.  The living room area was delineated by a 3/4 wall with half of the wall being frosted glass.  There was a fridge &amp; microwave.  There was a pull out couch &amp; a chaise lounge type chair plus 2 queen beds so a family with lots of kids could easily fit.  I forgot my toothbrush &amp; they had an area that sold things.  But the front desk asked what I was looking for &amp; said toothbrush &amp; toothpaste were complementary.  So that was a pleasant surprise.  Check in was 3 PM but I arrive at 9 AM &amp; was given a room immediately.  Obviously if they are full that's not going to happen.  But it's nice that they didn't stand fast on the official check in time. Wi-fi was free for enough to do email.  But if you needed to stream video it was $4.95 a day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r544721023-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>544721023</t>
+  </si>
+  <si>
+    <t>12/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent hotel </t>
+  </si>
+  <si>
+    <t>Newer hotel. Clean hotel. Great location. Close to restaurants and shopping. They have an indoor pool and hot tub. Good breakfast with fresh fruit. They didn’t have the waffles or pancakes though. Rooms were excellent. Nice and spacious for a family.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Zackary C, Front Office Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Newer hotel. Clean hotel. Great location. Close to restaurants and shopping. They have an indoor pool and hot tub. Good breakfast with fresh fruit. They didn’t have the waffles or pancakes though. Rooms were excellent. Nice and spacious for a family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r544700524-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>544700524</t>
+  </si>
+  <si>
+    <t>Too good</t>
+  </si>
+  <si>
+    <t>The hotel staff is so friendly. I stayed for 50 days and got so familiar with them. Felt like staying at a home away from home. The housekeeping staff is very nice too. Looking forward to another stay on my next visit to Plano.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Zackary C, Front Office Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2017</t>
+  </si>
+  <si>
+    <t>The hotel staff is so friendly. I stayed for 50 days and got so familiar with them. Felt like staying at a home away from home. The housekeeping staff is very nice too. Looking forward to another stay on my next visit to Plano.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r543778475-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>543778475</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Visiting family in Texas. Stayed here once again. No surprises.</t>
+  </si>
+  <si>
+    <t>While visiting family in the Dallas area we once again stayed at SpringHill Suites. Just like our previous stay here there were no surprises.  Staff very friendly and professional. Breakfast was great. Even though we stayed here over Thanksgiving and they had a full house, the food selections were always kept supplied. This was no small task since there were a lot of kids there fro some sort of Soccer tournament. I'm not sure how they kept up with the food, but they did. I have a lower back issue and a good nights sleep sometimes escapes me , when staying in a hotel. Not this place! In fact it was so comfortable I was going to see what type of mattresses they use. I forgot to check, must call them and find out.  They have a bar for those that would like an adult beverage after a long day of travel.  Our family in the area does not have room for guests so my wife and I stay here. We will be back. Thanks to the great staff for making our stay enjoyable.  Complementary Newspaper and Wall Street Journal.MoreShow less</t>
+  </si>
+  <si>
+    <t>While visiting family in the Dallas area we once again stayed at SpringHill Suites. Just like our previous stay here there were no surprises.  Staff very friendly and professional. Breakfast was great. Even though we stayed here over Thanksgiving and they had a full house, the food selections were always kept supplied. This was no small task since there were a lot of kids there fro some sort of Soccer tournament. I'm not sure how they kept up with the food, but they did. I have a lower back issue and a good nights sleep sometimes escapes me , when staying in a hotel. Not this place! In fact it was so comfortable I was going to see what type of mattresses they use. I forgot to check, must call them and find out.  They have a bar for those that would like an adult beverage after a long day of travel.  Our family in the area does not have room for guests so my wife and I stay here. We will be back. Thanks to the great staff for making our stay enjoyable.  Complementary Newspaper and Wall Street Journal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r540246099-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>540246099</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>I slept like a baby.  The place is only a couple years old.  It clean and the bed was very comfortable.  I would stay again and probably will.  Very close to the Stonebriar Shopping Center and many other shopping opportunities.  Within walking distance of numerous restaurants.  The staff was very friendly.  No complaints here!MoreShow less</t>
+  </si>
+  <si>
+    <t>Zackary C, Front Office Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>I slept like a baby.  The place is only a couple years old.  It clean and the bed was very comfortable.  I would stay again and probably will.  Very close to the Stonebriar Shopping Center and many other shopping opportunities.  Within walking distance of numerous restaurants.  The staff was very friendly.  No complaints here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r539424852-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>539424852</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Weekend with family</t>
+  </si>
+  <si>
+    <t>The Hotel is new and modern with a very comfortable feel. The room was very impressive with an outstanding bathroom. The service was excellent with all staff members being very friendly and inviting. The continental breakfast and items off of the menu were great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Zackary C, Front Office Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>The Hotel is new and modern with a very comfortable feel. The room was very impressive with an outstanding bathroom. The service was excellent with all staff members being very friendly and inviting. The continental breakfast and items off of the menu were great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r539410092-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>539410092</t>
+  </si>
+  <si>
+    <t>MS Mud Run</t>
+  </si>
+  <si>
+    <t>We ended up at this location by mistake.  When I called the location I wanted to stay at I was switched to the reservation line and they booked my room at this location.  Upon arrival I was very upset but the personnel was awesome.  She was very nice and assured me there where things close by.  Our room and was very nice.  Breakfast set up was great.  Staff very helpful.  Location turned out to be awesome.  I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>We ended up at this location by mistake.  When I called the location I wanted to stay at I was switched to the reservation line and they booked my room at this location.  Upon arrival I was very upset but the personnel was awesome.  She was very nice and assured me there where things close by.  Our room and was very nice.  Breakfast set up was great.  Staff very helpful.  Location turned out to be awesome.  I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r533143200-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>533143200</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>We stayed at spring hill Marriott in Plano Texas. The staff was amazing!!! We flew in for a wedding from out of state we had forgotten some items when we went to front desk they took care of us immediately and got us the forgotten items  free of charge. Every time we went anywhere in the hotel the staff was so friendly and very attentive to our needs. I would recommend this hotel to any one staying in Plano Texas area. Way to go Spring hill Marriott. We are coming back in April and i plan to stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>Zackary C, Front Office Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at spring hill Marriott in Plano Texas. The staff was amazing!!! We flew in for a wedding from out of state we had forgotten some items when we went to front desk they took care of us immediately and got us the forgotten items  free of charge. Every time we went anywhere in the hotel the staff was so friendly and very attentive to our needs. I would recommend this hotel to any one staying in Plano Texas area. Way to go Spring hill Marriott. We are coming back in April and i plan to stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r525143054-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>525143054</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>New(ish) hotel, easy access</t>
+  </si>
+  <si>
+    <t>Comfortable semi-suites in this relatively new Springhill Suites.Rooms are pretty much standard Springhill fare, so expect separate seating area, decent working area etcStaff are pleasant and helpful, there is a pool and gym and a bar area in the evening. Breakfast is basic but okRestaurants etc in walking distance and easy access to the highway.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r522058846-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>522058846</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Great new Facility</t>
+  </si>
+  <si>
+    <t>Reasonably new hotel that has beautiful modern rooms, superb hot breakfast, and very friendly staff. Also has meeting rooms for conferences. Location, once you can find the place, is convenient to a large shopping mall, numerous restaurants nearby, and near accessible freeways. Plenty of parking, but somewhat a long walk. Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r496705772-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>496705772</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Great Place to stay in Plano</t>
+  </si>
+  <si>
+    <t>Staying here for a few days as my office was close by was a great experience. The rooms are good, very clean and the front lobby is nice. The service is good and the limited staff at Springhill do a great job of it. The only drawback is the breakfast which is very limited and repetitive, hence if you are staying for some time, you do not enjoy it. There are no places nearby for you to go and hangout and you may need to drive a distance to find something for yourselves. Overall a nice place to stay when in Plano.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r495270089-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>495270089</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Great hotel even with road construction</t>
+  </si>
+  <si>
+    <t>Stayed here to attend Off the Rails and would recommend it.  Staff is very courteous and tries to help out any way they can.  Only thing preventing them from a ranking of 5 was the breakfast.  Lot of items unavailable (empty) and not being replaced expeditiously.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r492779953-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>492779953</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Best place to stay in Plano for the price</t>
+  </si>
+  <si>
+    <t>I'm writing this review after having stayed at this hotel twice in the last month for softball tournaments.  Both stays were excellent!  The room is very clean and the bed very comfortable.  The staff very accommodating and friendly.  Great breakfast!We try to stay here every time we are in Plano, however, last weekend they were booked and we had to stay at the Hilton Granite Park... MISTAKE!  The Hilton room was not any nicer, but was nearly $200 more because of the surprise "incidental expenses" and hidden fees. If you are traveling for softball... this hotel is awesome because it is in the middle of Shawnee Trail Sports Complex in Frisco, Heritage Yards and Archgate park in Plano.  Within 15 min. of each park. Also, there is a 7-11 on the corner near the hotel for ice and snacks.  A Chick-fil-A in the shopping center across from the hotel.Great hotel for the money.  Some reviews say the hotel is loud or the doors are loud.  I didn't notice that, but I always turn the a/c fan to "on" (not auto) in my room which muffles the sound from the hallway.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm writing this review after having stayed at this hotel twice in the last month for softball tournaments.  Both stays were excellent!  The room is very clean and the bed very comfortable.  The staff very accommodating and friendly.  Great breakfast!We try to stay here every time we are in Plano, however, last weekend they were booked and we had to stay at the Hilton Granite Park... MISTAKE!  The Hilton room was not any nicer, but was nearly $200 more because of the surprise "incidental expenses" and hidden fees. If you are traveling for softball... this hotel is awesome because it is in the middle of Shawnee Trail Sports Complex in Frisco, Heritage Yards and Archgate park in Plano.  Within 15 min. of each park. Also, there is a 7-11 on the corner near the hotel for ice and snacks.  A Chick-fil-A in the shopping center across from the hotel.Great hotel for the money.  Some reviews say the hotel is loud or the doors are loud.  I didn't notice that, but I always turn the a/c fan to "on" (not auto) in my room which muffles the sound from the hallway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r484773571-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>484773571</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Good and clean rooms and friendly employee. Everything you need is close by. Breakfast was also decent. But not too many choices.  We stayed there for three days. Nice view on the back side of the building.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r482288631-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>482288631</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Super Service</t>
+  </si>
+  <si>
+    <t>Stayed here recently for 8 nights whilst in Dallas for a wedding as part of a  group of 11 from the UK. I have stayed in many a business hotel over the years but I have to say that the cleanliness of this hotel, the quality of service and the positive attitude of all the staff made this one of the best hotel experiences I have ever had. OK the breakfast is not quite the full on English that we are used to but still exceeded our expectations and was more than adequate.A special thanks must go out to all of the front desk staff especially Austin who always wore a broad smile and was forever willing to share information about the locality or just chat.I will without hesitation use this hotel again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here recently for 8 nights whilst in Dallas for a wedding as part of a  group of 11 from the UK. I have stayed in many a business hotel over the years but I have to say that the cleanliness of this hotel, the quality of service and the positive attitude of all the staff made this one of the best hotel experiences I have ever had. OK the breakfast is not quite the full on English that we are used to but still exceeded our expectations and was more than adequate.A special thanks must go out to all of the front desk staff especially Austin who always wore a broad smile and was forever willing to share information about the locality or just chat.I will without hesitation use this hotel again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r477266961-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>477266961</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Excellent service , great rooms</t>
+  </si>
+  <si>
+    <t>I like to stay in this hotel , had been here at least 10 times so far, nice team, breakfast is absurdity good ( I which they added vegetables as well ) The rooms are clean and i do like their design and coloring also the settings of everything is nice, I got this time the disabled room and it is just fine</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r472988299-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>472988299</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>By the looks of it, this hotel is practically brand new. The whole area around the hotel is brand new/still being built as well. There are about 50 places to eat within a five minute drive or short walk. The room was very spacious and set up well. I have to return to the area in a few months and will book here again. The hotel is right on par with the Marriott standard and certainly at the top of the Springhill Suites Brand standards.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r468350838-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>468350838</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Trip - Perfect Stay! </t>
+  </si>
+  <si>
+    <t>Last minute booking and we were super pleased with our stay from start to finish. Very clean, bright, large rooms with a large bathroom. Bed was comfortable. Breakfast was well above average. Great location with several dining options nearby. Not far from Baylor Scott &amp;a White hospitals. Would highly recommend.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r467695868-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>467695868</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>clean, quiet, large room with 2 queens &amp; sofa bed, strange toilet area</t>
+  </si>
+  <si>
+    <t>Nice newer lobby and rooms. Convenient location to 121 and tollroads and to shopping and restaurants. Large room and wonderful large walk-in closet. VERY STRANGE toilet and shower area that are each separate but both open directly into the room. In the room, you could hear everything from the toilet room which was uncomfortable for everyone. The toilet room door was a large heavy sliding door that made so much noise when rolled closed and woke up all sleepers during the night. Worst part was the motion activated AC thermostat that went off all night while we were sleeping!  It's hot in the Dallas area - even in March. Front desk said the motion detector should not have kept the unit from blowing, and they would look into repairs. We only stayed one night. So many hotels nearby that I will choose a different one next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Phil K, Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Nice newer lobby and rooms. Convenient location to 121 and tollroads and to shopping and restaurants. Large room and wonderful large walk-in closet. VERY STRANGE toilet and shower area that are each separate but both open directly into the room. In the room, you could hear everything from the toilet room which was uncomfortable for everyone. The toilet room door was a large heavy sliding door that made so much noise when rolled closed and woke up all sleepers during the night. Worst part was the motion activated AC thermostat that went off all night while we were sleeping!  It's hot in the Dallas area - even in March. Front desk said the motion detector should not have kept the unit from blowing, and they would look into repairs. We only stayed one night. So many hotels nearby that I will choose a different one next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r465957366-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>465957366</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>great hotel in frisco</t>
+  </si>
+  <si>
+    <t>the hotel is beautiful, clean, and modern. they pay great attention to detail. ( paper plates in microwave, chupa chups at the front deask) Staff could be trained better in guest service. they are not unfriendly, but just not very attentive. takes a long time for somebody to even look up at the desk.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r465198761-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>465198761</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>nice property but a real budget buster</t>
+  </si>
+  <si>
+    <t>I booked this room without even looking at the room rate assuming(yes I know) that it would be in line with other Marriott properties I stay at.  Unfortunately it was not.  The one night room tab clocked in at an accountant eyebrow raising $197.00  i will not be staying here again with so many other more reasonable options in the area</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r460015787-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>460015787</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Perfect location and great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant visit.  The hotel staff was friendly and courteous.  More importantly it was clean.  Lots of restaurants close by and even a mall for all the shoppers.  Complimentary breakfast with healthy options.  Ample parking and the rooms were spacious. Highly recommend.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r454936444-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>454936444</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>This was my first time at the SpringHill Suites and being a part of Marriott, I anticipated a cut-above in terms of food quality. On that point we were not disappointed. The breakfast buffet was very good and I doubt could disappoint in terms of quality and selection of hot and cold items and a large selection of breakfast breads and coffee. The rooms are a sufficient size but not oversized like I find in some similar class hotels. The rooms are stylishly appointed though appropriate for the price per night and I particularly enjoyed the large flat screen TV. We sat at the bar one night and ordered some drinks which were made very well in a friendly atmosphere. Check-in and check-out were friendly and efficient. Overall it was a good stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>This was my first time at the SpringHill Suites and being a part of Marriott, I anticipated a cut-above in terms of food quality. On that point we were not disappointed. The breakfast buffet was very good and I doubt could disappoint in terms of quality and selection of hot and cold items and a large selection of breakfast breads and coffee. The rooms are a sufficient size but not oversized like I find in some similar class hotels. The rooms are stylishly appointed though appropriate for the price per night and I particularly enjoyed the large flat screen TV. We sat at the bar one night and ordered some drinks which were made very well in a friendly atmosphere. Check-in and check-out were friendly and efficient. Overall it was a good stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r449761461-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>449761461</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Nestled in the small shopping strip, upcoming new shops around</t>
+  </si>
+  <si>
+    <t>except for the overly sprayed room fresher which smells good but has side effects of heavy head and gradually a head ache that lasted for nearly 3 days after checking out....the hotel was great. I will stay here again, but ask for non chemical sprayed room. The bed and the pillows were very comfortable; there is an indoor pool(towels provided) that has a good warm water, there is also a sauna which we took advantage of on a cold evening.The breakfast is typical Marriott style, but would love more options for vegetarians. The front desk is very cordial, polite and friendly, the service is prompt.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r445872097-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>445872097</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a great stay here. The rooms were big and beautiful. The hotel was very clean and well maintained. The staff was friendly and helpful. Their breakfast buffet was very good. Highly recommend if you are going to be in the area. </t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r434113048-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>434113048</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Very clean!</t>
+  </si>
+  <si>
+    <t>We chose to stay at SpringHill Suites one Friday night for a family friend's wedding.  I am very glad we chose to stay here, rather than a few other near by options.  The room was very clean.  Nice set-up and very comfortable bed.  The only issue I came across was when I took a shower.  The water did not stay warm.  It was from hot to cold and stayed cold for a long time.  Then back to hot.  It was very hard to find a middle ground.  Breakfast was very good as well.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r432929418-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>432929418</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double queen room is great .  Bathroom is separated with shower &amp; sink in one section &amp; toilet &amp; sink in another section.  Great when traveling with friend.  Beds are very comfortable.  Staff very nice and accommodating.  Close to shopping.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r425689214-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>425689214</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice Springhill </t>
+  </si>
+  <si>
+    <t>PROs- very comfortable bed!- clean, spacious rooms- full bar / restaurant   -- evening only; similar style / food to a Courtyard- free breakfast; excellent choices- free wifi- walkable to shops and restaurants- very nice staffCONs- the bathroom needs another wall hook- I'm no fan of glass doors for a bathroom</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r412293117-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>412293117</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Layover on vacation- great location.</t>
+  </si>
+  <si>
+    <t>My wife and I flew to Dallas to meet up with family to take a trip down to San Antonio. Since it was close to my daughter and grandkids we decided to stay at the SpringHill Suites in Plano  8401 Angels Dr. We stayed the first night in Texas and the last night prior to departing for home.  We were not disappointed. This Suite was top notch. We had a great desk area , very clean room, comfortable bed and the staff was very friendly and helpful. There are several new places to eat within walking distance of the facility. The breakfast bar was great , everything was fresh and the staff working this area stayed on top of keeping everything full .MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Benjamin S, Guest Relations Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I flew to Dallas to meet up with family to take a trip down to San Antonio. Since it was close to my daughter and grandkids we decided to stay at the SpringHill Suites in Plano  8401 Angels Dr. We stayed the first night in Texas and the last night prior to departing for home.  We were not disappointed. This Suite was top notch. We had a great desk area , very clean room, comfortable bed and the staff was very friendly and helpful. There are several new places to eat within walking distance of the facility. The breakfast bar was great , everything was fresh and the staff working this area stayed on top of keeping everything full .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r409923594-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>409923594</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel could be a great stop for personal as well as business. Spacious rooms, great breakfast bar as well as friendly staff. The thing I most appreciated as a business traveler was the in house dining/room service. After long day at work it was nice to not have to drive around the area to get dinner. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r405842097-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>405842097</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>clean room and friendly staff</t>
+  </si>
+  <si>
+    <t>This hotel was clean and well maintained and the staff were friendly.  The room was larger than normal and the bed was very comfortable.  For a quick weekend visit, it suited my needs perfectly.  I have zero complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This hotel was clean and well maintained and the staff were friendly.  The room was larger than normal and the bed was very comfortable.  For a quick weekend visit, it suited my needs perfectly.  I have zero complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r393683579-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>393683579</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Traveled to Frisco to attend #Summerwc2016 @ Collin College and chose to stay here. Decor in lobby and room was very nice. Should a picture of the room and friends said, "very Euro." And I agree. Room was a generous size with a mini fridge seating area, desk , and bath was right in front of the bed. Big, frosted glass and wood sliding door was a nice touch. Shower only, but I didn't mind. When I travel with my wife, she prefers rooms with a nice bath tub. Staff was very friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r388686647-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>388686647</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Share your room with ROACHES!!!</t>
+  </si>
+  <si>
+    <t>We came to Dallas, TX for my brother's wedding. We stayed for 2 nights at this hotel. We let management know ahead that we had a toddler. During our stay we got no room cleaning whatsoever. What that means was that our room was smelling of dirty diapers for most of our stay, our beds were never made, our towels were wet and so on. That also meant that we had to deal with local ROACHES as you can see in my picture. Disgusting. I complained at front desk only to hear from them there was nothing they could do. There was no compensation. Nothing. I really don't recommend staying here, unless you want to de treated this way.MoreShow less</t>
+  </si>
+  <si>
+    <t>Phil K, General Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>We came to Dallas, TX for my brother's wedding. We stayed for 2 nights at this hotel. We let management know ahead that we had a toddler. During our stay we got no room cleaning whatsoever. What that means was that our room was smelling of dirty diapers for most of our stay, our beds were never made, our towels were wet and so on. That also meant that we had to deal with local ROACHES as you can see in my picture. Disgusting. I complained at front desk only to hear from them there was nothing they could do. There was no compensation. Nothing. I really don't recommend staying here, unless you want to de treated this way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r386677852-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>386677852</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Manager and staff do not care about customer service.</t>
+  </si>
+  <si>
+    <t>I stayed an entire week at this new property. Typical beautiful new Marriott facility, but to my total surprise, the customer service was horrible. After the week, I felt like I had to share with the manager, as again this must be atypical. I was WRONG. The manager gave me attitude and didn't care in the least that all week long the staff left things in our room, didn't put new towels in, the front desk person had similar attitude and hung up on me. Incredibly disappointing to see a Marriott have such poor customer service, but after speaking with the manager, Kyle. I now know why .......MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Phil K, General Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2016</t>
+  </si>
+  <si>
+    <t>I stayed an entire week at this new property. Typical beautiful new Marriott facility, but to my total surprise, the customer service was horrible. After the week, I felt like I had to share with the manager, as again this must be atypical. I was WRONG. The manager gave me attitude and didn't care in the least that all week long the staff left things in our room, didn't put new towels in, the front desk person had similar attitude and hung up on me. Incredibly disappointing to see a Marriott have such poor customer service, but after speaking with the manager, Kyle. I now know why .......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r378466717-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>378466717</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Great stay and very accomodating</t>
+  </si>
+  <si>
+    <t>The hotel is practically brand new or seems to be kept in like new condition! The hotel staff is very accommodating and friendly. My family stayed here for a wedding that was at Noah's and the location was just perfect. There is plenty of dining around so you will not have to travel far. It's close enough to the main highway but far enough back so you do not hear the road noise. I was unable to use the pool, fitness center, or even have breakfast but I'm sure it was per Marriott standards which would be acceptable. The only complaint I have is that the elevators are super slow! But not the hotels fault just a slow elevator. Should have gone with Otis because they can adjust speeds. If I was in the area I would definitely stay here again without a doubt. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is practically brand new or seems to be kept in like new condition! The hotel staff is very accommodating and friendly. My family stayed here for a wedding that was at Noah's and the location was just perfect. There is plenty of dining around so you will not have to travel far. It's close enough to the main highway but far enough back so you do not hear the road noise. I was unable to use the pool, fitness center, or even have breakfast but I'm sure it was per Marriott standards which would be acceptable. The only complaint I have is that the elevators are super slow! But not the hotels fault just a slow elevator. Should have gone with Otis because they can adjust speeds. If I was in the area I would definitely stay here again without a doubt. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r373878443-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>373878443</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>I love this place.</t>
+  </si>
+  <si>
+    <t>It's new,the staff is young and eager to please, beds are comfy and the breakfast in the morning is hot.  The onlything that bothers me a little is-I'm short and the shower nozzle is for very tall folks, so I have to hold my breath to keep from drowning when I'm under it.  I'm sure you get the picture of why I like these suites, but the real reason I'm so fond of it is that I make a phone call when I'm 5 minutes away, and my great grand daughter meets me at the front door.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle E, Guest Relations Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>It's new,the staff is young and eager to please, beds are comfy and the breakfast in the morning is hot.  The onlything that bothers me a little is-I'm short and the shower nozzle is for very tall folks, so I have to hold my breath to keep from drowning when I'm under it.  I'm sure you get the picture of why I like these suites, but the real reason I'm so fond of it is that I make a phone call when I'm 5 minutes away, and my great grand daughter meets me at the front door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r373525152-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>373525152</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>One of the nicest business hotels in Plano</t>
+  </si>
+  <si>
+    <t>From the minute you walk in you realize this is not you average Springhill Suites hotel. Firstly it's actually a full service hotel with a bar and room service. For us road warriors this is real nice to have. Hotel feels like it just opened yesterday. Rooms are spacious and clean. Restaurants and great pubs within 5 min walk. Exceeded my expectations.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r368750610-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>368750610</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Convenient, Friendly and Close to Frisco</t>
+  </si>
+  <si>
+    <t>I have stayed at the Springhill Suites in Plano/Frisco several times for both business and with my family.  There are no Marriott affiliated hotels currently in Frisco and I have tried several different ones around. This is now my go to when I am in the area. The staff is friendly and the hotel is new and modern.  It is located just across the 121 from the Stonebriar Mall and there are a lot of restaurant choices in the immediate vicinity.  I was last there in early April and had an issue with my wifi but a call down to the desk took care of the problem immediately.  There is a cafe type restaurant and bar on the first floor so they offer room service as well.  The breakfast buffet is typical for a Springhill Suites but the staff is attentive and it is a nice eating area.  The price is a little high for the brand but the location for me makes it worth it. I will definitely be going back to stay here on my next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I have stayed at the Springhill Suites in Plano/Frisco several times for both business and with my family.  There are no Marriott affiliated hotels currently in Frisco and I have tried several different ones around. This is now my go to when I am in the area. The staff is friendly and the hotel is new and modern.  It is located just across the 121 from the Stonebriar Mall and there are a lot of restaurant choices in the immediate vicinity.  I was last there in early April and had an issue with my wifi but a call down to the desk took care of the problem immediately.  There is a cafe type restaurant and bar on the first floor so they offer room service as well.  The breakfast buffet is typical for a Springhill Suites but the staff is attentive and it is a nice eating area.  The price is a little high for the brand but the location for me makes it worth it. I will definitely be going back to stay here on my next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r361581258-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>361581258</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Dirty Towel With Dried Boogers!  Rude Front Desk!</t>
+  </si>
+  <si>
+    <t>My son whet to use a folded towel after his shower and there where HUGE DRIED GREEN BOOGERS on it!  Disgusting!  So glad he seen them! We shrugged it off and took the towel to the front desk to show them and it was a simple sorry (with attitude).  Due to the response I asked or a Manager and was told there was not one available, that this will be brought up to the Manager for follow up  and acted like I was bothering him and asked what else can I do for you (with an attitude).  I snapped back, handed my bill and the Booger laced Towel to him and stated just as rude as he was “You can take the cost of the complementary boogers and the cost of my room of my bill!”   He looked at me as smiled and stated, yes Ma’am.  I received no follow up call from anyone.  I called back to speak to a Manager the following day, no Manager available but did get a call back later that afternoon.  The Manager stated he did know of the situation, seen the boogers on the towel but didn’t know I was expecting a call.  Really!  You’re the Manager and you know a guest had boogers on their towel and didn’t follow up??  Anyway, he informed me that he would not hold up to what the Hotel employee stated about taking the booger and room...My son whet to use a folded towel after his shower and there where HUGE DRIED GREEN BOOGERS on it!  Disgusting!  So glad he seen them! We shrugged it off and took the towel to the front desk to show them and it was a simple sorry (with attitude).  Due to the response I asked or a Manager and was told there was not one available, that this will be brought up to the Manager for follow up  and acted like I was bothering him and asked what else can I do for you (with an attitude).  I snapped back, handed my bill and the Booger laced Towel to him and stated just as rude as he was “You can take the cost of the complementary boogers and the cost of my room of my bill!”   He looked at me as smiled and stated, yes Ma’am.  I received no follow up call from anyone.  I called back to speak to a Manager the following day, no Manager available but did get a call back later that afternoon.  The Manager stated he did know of the situation, seen the boogers on the towel but didn’t know I was expecting a call.  Really!  You’re the Manager and you know a guest had boogers on their towel and didn’t follow up??  Anyway, he informed me that he would not hold up to what the Hotel employee stated about taking the booger and room charge off (not the money- the principle!)  but thought a credit of $20.00 should accommodate the rude employee and booger towel.  I declined the credit.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle E, Guest Relations Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded April 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2016</t>
+  </si>
+  <si>
+    <t>My son whet to use a folded towel after his shower and there where HUGE DRIED GREEN BOOGERS on it!  Disgusting!  So glad he seen them! We shrugged it off and took the towel to the front desk to show them and it was a simple sorry (with attitude).  Due to the response I asked or a Manager and was told there was not one available, that this will be brought up to the Manager for follow up  and acted like I was bothering him and asked what else can I do for you (with an attitude).  I snapped back, handed my bill and the Booger laced Towel to him and stated just as rude as he was “You can take the cost of the complementary boogers and the cost of my room of my bill!”   He looked at me as smiled and stated, yes Ma’am.  I received no follow up call from anyone.  I called back to speak to a Manager the following day, no Manager available but did get a call back later that afternoon.  The Manager stated he did know of the situation, seen the boogers on the towel but didn’t know I was expecting a call.  Really!  You’re the Manager and you know a guest had boogers on their towel and didn’t follow up??  Anyway, he informed me that he would not hold up to what the Hotel employee stated about taking the booger and room...My son whet to use a folded towel after his shower and there where HUGE DRIED GREEN BOOGERS on it!  Disgusting!  So glad he seen them! We shrugged it off and took the towel to the front desk to show them and it was a simple sorry (with attitude).  Due to the response I asked or a Manager and was told there was not one available, that this will be brought up to the Manager for follow up  and acted like I was bothering him and asked what else can I do for you (with an attitude).  I snapped back, handed my bill and the Booger laced Towel to him and stated just as rude as he was “You can take the cost of the complementary boogers and the cost of my room of my bill!”   He looked at me as smiled and stated, yes Ma’am.  I received no follow up call from anyone.  I called back to speak to a Manager the following day, no Manager available but did get a call back later that afternoon.  The Manager stated he did know of the situation, seen the boogers on the towel but didn’t know I was expecting a call.  Really!  You’re the Manager and you know a guest had boogers on their towel and didn’t follow up??  Anyway, he informed me that he would not hold up to what the Hotel employee stated about taking the booger and room charge off (not the money- the principle!)  but thought a credit of $20.00 should accommodate the rude employee and booger towel.  I declined the credit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r358635573-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>358635573</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>When in Plano...</t>
+  </si>
+  <si>
+    <t>I have stayed at most hotels in the area.  I prefer this place over the upscale Westin Stonebriar.  Clean.  Friendly.  Convenient. Good breakfast.  Decent restaurant.  Perfect business hotel.  Walking distance to a variety of restaurants and bars.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Kyle E, Guest Relations Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded March 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed at most hotels in the area.  I prefer this place over the upscale Westin Stonebriar.  Clean.  Friendly.  Convenient. Good breakfast.  Decent restaurant.  Perfect business hotel.  Walking distance to a variety of restaurants and bars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r353980732-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>353980732</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>A great place for the business travel.</t>
+  </si>
+  <si>
+    <t>Definitely will come back for the next business trip. This place is located 3 mins from my  office where I travel to. And plenty places to eat or have a spa experience in walking distance(literally across a bridge in the back). This was a fairly new hotel. The lobby was quite modern with the bright color decor. Plenty seats in the lobby. The room I got was a suite with a King sized bed. Nice sofa in the sitting area and a good sized deck. The TV had a decent size to be shared between the sitting area and the bedroom. The bath room was bright and clean. However, somehow the shower water's tempature was not quite stable for one morning. The services were great. The front desk was always polite and happy to see you and eager to help. The complimentary breakfast was fine. Everything just worked out for the business travalers which i think this place is geared for.MoreShow less</t>
+  </si>
+  <si>
+    <t>Definitely will come back for the next business trip. This place is located 3 mins from my  office where I travel to. And plenty places to eat or have a spa experience in walking distance(literally across a bridge in the back). This was a fairly new hotel. The lobby was quite modern with the bright color decor. Plenty seats in the lobby. The room I got was a suite with a King sized bed. Nice sofa in the sitting area and a good sized deck. The TV had a decent size to be shared between the sitting area and the bedroom. The bath room was bright and clean. However, somehow the shower water's tempature was not quite stable for one morning. The services were great. The front desk was always polite and happy to see you and eager to help. The complimentary breakfast was fine. Everything just worked out for the business travalers which i think this place is geared for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r353605727-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>353605727</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>New hotel, great accomodation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a business trip, I spent a few nights in this hotel and found it very good! As it's a newly built hotel, all of the amenities are very good. Nice spacious rooms with plenty of space to work/relax. Good breakfast assortment! Wifi worked well, plenty of parking space available. Walking distance to a variety of restaurants. Good place to stay for a few nights! </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r351995350-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>351995350</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Nice, Clean, and New</t>
+  </si>
+  <si>
+    <t>We stayed here 3 nights for a basketball tournament.  The rooms are large with walk in closets and split bathrooms.  There is plenty of storage and room for multiple suitcases to be open.  The rooms are split with a sitting area on one end and the bedroom on the other separated by a desk.  There is also a small fridge and microwave.   Breakfast included scambled eggs, sausage, bagels, english muffins and other things.  It was very good.  Nearby within walking distance are numerous restaurants and shops.  It was a great stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r332358167-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>332358167</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>Good value for the money.</t>
+  </si>
+  <si>
+    <t>Very nice room and at a good price. The only downside is that it is difficult to get into and out of. Like a lot of new places, they forget that the shortest distance between two points is a straight line! I can't blame it all on the hotel, as that is just how they lay out roads and driveways nowadays.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r330784428-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>330784428</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>Truly Exceptional</t>
+  </si>
+  <si>
+    <t>This hotel is truly exceptional in nearly every way. From the beautiful lobby, to the spacious and well-designed rooms, this fairly new property was designed to impress.The decor is very modern and inviting. The rooms are large and comfortable. The shower is in a separate room from the toilet, and each room has its own sink. This definitely makes getting ready in the morning easier when you have several people staying in the room. Beds are comfortable.There is ample parking, an indoor pool/hot tub, and a nice workout room. Staff members were extremely friendly and helpful. The free breakfast was definitely the best free breakfast I have ever had at a hotel. There were so many options: eggs, bacon, sausage, cereal, pastries, etc. Real glass plates, silverware, and glasses are used instead of the usual paper and plastic. The seating area is huge and the breakfast staff keeps things very well stocked.The only complaint I have at all is that the TV is very hard to watch. It's located in the space between the "sitting room" and "bedroom." The TV is bolted to the stand and doesn't pivot far enough to make viewing it from either room comfortable. You will have to watch the TV from an angle from every seat unless you sit in the computer chair and roll it in front of the TV.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is truly exceptional in nearly every way. From the beautiful lobby, to the spacious and well-designed rooms, this fairly new property was designed to impress.The decor is very modern and inviting. The rooms are large and comfortable. The shower is in a separate room from the toilet, and each room has its own sink. This definitely makes getting ready in the morning easier when you have several people staying in the room. Beds are comfortable.There is ample parking, an indoor pool/hot tub, and a nice workout room. Staff members were extremely friendly and helpful. The free breakfast was definitely the best free breakfast I have ever had at a hotel. There were so many options: eggs, bacon, sausage, cereal, pastries, etc. Real glass plates, silverware, and glasses are used instead of the usual paper and plastic. The seating area is huge and the breakfast staff keeps things very well stocked.The only complaint I have at all is that the TV is very hard to watch. It's located in the space between the "sitting room" and "bedroom." The TV is bolted to the stand and doesn't pivot far enough to make viewing it from either room comfortable. You will have to watch the TV from an angle from every seat unless you sit in the computer chair and roll it in front of the TV.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r325540826-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>325540826</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Exceptional Level OfService</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel with modern touches. It offers a lovely bar with an outstanding bartender, very personable and attentive to all. This area also offers a large dinner menu with varied choices to please all. The fillet was cooked to perfection and delicious,smothered with mushrooms and onions.The salad was crisp and fresh and the asparagus and mashed potatoes were nice sides. Check in was quick and pleasant, rooms were large and super clean and comfortable. It included micro wave and fridge. Free breakfast was outstanding and plentiful with plenty of seating. Wish all hotels in our travels could be as nice as this Spring Hill Suites.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r312883357-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>312883357</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Outstanding!!!</t>
+  </si>
+  <si>
+    <t>Nothing better within 5 miles.  We are so excited that SpringHill finally opened in the Plano. The new hotel is perfect...great rooms, great service and nice breakfast. We look forward to staying here again.  Because of it's location, it is a little difficult to reach.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r311021038-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>311021038</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Impressive hotel well worth the money</t>
+  </si>
+  <si>
+    <t>The room was clean, roomy and comfortable.  It is a relatively new hotel because everything looks new and smells new.  I loved the lighted make-up mirror in the bathroom.  It was really a fancy and useful addition to our stay.  It was very convenient to the Stonebriar Mall.  We would definitely stay again.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r308075351-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>308075351</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Great hotel...</t>
+  </si>
+  <si>
+    <t>Very impressed with this Springhill Suites... The place is clean, common areas are spacious, lots of (free) parking.  In spite of being 95+ degrees outside, the indoor part of the hotel was cool and comfortable.     The hotel itself has a bar and room service.  There is alot of restaurants in the area.  Some of them are just over the walking bridge behind the property.   The hotel is close to the mall. The breakfast options are inline with other  Springhill Suites.   The only nitpick is that the elevators were slow so had to resort to using stairs when going down.  Healthwise, probably better using stairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle E, Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Very impressed with this Springhill Suites... The place is clean, common areas are spacious, lots of (free) parking.  In spite of being 95+ degrees outside, the indoor part of the hotel was cool and comfortable.     The hotel itself has a bar and room service.  There is alot of restaurants in the area.  Some of them are just over the walking bridge behind the property.   The hotel is close to the mall. The breakfast options are inline with other  Springhill Suites.   The only nitpick is that the elevators were slow so had to resort to using stairs when going down.  Healthwise, probably better using stairs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r293921455-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>293921455</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>New Hotel with Great Staff</t>
+  </si>
+  <si>
+    <t>We chose the Springhill Suites Plano/Frisco as the hotel for our out of town guests for my son's recent wedding and couldn't be more pleased. The wedding venue was across the street and very convenient to the hotel.
+We were able to set aside a block of rooms for the wedding at a discounted rate and our guests were able to book their rooms via a direct link on the website. 
+Prior to the wedding, I made a special trip to Plano to stay at the Springhill Suites and lay groundwork in the area for the wedding. The staff couldn't have been more accommodating and answered every question with grace and a smile.
+When it came time for all of our out of town guests to descend on the hotel, the staff made each of them feel welcome. We asked them to distribute special goodie bags to each party as they arrived and they made sure that everyone received a bag. 
+The lobby is large and has several seating areas where guests can gather. Whether we gathered to work on a wedding project, eat a little lunch, or just visit, the space worked out great. It was spacious enough that the other hotel guests could still gather in several areas. As for other amenities, the indoor pool and hot tub were well maintained and a good option for a place to relax. For those who want to sunbathe, there were...We chose the Springhill Suites Plano/Frisco as the hotel for our out of town guests for my son's recent wedding and couldn't be more pleased. The wedding venue was across the street and very convenient to the hotel.We were able to set aside a block of rooms for the wedding at a discounted rate and our guests were able to book their rooms via a direct link on the website. Prior to the wedding, I made a special trip to Plano to stay at the Springhill Suites and lay groundwork in the area for the wedding. The staff couldn't have been more accommodating and answered every question with grace and a smile.When it came time for all of our out of town guests to descend on the hotel, the staff made each of them feel welcome. We asked them to distribute special goodie bags to each party as they arrived and they made sure that everyone received a bag. The lobby is large and has several seating areas where guests can gather. Whether we gathered to work on a wedding project, eat a little lunch, or just visit, the space worked out great. It was spacious enough that the other hotel guests could still gather in several areas. As for other amenities, the indoor pool and hot tub were well maintained and a good option for a place to relax. For those who want to sunbathe, there were lounge chairs on the outside patio near the pool area. Additionally, the hotel has other outdoor spaces for gathering and relaxing.Our rooms were clean, comfortable, and well-planned. The bathrooms are great - I heard several in our party rave about the showers. Each room included a sofa sleeper and desk area. Additionally, there was a long rack over the AC unit that provided extra storage. The closet included several shelving racks as well as hanging racks for clothes. While everything at the Springhill Suites Plano/Frisco was very nice, the best part of our stay was the staff. Manager Kyle and the rest of the staff went out of their way to be welcoming, upbeat, and friendly. They anticipated our every need, and made sure we had everything we needed. I can't give them enough kudos. Thanks for everything you did to make the wedding weekend a huge success!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We chose the Springhill Suites Plano/Frisco as the hotel for our out of town guests for my son's recent wedding and couldn't be more pleased. The wedding venue was across the street and very convenient to the hotel.
+We were able to set aside a block of rooms for the wedding at a discounted rate and our guests were able to book their rooms via a direct link on the website. 
+Prior to the wedding, I made a special trip to Plano to stay at the Springhill Suites and lay groundwork in the area for the wedding. The staff couldn't have been more accommodating and answered every question with grace and a smile.
+When it came time for all of our out of town guests to descend on the hotel, the staff made each of them feel welcome. We asked them to distribute special goodie bags to each party as they arrived and they made sure that everyone received a bag. 
+The lobby is large and has several seating areas where guests can gather. Whether we gathered to work on a wedding project, eat a little lunch, or just visit, the space worked out great. It was spacious enough that the other hotel guests could still gather in several areas. As for other amenities, the indoor pool and hot tub were well maintained and a good option for a place to relax. For those who want to sunbathe, there were...We chose the Springhill Suites Plano/Frisco as the hotel for our out of town guests for my son's recent wedding and couldn't be more pleased. The wedding venue was across the street and very convenient to the hotel.We were able to set aside a block of rooms for the wedding at a discounted rate and our guests were able to book their rooms via a direct link on the website. Prior to the wedding, I made a special trip to Plano to stay at the Springhill Suites and lay groundwork in the area for the wedding. The staff couldn't have been more accommodating and answered every question with grace and a smile.When it came time for all of our out of town guests to descend on the hotel, the staff made each of them feel welcome. We asked them to distribute special goodie bags to each party as they arrived and they made sure that everyone received a bag. The lobby is large and has several seating areas where guests can gather. Whether we gathered to work on a wedding project, eat a little lunch, or just visit, the space worked out great. It was spacious enough that the other hotel guests could still gather in several areas. As for other amenities, the indoor pool and hot tub were well maintained and a good option for a place to relax. For those who want to sunbathe, there were lounge chairs on the outside patio near the pool area. Additionally, the hotel has other outdoor spaces for gathering and relaxing.Our rooms were clean, comfortable, and well-planned. The bathrooms are great - I heard several in our party rave about the showers. Each room included a sofa sleeper and desk area. Additionally, there was a long rack over the AC unit that provided extra storage. The closet included several shelving racks as well as hanging racks for clothes. While everything at the Springhill Suites Plano/Frisco was very nice, the best part of our stay was the staff. Manager Kyle and the rest of the staff went out of their way to be welcoming, upbeat, and friendly. They anticipated our every need, and made sure we had everything we needed. I can't give them enough kudos. Thanks for everything you did to make the wedding weekend a huge success!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r292286240-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>292286240</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Well run hotel</t>
+  </si>
+  <si>
+    <t>Had a quick one night stay at this location. Hotel is pretty new and has the new décor. Hotel feels modern; and gives off a very clean and bright appearance.  Staff of the hotel were very professional and seemed to be well trained. Front desk experience was top notch; very quick and efficient. Check in took less than a couple of minutes. Everyone staff member said hello and asked if I needed any assistance throughout the hotel.  Room was spacious and well designed. Very quiet and comfortable. Breakfast was the standard buffet but it had good fresh fruit and the breakfast meats were very good.  Very good fitness center and pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a quick one night stay at this location. Hotel is pretty new and has the new décor. Hotel feels modern; and gives off a very clean and bright appearance.  Staff of the hotel were very professional and seemed to be well trained. Front desk experience was top notch; very quick and efficient. Check in took less than a couple of minutes. Everyone staff member said hello and asked if I needed any assistance throughout the hotel.  Room was spacious and well designed. Very quiet and comfortable. Breakfast was the standard buffet but it had good fresh fruit and the breakfast meats were very good.  Very good fitness center and pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r284697967-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>284697967</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great new design </t>
+  </si>
+  <si>
+    <t>This hotel is the new design spring hill suites, and it is awesome. Extremely friendly atmosphere, and a first class facility. The Marriott designers outdid themselves with this new offering. Tons of shopping and restaurants nearby. Give it a try.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r278123411-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>278123411</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>They think they are full servie Marriott.</t>
+  </si>
+  <si>
+    <t>New hotel in great area with poor policies. Loud noise on weekends from bars and parking lot on South side of hotel till 2 a.m. Brutal! No drinking cups in workout room. Springhill has small bar in lobby with New York City prices. They throw on 20% service charge per drink order while sitting at bar? It's like they were delivering room service. Staff has been trained to say we are only S.H. suites with a bar. We charge what we want. Like its a full service Marriott. Its no different then nice Court yards with lobby bar. 6.50 for draft beer, really! Then service charge on top of it. Platinum P. Elite member, have never heard of auto service charge for 1 person in restaurant or small 12 ft. bar area. Left message for management, never heard from them.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Kyle E, Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded June 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2015</t>
+  </si>
+  <si>
+    <t>New hotel in great area with poor policies. Loud noise on weekends from bars and parking lot on South side of hotel till 2 a.m. Brutal! No drinking cups in workout room. Springhill has small bar in lobby with New York City prices. They throw on 20% service charge per drink order while sitting at bar? It's like they were delivering room service. Staff has been trained to say we are only S.H. suites with a bar. We charge what we want. Like its a full service Marriott. Its no different then nice Court yards with lobby bar. 6.50 for draft beer, really! Then service charge on top of it. Platinum P. Elite member, have never heard of auto service charge for 1 person in restaurant or small 12 ft. bar area. Left message for management, never heard from them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r275378556-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>275378556</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Modern, New and Contemporary -- Highly Recommended!!</t>
+  </si>
+  <si>
+    <t>Recently stayed for a business trip -- loved everything about this property!  Great location, brand new modern reviews, excellent staff.   Would highly recommend to anyone!!   Our flight was very late and the night auditor, George, met me at the door with my key -- now that is 5 star service -- thanks, George!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r274513841-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>274513841</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>A Few Bugs To Iron Out - But Still A Very Nice Place</t>
+  </si>
+  <si>
+    <t>My family stayed here over the Memorial Day weekend and overall we really, really liked this place.  Great location near the Frisco Mall and the new Nebraska Furniture Mart in The Colony.  I'll give you the negatives first.  We stayed on the 5th floor (top) and the DFW area was getting some pretty heavy rainfall.  After our 2nd night we saw a leak in our ceiling right over my elderly mother's bed.  I told the front desk about it and they moved us to another suite.  Now ... let me tell you all the positives!  This is a new design SpringHill Suites that is very modern and eclectic from the time you walk in the lobby until you arrive in your room.  The suites are considerably larger than the old hotels with lots of amenities.  Great beds and pillows, a separate toilet and sink from a room with the shower and a sink.  Even a walk-in closet with plenty of storage.  And there is a nice couch area and work desk with high speed internet.  This new SpringHill Suites also has a bar, restaurant and room service which sets it apart from all the others.  There are also tons of restaurants nearby to the hotel.  The complimentary hot breakfast was awesome.  The best of any hotel chain.  Fresh scrambled eggs, fruit, sausage, bacon, waffles, yogurt, bagels, English muffins, banana bread and great coffee.  The best thing about this hotel is...My family stayed here over the Memorial Day weekend and overall we really, really liked this place.  Great location near the Frisco Mall and the new Nebraska Furniture Mart in The Colony.  I'll give you the negatives first.  We stayed on the 5th floor (top) and the DFW area was getting some pretty heavy rainfall.  After our 2nd night we saw a leak in our ceiling right over my elderly mother's bed.  I told the front desk about it and they moved us to another suite.  Now ... let me tell you all the positives!  This is a new design SpringHill Suites that is very modern and eclectic from the time you walk in the lobby until you arrive in your room.  The suites are considerably larger than the old hotels with lots of amenities.  Great beds and pillows, a separate toilet and sink from a room with the shower and a sink.  Even a walk-in closet with plenty of storage.  And there is a nice couch area and work desk with high speed internet.  This new SpringHill Suites also has a bar, restaurant and room service which sets it apart from all the others.  There are also tons of restaurants nearby to the hotel.  The complimentary hot breakfast was awesome.  The best of any hotel chain.  Fresh scrambled eggs, fruit, sausage, bacon, waffles, yogurt, bagels, English muffins, banana bread and great coffee.  The best thing about this hotel is the staff.  They are so well trained, friendly and attentive.  Some of the best I've ever seen at a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family stayed here over the Memorial Day weekend and overall we really, really liked this place.  Great location near the Frisco Mall and the new Nebraska Furniture Mart in The Colony.  I'll give you the negatives first.  We stayed on the 5th floor (top) and the DFW area was getting some pretty heavy rainfall.  After our 2nd night we saw a leak in our ceiling right over my elderly mother's bed.  I told the front desk about it and they moved us to another suite.  Now ... let me tell you all the positives!  This is a new design SpringHill Suites that is very modern and eclectic from the time you walk in the lobby until you arrive in your room.  The suites are considerably larger than the old hotels with lots of amenities.  Great beds and pillows, a separate toilet and sink from a room with the shower and a sink.  Even a walk-in closet with plenty of storage.  And there is a nice couch area and work desk with high speed internet.  This new SpringHill Suites also has a bar, restaurant and room service which sets it apart from all the others.  There are also tons of restaurants nearby to the hotel.  The complimentary hot breakfast was awesome.  The best of any hotel chain.  Fresh scrambled eggs, fruit, sausage, bacon, waffles, yogurt, bagels, English muffins, banana bread and great coffee.  The best thing about this hotel is...My family stayed here over the Memorial Day weekend and overall we really, really liked this place.  Great location near the Frisco Mall and the new Nebraska Furniture Mart in The Colony.  I'll give you the negatives first.  We stayed on the 5th floor (top) and the DFW area was getting some pretty heavy rainfall.  After our 2nd night we saw a leak in our ceiling right over my elderly mother's bed.  I told the front desk about it and they moved us to another suite.  Now ... let me tell you all the positives!  This is a new design SpringHill Suites that is very modern and eclectic from the time you walk in the lobby until you arrive in your room.  The suites are considerably larger than the old hotels with lots of amenities.  Great beds and pillows, a separate toilet and sink from a room with the shower and a sink.  Even a walk-in closet with plenty of storage.  And there is a nice couch area and work desk with high speed internet.  This new SpringHill Suites also has a bar, restaurant and room service which sets it apart from all the others.  There are also tons of restaurants nearby to the hotel.  The complimentary hot breakfast was awesome.  The best of any hotel chain.  Fresh scrambled eggs, fruit, sausage, bacon, waffles, yogurt, bagels, English muffins, banana bread and great coffee.  The best thing about this hotel is the staff.  They are so well trained, friendly and attentive.  Some of the best I've ever seen at a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r264332490-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>264332490</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Beautiful New Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is less than one year old.  The new design reminded me of a European hotel design.  There are lots of glass and mirrors in the room.  I've attached several photos to give you a good view of what you will get when staying at this hotel.The area is within walking distance of many restaurants.  The staff was very friendly and the buffet breakfast was excellent.  Waffles are available on the buffet on the weekends.  There are many couches both indoors and outdoors to relax and enjoy the weather on nice days.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r264298032-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>264298032</t>
+  </si>
+  <si>
+    <t>Very Clean Hotel New Hotel</t>
+  </si>
+  <si>
+    <t>I would like to thank Phil (Gen  Mgr), Kyle (Asst Mgr), Ryan , and Ashli for making our stay a memorable one. The Staff at this hotel is very responsive to requests, and work to make this a very clean and professional hotel. The Continental Breakfast was very nice (especially the Texas Sized Waffles) our kids loved them. This hotel is very close to many places  to eat sit down or take out (surrounding the hotel), and about a 7 min drive to a very nice Mall.The rooms have a very chic look, and the bar in the lobby is clean and well maintained.Having a family of (4) I am big on customer service and cleanliness. This Hotel exhibited it on our trip. I would recommend this hotel , and will stay here the next time I am in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>I would like to thank Phil (Gen  Mgr), Kyle (Asst Mgr), Ryan , and Ashli for making our stay a memorable one. The Staff at this hotel is very responsive to requests, and work to make this a very clean and professional hotel. The Continental Breakfast was very nice (especially the Texas Sized Waffles) our kids loved them. This hotel is very close to many places  to eat sit down or take out (surrounding the hotel), and about a 7 min drive to a very nice Mall.The rooms have a very chic look, and the bar in the lobby is clean and well maintained.Having a family of (4) I am big on customer service and cleanliness. This Hotel exhibited it on our trip. I would recommend this hotel , and will stay here the next time I am in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r263616862-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>263616862</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>Very Good Hotel</t>
+  </si>
+  <si>
+    <t>This SpringHill Suites is a very nice hotel located right off Hwy 121 in north Plano. The property is very new and nicely appointed. The staff is very courteous and knowledgeable of the area. The hotel is located within walking distance of several restaurants and a 5 minute drive to a very large mall, movie theater, AA Minor League ballpark, and more restaurants. The rooms are a good size, very clean, and neat. There is a bar in the lobby that is open to midnight. The breakfast buffet is standard fare and again kept up very well. This is definitely a good place to stay while traveling through North Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>This SpringHill Suites is a very nice hotel located right off Hwy 121 in north Plano. The property is very new and nicely appointed. The staff is very courteous and knowledgeable of the area. The hotel is located within walking distance of several restaurants and a 5 minute drive to a very large mall, movie theater, AA Minor League ballpark, and more restaurants. The rooms are a good size, very clean, and neat. There is a bar in the lobby that is open to midnight. The breakfast buffet is standard fare and again kept up very well. This is definitely a good place to stay while traveling through North Texas.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1910,3883 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>172</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s">
+        <v>188</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>70</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" t="s">
+        <v>145</v>
+      </c>
+      <c r="L23" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>200</v>
+      </c>
+      <c r="J24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>204</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>204</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>210</v>
+      </c>
+      <c r="X25" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" t="s">
+        <v>217</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>218</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" t="s">
+        <v>223</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>204</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s">
+        <v>228</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>218</v>
+      </c>
+      <c r="O28" t="s">
+        <v>95</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>234</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>237</v>
+      </c>
+      <c r="J30" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L30" t="s">
+        <v>240</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>242</v>
+      </c>
+      <c r="J31" t="s">
+        <v>243</v>
+      </c>
+      <c r="K31" t="s">
+        <v>244</v>
+      </c>
+      <c r="L31" t="s">
+        <v>245</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>246</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>252</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" t="s">
+        <v>255</v>
+      </c>
+      <c r="K33" t="s">
+        <v>256</v>
+      </c>
+      <c r="L33" t="s">
+        <v>257</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>252</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" t="s">
+        <v>260</v>
+      </c>
+      <c r="K34" t="s">
+        <v>261</v>
+      </c>
+      <c r="L34" t="s">
+        <v>262</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>252</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>263</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>264</v>
+      </c>
+      <c r="J35" t="s">
+        <v>265</v>
+      </c>
+      <c r="K35" t="s">
+        <v>266</v>
+      </c>
+      <c r="L35" t="s">
+        <v>267</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>268</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>269</v>
+      </c>
+      <c r="X35" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>273</v>
+      </c>
+      <c r="J36" t="s">
+        <v>274</v>
+      </c>
+      <c r="K36" t="s">
+        <v>275</v>
+      </c>
+      <c r="L36" t="s">
+        <v>276</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>277</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>278</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>279</v>
+      </c>
+      <c r="J37" t="s">
+        <v>280</v>
+      </c>
+      <c r="K37" t="s">
+        <v>281</v>
+      </c>
+      <c r="L37" t="s">
+        <v>282</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>277</v>
+      </c>
+      <c r="O37" t="s">
+        <v>283</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>269</v>
+      </c>
+      <c r="X37" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>285</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>286</v>
+      </c>
+      <c r="J38" t="s">
+        <v>287</v>
+      </c>
+      <c r="K38" t="s">
+        <v>288</v>
+      </c>
+      <c r="L38" t="s">
+        <v>289</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>268</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>291</v>
+      </c>
+      <c r="J39" t="s">
+        <v>292</v>
+      </c>
+      <c r="K39" t="s">
+        <v>293</v>
+      </c>
+      <c r="L39" t="s">
+        <v>294</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>268</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>295</v>
+      </c>
+      <c r="X39" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>299</v>
+      </c>
+      <c r="J40" t="s">
+        <v>300</v>
+      </c>
+      <c r="K40" t="s">
+        <v>301</v>
+      </c>
+      <c r="L40" t="s">
+        <v>302</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>303</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>304</v>
+      </c>
+      <c r="X40" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>307</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>308</v>
+      </c>
+      <c r="J41" t="s">
+        <v>309</v>
+      </c>
+      <c r="K41" t="s">
+        <v>310</v>
+      </c>
+      <c r="L41" t="s">
+        <v>311</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>303</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>313</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>314</v>
+      </c>
+      <c r="J42" t="s">
+        <v>315</v>
+      </c>
+      <c r="K42" t="s">
+        <v>316</v>
+      </c>
+      <c r="L42" t="s">
+        <v>317</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>318</v>
+      </c>
+      <c r="X42" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>321</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>322</v>
+      </c>
+      <c r="J43" t="s">
+        <v>323</v>
+      </c>
+      <c r="K43" t="s">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s">
+        <v>325</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>326</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>327</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>328</v>
+      </c>
+      <c r="J44" t="s">
+        <v>329</v>
+      </c>
+      <c r="K44" t="s">
+        <v>330</v>
+      </c>
+      <c r="L44" t="s">
+        <v>331</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>332</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>334</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>335</v>
+      </c>
+      <c r="J45" t="s">
+        <v>336</v>
+      </c>
+      <c r="K45" t="s">
+        <v>337</v>
+      </c>
+      <c r="L45" t="s">
+        <v>338</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>332</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>339</v>
+      </c>
+      <c r="X45" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>342</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>343</v>
+      </c>
+      <c r="J46" t="s">
+        <v>344</v>
+      </c>
+      <c r="K46" t="s">
+        <v>345</v>
+      </c>
+      <c r="L46" t="s">
+        <v>346</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>347</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>348</v>
+      </c>
+      <c r="X46" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>351</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>352</v>
+      </c>
+      <c r="J47" t="s">
+        <v>353</v>
+      </c>
+      <c r="K47" t="s">
+        <v>354</v>
+      </c>
+      <c r="L47" t="s">
+        <v>355</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>347</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>358</v>
+      </c>
+      <c r="J48" t="s">
+        <v>359</v>
+      </c>
+      <c r="K48" t="s">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s">
+        <v>361</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>362</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>363</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>364</v>
+      </c>
+      <c r="J49" t="s">
+        <v>365</v>
+      </c>
+      <c r="K49" t="s">
+        <v>366</v>
+      </c>
+      <c r="L49" t="s">
+        <v>367</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>362</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>368</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>369</v>
+      </c>
+      <c r="J50" t="s">
+        <v>370</v>
+      </c>
+      <c r="K50" t="s">
+        <v>371</v>
+      </c>
+      <c r="L50" t="s">
+        <v>372</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>373</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>374</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>375</v>
+      </c>
+      <c r="J51" t="s">
+        <v>376</v>
+      </c>
+      <c r="K51" t="s">
+        <v>377</v>
+      </c>
+      <c r="L51" t="s">
+        <v>378</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>373</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>380</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>381</v>
+      </c>
+      <c r="J52" t="s">
+        <v>382</v>
+      </c>
+      <c r="K52" t="s">
+        <v>383</v>
+      </c>
+      <c r="L52" t="s">
+        <v>384</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>385</v>
+      </c>
+      <c r="O52" t="s">
+        <v>95</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>386</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>387</v>
+      </c>
+      <c r="J53" t="s">
+        <v>388</v>
+      </c>
+      <c r="K53" t="s">
+        <v>389</v>
+      </c>
+      <c r="L53" t="s">
+        <v>390</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>391</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>392</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>393</v>
+      </c>
+      <c r="J54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K54" t="s">
+        <v>395</v>
+      </c>
+      <c r="L54" t="s">
+        <v>396</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>397</v>
+      </c>
+      <c r="O54" t="s">
+        <v>71</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>398</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>399</v>
+      </c>
+      <c r="J55" t="s">
+        <v>400</v>
+      </c>
+      <c r="K55" t="s">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s">
+        <v>402</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>391</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>403</v>
+      </c>
+      <c r="X55" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>406</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>407</v>
+      </c>
+      <c r="J56" t="s">
+        <v>408</v>
+      </c>
+      <c r="K56" t="s">
+        <v>409</v>
+      </c>
+      <c r="L56" t="s">
+        <v>410</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>411</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>413</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>414</v>
+      </c>
+      <c r="J57" t="s">
+        <v>415</v>
+      </c>
+      <c r="K57" t="s">
+        <v>416</v>
+      </c>
+      <c r="L57" t="s">
+        <v>417</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>411</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>419</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>420</v>
+      </c>
+      <c r="J58" t="s">
+        <v>421</v>
+      </c>
+      <c r="K58" t="s">
+        <v>422</v>
+      </c>
+      <c r="L58" t="s">
+        <v>423</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>411</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>424</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>425</v>
+      </c>
+      <c r="J59" t="s">
+        <v>426</v>
+      </c>
+      <c r="K59" t="s">
+        <v>427</v>
+      </c>
+      <c r="L59" t="s">
+        <v>428</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>429</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>430</v>
+      </c>
+      <c r="X59" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>433</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>434</v>
+      </c>
+      <c r="J60" t="s">
+        <v>435</v>
+      </c>
+      <c r="K60" t="s">
+        <v>436</v>
+      </c>
+      <c r="L60" t="s">
+        <v>437</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>429</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>438</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>439</v>
+      </c>
+      <c r="J61" t="s">
+        <v>440</v>
+      </c>
+      <c r="K61" t="s">
+        <v>441</v>
+      </c>
+      <c r="L61" t="s">
+        <v>442</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>429</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>444</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>445</v>
+      </c>
+      <c r="J62" t="s">
+        <v>446</v>
+      </c>
+      <c r="K62" t="s">
+        <v>447</v>
+      </c>
+      <c r="L62" t="s">
+        <v>448</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>449</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>450</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>451</v>
+      </c>
+      <c r="J63" t="s">
+        <v>446</v>
+      </c>
+      <c r="K63" t="s">
+        <v>452</v>
+      </c>
+      <c r="L63" t="s">
+        <v>453</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>449</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>455</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>456</v>
+      </c>
+      <c r="J64" t="s">
+        <v>457</v>
+      </c>
+      <c r="K64" t="s">
+        <v>458</v>
+      </c>
+      <c r="L64" t="s">
+        <v>459</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>460</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>461</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_688.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_688.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="523">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>M T</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Great place Great locationGreat staffI have become a frequent guest at this hotel due to my work schedule and high quality stays!!Austin is one of my favorite front desk staff.  He makes checkin and getting my luggage upstairs easy and smooth. Little wait time and easy. He also helped me book a room for one of my coworkers. Earlier they were booked but later in the week he let me know one Had opened up and we immediately booked it!  Great staff here with a kind personal touch!  The breakfast is always fresh and hot. I love their scrambled eggs and fresh fruit!  Ladies that work there all r kind and helpful. Very clean and plenty of things to chose from. Was pleasantly surprised!!!My room is always clean and cozy. Quiet and relaxing. Best place for a road warrior. Also like the fitness center and oh- location is excellent. Plenty of places to walk to - restaurants bars shops. Awesome. I will stay here again!More</t>
   </si>
   <si>
+    <t>GreatFamilyTime5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r569387478-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>We stayed here on a recent trip to Plano! The hotel is very nice and very clean! The rooms are also very spacious. The location of the hotel is great! It is in a newly developed area and is near lots of shopping. You could walk to several different eating places if you wanted to. We look forward to staying here again!More</t>
   </si>
   <si>
+    <t>sayhi2tinee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r569102955-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>I used my Marriott Rewards points for a 3-night stay. Hotel room was a good size but the bathroom was a little tight. Breakfast was standard fare but could have been better.If you're in a room next to the stairwell you will be able to hear people going up and down. Not a big deal unless there are a bunch of kids staying in the hotel, like there was during our stayVery convenient to Frisco/Plano shopping and diningElevators are really slow so you'll need some patienceWould stay here again next time I'm in town.More</t>
   </si>
   <si>
+    <t>gmacfloyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r562815101-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>I just enjoyed the most peaceful, quiet night away from home in years at SpringHill Suites Dallas Plano/Frisco. It's a wonderful facility, bright, clean and beautifully decorated. The coffee is excellent, giving Starbuck's a run for its quality. The complementary breakfast was delicious, well balanced, and provided lengthy enjoyment for every guest on a Sunday morning. The hotel is located near the best shopping and within minutes of Stonebriar Community Church, a Frisco treasure. I will definitely return.More</t>
   </si>
   <si>
+    <t>Jahuie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r559883920-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>This hotel checks all the marks. The decor is great and the hotel lends itself making someone feel comfortable which visiting the Frisco area. The restaurant/bar is great for happy hour and the staff was extremely nice. All in all, great location. More</t>
   </si>
   <si>
+    <t>retired43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r558187097-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -309,6 +327,9 @@
     <t>I'd never stayed at this Marriott brand.  It wasn't a true suite with 2 separate rooms.  The living room area was delineated by a 3/4 wall with half of the wall being frosted glass.  There was a fridge &amp; microwave.  There was a pull out couch &amp; a chaise lounge type chair plus 2 queen beds so a family with lots of kids could easily fit.  I forgot my toothbrush &amp; they had an area that sold things.  But the front desk asked what I was looking for &amp; said toothbrush &amp; toothpaste were complementary.  So that was a pleasant surprise.  Check in was 3 PM but I arrive at 9 AM &amp; was given a room immediately.  Obviously if they are full that's not going to happen.  But it's nice that they didn't stand fast on the official check in time. Wi-fi was free for enough to do email.  But if you needed to stream video it was $4.95 a day.More</t>
   </si>
   <si>
+    <t>sleepygirltravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r544721023-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -336,6 +357,9 @@
     <t>Newer hotel. Clean hotel. Great location. Close to restaurants and shopping. They have an indoor pool and hot tub. Good breakfast with fresh fruit. They didn’t have the waffles or pancakes though. Rooms were excellent. Nice and spacious for a family.More</t>
   </si>
   <si>
+    <t>Saurav S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r544700524-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -360,6 +384,9 @@
     <t>The hotel staff is so friendly. I stayed for 50 days and got so familiar with them. Felt like staying at a home away from home. The housekeeping staff is very nice too. Looking forward to another stay on my next visit to Plano.More</t>
   </si>
   <si>
+    <t>Tom K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r543778475-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -378,6 +405,9 @@
     <t>While visiting family in the Dallas area we once again stayed at SpringHill Suites. Just like our previous stay here there were no surprises.  Staff very friendly and professional. Breakfast was great. Even though we stayed here over Thanksgiving and they had a full house, the food selections were always kept supplied. This was no small task since there were a lot of kids there fro some sort of Soccer tournament. I'm not sure how they kept up with the food, but they did. I have a lower back issue and a good nights sleep sometimes escapes me , when staying in a hotel. Not this place! In fact it was so comfortable I was going to see what type of mattresses they use. I forgot to check, must call them and find out.  They have a bar for those that would like an adult beverage after a long day of travel.  Our family in the area does not have room for guests so my wife and I stay here. We will be back. Thanks to the great staff for making our stay enjoyable.  Complementary Newspaper and Wall Street Journal.More</t>
   </si>
   <si>
+    <t>Jerry B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r540246099-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -402,6 +432,9 @@
     <t>I slept like a baby.  The place is only a couple years old.  It clean and the bed was very comfortable.  I would stay again and probably will.  Very close to the Stonebriar Shopping Center and many other shopping opportunities.  Within walking distance of numerous restaurants.  The staff was very friendly.  No complaints here!More</t>
   </si>
   <si>
+    <t>Daniel L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r539424852-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -426,6 +459,9 @@
     <t>The Hotel is new and modern with a very comfortable feel. The room was very impressive with an outstanding bathroom. The service was excellent with all staff members being very friendly and inviting. The continental breakfast and items off of the menu were great.More</t>
   </si>
   <si>
+    <t>life108</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r539410092-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -444,6 +480,9 @@
     <t>We ended up at this location by mistake.  When I called the location I wanted to stay at I was switched to the reservation line and they booked my room at this location.  Upon arrival I was very upset but the personnel was awesome.  She was very nice and assured me there where things close by.  Our room and was very nice.  Breakfast set up was great.  Staff very helpful.  Location turned out to be awesome.  I will stay here again.More</t>
   </si>
   <si>
+    <t>Beverly C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r533143200-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -468,6 +507,9 @@
     <t>We stayed at spring hill Marriott in Plano Texas. The staff was amazing!!! We flew in for a wedding from out of state we had forgotten some items when we went to front desk they took care of us immediately and got us the forgotten items  free of charge. Every time we went anywhere in the hotel the staff was so friendly and very attentive to our needs. I would recommend this hotel to any one staying in Plano Texas area. Way to go Spring hill Marriott. We are coming back in April and i plan to stay here againMore</t>
   </si>
   <si>
+    <t>PJT99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r525143054-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -486,6 +528,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Lyndal B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r522058846-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -501,6 +546,9 @@
     <t>Reasonably new hotel that has beautiful modern rooms, superb hot breakfast, and very friendly staff. Also has meeting rooms for conferences. Location, once you can find the place, is convenient to a large shopping mall, numerous restaurants nearby, and near accessible freeways. Plenty of parking, but somewhat a long walk. Would definitely stay here again.</t>
   </si>
   <si>
+    <t>Ramachandran V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r496705772-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -519,6 +567,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Grizzly386</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r495270089-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -537,6 +588,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Kim M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r492779953-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -555,6 +609,9 @@
     <t>I'm writing this review after having stayed at this hotel twice in the last month for softball tournaments.  Both stays were excellent!  The room is very clean and the bed very comfortable.  The staff very accommodating and friendly.  Great breakfast!We try to stay here every time we are in Plano, however, last weekend they were booked and we had to stay at the Hilton Granite Park... MISTAKE!  The Hilton room was not any nicer, but was nearly $200 more because of the surprise "incidental expenses" and hidden fees. If you are traveling for softball... this hotel is awesome because it is in the middle of Shawnee Trail Sports Complex in Frisco, Heritage Yards and Archgate park in Plano.  Within 15 min. of each park. Also, there is a 7-11 on the corner near the hotel for ice and snacks.  A Chick-fil-A in the shopping center across from the hotel.Great hotel for the money.  Some reviews say the hotel is loud or the doors are loud.  I didn't notice that, but I always turn the a/c fan to "on" (not auto) in my room which muffles the sound from the hallway.More</t>
   </si>
   <si>
+    <t>Kirit P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r484773571-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -570,6 +627,9 @@
     <t>Good and clean rooms and friendly employee. Everything you need is close by. Breakfast was also decent. But not too many choices.  We stayed there for three days. Nice view on the back side of the building.</t>
   </si>
   <si>
+    <t>pramzy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r482288631-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -588,6 +648,9 @@
     <t>Stayed here recently for 8 nights whilst in Dallas for a wedding as part of a  group of 11 from the UK. I have stayed in many a business hotel over the years but I have to say that the cleanliness of this hotel, the quality of service and the positive attitude of all the staff made this one of the best hotel experiences I have ever had. OK the breakfast is not quite the full on English that we are used to but still exceeded our expectations and was more than adequate.A special thanks must go out to all of the front desk staff especially Austin who always wore a broad smile and was forever willing to share information about the locality or just chat.I will without hesitation use this hotel again if in the area.More</t>
   </si>
   <si>
+    <t>Maroon108</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r477266961-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -603,6 +666,9 @@
     <t>I like to stay in this hotel , had been here at least 10 times so far, nice team, breakfast is absurdity good ( I which they added vegetables as well ) The rooms are clean and i do like their design and coloring also the settings of everything is nice, I got this time the disabled room and it is just fine</t>
   </si>
   <si>
+    <t>JasonKirksey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r472988299-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -615,6 +681,9 @@
     <t>By the looks of it, this hotel is practically brand new. The whole area around the hotel is brand new/still being built as well. There are about 50 places to eat within a five minute drive or short walk. The room was very spacious and set up well. I have to return to the area in a few months and will book here again. The hotel is right on par with the Marriott standard and certainly at the top of the Springhill Suites Brand standards.</t>
   </si>
   <si>
+    <t>Julie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r468350838-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -633,6 +702,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>travelingfamily5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r467695868-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -657,6 +729,9 @@
     <t>Nice newer lobby and rooms. Convenient location to 121 and tollroads and to shopping and restaurants. Large room and wonderful large walk-in closet. VERY STRANGE toilet and shower area that are each separate but both open directly into the room. In the room, you could hear everything from the toilet room which was uncomfortable for everyone. The toilet room door was a large heavy sliding door that made so much noise when rolled closed and woke up all sleepers during the night. Worst part was the motion activated AC thermostat that went off all night while we were sleeping!  It's hot in the Dallas area - even in March. Front desk said the motion detector should not have kept the unit from blowing, and they would look into repairs. We only stayed one night. So many hotels nearby that I will choose a different one next time.More</t>
   </si>
   <si>
+    <t>peve33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r465957366-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -675,6 +750,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>VIEQUESBEACHBUM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r465198761-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -690,6 +768,9 @@
     <t>I booked this room without even looking at the room rate assuming(yes I know) that it would be in line with other Marriott properties I stay at.  Unfortunately it was not.  The one night room tab clocked in at an accountant eyebrow raising $197.00  i will not be staying here again with so many other more reasonable options in the area</t>
   </si>
   <si>
+    <t>699louises</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r460015787-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -705,6 +786,9 @@
     <t xml:space="preserve">Pleasant visit.  The hotel staff was friendly and courteous.  More importantly it was clean.  Lots of restaurants close by and even a mall for all the shoppers.  Complimentary breakfast with healthy options.  Ample parking and the rooms were spacious. Highly recommend.  </t>
   </si>
   <si>
+    <t>Traveller18755</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r454936444-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -726,6 +810,9 @@
     <t>This was my first time at the SpringHill Suites and being a part of Marriott, I anticipated a cut-above in terms of food quality. On that point we were not disappointed. The breakfast buffet was very good and I doubt could disappoint in terms of quality and selection of hot and cold items and a large selection of breakfast breads and coffee. The rooms are a sufficient size but not oversized like I find in some similar class hotels. The rooms are stylishly appointed though appropriate for the price per night and I particularly enjoyed the large flat screen TV. We sat at the bar one night and ordered some drinks which were made very well in a friendly atmosphere. Check-in and check-out were friendly and efficient. Overall it was a good stay. More</t>
   </si>
   <si>
+    <t>Traveller C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r449761461-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -741,6 +828,9 @@
     <t>except for the overly sprayed room fresher which smells good but has side effects of heavy head and gradually a head ache that lasted for nearly 3 days after checking out....the hotel was great. I will stay here again, but ask for non chemical sprayed room. The bed and the pillows were very comfortable; there is an indoor pool(towels provided) that has a good warm water, there is also a sauna which we took advantage of on a cold evening.The breakfast is typical Marriott style, but would love more options for vegetarians. The front desk is very cordial, polite and friendly, the service is prompt.</t>
   </si>
   <si>
+    <t>Iamawwsum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r445872097-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -759,6 +849,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>kall29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r434113048-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -792,6 +885,9 @@
     <t xml:space="preserve">Double queen room is great .  Bathroom is separated with shower &amp; sink in one section &amp; toilet &amp; sink in another section.  Great when traveling with friend.  Beds are very comfortable.  Staff very nice and accommodating.  Close to shopping.  </t>
   </si>
   <si>
+    <t>150hotelnightsayear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r425689214-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -834,6 +930,9 @@
     <t>My wife and I flew to Dallas to meet up with family to take a trip down to San Antonio. Since it was close to my daughter and grandkids we decided to stay at the SpringHill Suites in Plano  8401 Angels Dr. We stayed the first night in Texas and the last night prior to departing for home.  We were not disappointed. This Suite was top notch. We had a great desk area , very clean room, comfortable bed and the staff was very friendly and helpful. There are several new places to eat within walking distance of the facility. The breakfast bar was great , everything was fresh and the staff working this area stayed on top of keeping everything full .More</t>
   </si>
   <si>
+    <t>Jodi D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r409923594-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -852,6 +951,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Scott N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r405842097-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -873,6 +975,9 @@
     <t>This hotel was clean and well maintained and the staff were friendly.  The room was larger than normal and the bed was very comfortable.  For a quick weekend visit, it suited my needs perfectly.  I have zero complaints.More</t>
   </si>
   <si>
+    <t>MtnMadMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r393683579-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -888,6 +993,9 @@
     <t>Traveled to Frisco to attend #Summerwc2016 @ Collin College and chose to stay here. Decor in lobby and room was very nice. Should a picture of the room and friends said, "very Euro." And I agree. Room was a generous size with a mini fridge seating area, desk , and bath was right in front of the bed. Big, frosted glass and wood sliding door was a nice touch. Shower only, but I didn't mind. When I travel with my wife, she prefers rooms with a nice bath tub. Staff was very friendly.</t>
   </si>
   <si>
+    <t>Gustavo R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r388686647-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1020,9 @@
     <t>We came to Dallas, TX for my brother's wedding. We stayed for 2 nights at this hotel. We let management know ahead that we had a toddler. During our stay we got no room cleaning whatsoever. What that means was that our room was smelling of dirty diapers for most of our stay, our beds were never made, our towels were wet and so on. That also meant that we had to deal with local ROACHES as you can see in my picture. Disgusting. I complained at front desk only to hear from them there was nothing they could do. There was no compensation. Nothing. I really don't recommend staying here, unless you want to de treated this way.More</t>
   </si>
   <si>
+    <t>WineTraveler1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r386677852-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -939,6 +1050,9 @@
     <t>I stayed an entire week at this new property. Typical beautiful new Marriott facility, but to my total surprise, the customer service was horrible. After the week, I felt like I had to share with the manager, as again this must be atypical. I was WRONG. The manager gave me attitude and didn't care in the least that all week long the staff left things in our room, didn't put new towels in, the front desk person had similar attitude and hung up on me. Incredibly disappointing to see a Marriott have such poor customer service, but after speaking with the manager, Kyle. I now know why .......More</t>
   </si>
   <si>
+    <t>Carolinablue26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r378466717-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1071,9 @@
     <t>The hotel is practically brand new or seems to be kept in like new condition! The hotel staff is very accommodating and friendly. My family stayed here for a wedding that was at Noah's and the location was just perfect. There is plenty of dining around so you will not have to travel far. It's close enough to the main highway but far enough back so you do not hear the road noise. I was unable to use the pool, fitness center, or even have breakfast but I'm sure it was per Marriott standards which would be acceptable. The only complaint I have is that the elevators are super slow! But not the hotels fault just a slow elevator. Should have gone with Otis because they can adjust speeds. If I was in the area I would definitely stay here again without a doubt. More</t>
   </si>
   <si>
+    <t>mimijoyce</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r373878443-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1098,9 @@
     <t>It's new,the staff is young and eager to please, beds are comfy and the breakfast in the morning is hot.  The onlything that bothers me a little is-I'm short and the shower nozzle is for very tall folks, so I have to hold my breath to keep from drowning when I'm under it.  I'm sure you get the picture of why I like these suites, but the real reason I'm so fond of it is that I make a phone call when I'm 5 minutes away, and my great grand daughter meets me at the front door.More</t>
   </si>
   <si>
+    <t>Will Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r373525152-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1119,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Aaron W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r368750610-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1020,6 +1143,9 @@
     <t>I have stayed at the Springhill Suites in Plano/Frisco several times for both business and with my family.  There are no Marriott affiliated hotels currently in Frisco and I have tried several different ones around. This is now my go to when I am in the area. The staff is friendly and the hotel is new and modern.  It is located just across the 121 from the Stonebriar Mall and there are a lot of restaurant choices in the immediate vicinity.  I was last there in early April and had an issue with my wifi but a call down to the desk took care of the problem immediately.  There is a cafe type restaurant and bar on the first floor so they offer room service as well.  The breakfast buffet is typical for a Springhill Suites but the staff is attentive and it is a nice eating area.  The price is a little high for the brand but the location for me makes it worth it. I will definitely be going back to stay here on my next trip.More</t>
   </si>
   <si>
+    <t>Sheila L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r361581258-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1170,9 @@
     <t>My son whet to use a folded towel after his shower and there where HUGE DRIED GREEN BOOGERS on it!  Disgusting!  So glad he seen them! We shrugged it off and took the towel to the front desk to show them and it was a simple sorry (with attitude).  Due to the response I asked or a Manager and was told there was not one available, that this will be brought up to the Manager for follow up  and acted like I was bothering him and asked what else can I do for you (with an attitude).  I snapped back, handed my bill and the Booger laced Towel to him and stated just as rude as he was “You can take the cost of the complementary boogers and the cost of my room of my bill!”   He looked at me as smiled and stated, yes Ma’am.  I received no follow up call from anyone.  I called back to speak to a Manager the following day, no Manager available but did get a call back later that afternoon.  The Manager stated he did know of the situation, seen the boogers on the towel but didn’t know I was expecting a call.  Really!  You’re the Manager and you know a guest had boogers on their towel and didn’t follow up??  Anyway, he informed me that he would not hold up to what the Hotel employee stated about taking the booger and room...My son whet to use a folded towel after his shower and there where HUGE DRIED GREEN BOOGERS on it!  Disgusting!  So glad he seen them! We shrugged it off and took the towel to the front desk to show them and it was a simple sorry (with attitude).  Due to the response I asked or a Manager and was told there was not one available, that this will be brought up to the Manager for follow up  and acted like I was bothering him and asked what else can I do for you (with an attitude).  I snapped back, handed my bill and the Booger laced Towel to him and stated just as rude as he was “You can take the cost of the complementary boogers and the cost of my room of my bill!”   He looked at me as smiled and stated, yes Ma’am.  I received no follow up call from anyone.  I called back to speak to a Manager the following day, no Manager available but did get a call back later that afternoon.  The Manager stated he did know of the situation, seen the boogers on the towel but didn’t know I was expecting a call.  Really!  You’re the Manager and you know a guest had boogers on their towel and didn’t follow up??  Anyway, he informed me that he would not hold up to what the Hotel employee stated about taking the booger and room charge off (not the money- the principle!)  but thought a credit of $20.00 should accommodate the rude employee and booger towel.  I declined the credit.More</t>
   </si>
   <si>
+    <t>DiamondMemberScott</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r358635573-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1200,9 @@
     <t>I have stayed at most hotels in the area.  I prefer this place over the upscale Westin Stonebriar.  Clean.  Friendly.  Convenient. Good breakfast.  Decent restaurant.  Perfect business hotel.  Walking distance to a variety of restaurants and bars.More</t>
   </si>
   <si>
+    <t>jjkittycat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r353980732-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1089,6 +1221,9 @@
     <t>Definitely will come back for the next business trip. This place is located 3 mins from my  office where I travel to. And plenty places to eat or have a spa experience in walking distance(literally across a bridge in the back). This was a fairly new hotel. The lobby was quite modern with the bright color decor. Plenty seats in the lobby. The room I got was a suite with a King sized bed. Nice sofa in the sitting area and a good sized deck. The TV had a decent size to be shared between the sitting area and the bedroom. The bath room was bright and clean. However, somehow the shower water's tempature was not quite stable for one morning. The services were great. The front desk was always polite and happy to see you and eager to help. The complimentary breakfast was fine. Everything just worked out for the business travalers which i think this place is geared for.More</t>
   </si>
   <si>
+    <t>Peter K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r353605727-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1242,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Tenderpaw01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r351995350-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1260,9 @@
     <t>We stayed here 3 nights for a basketball tournament.  The rooms are large with walk in closets and split bathrooms.  There is plenty of storage and room for multiple suitcases to be open.  The rooms are split with a sitting area on one end and the bedroom on the other separated by a desk.  There is also a small fridge and microwave.   Breakfast included scambled eggs, sausage, bagels, english muffins and other things.  It was very good.  Nearby within walking distance are numerous restaurants and shops.  It was a great stay.</t>
   </si>
   <si>
+    <t>Ed D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r332358167-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1281,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Inquisitive_Wayfarer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r330784428-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1158,6 +1302,9 @@
     <t>This hotel is truly exceptional in nearly every way. From the beautiful lobby, to the spacious and well-designed rooms, this fairly new property was designed to impress.The decor is very modern and inviting. The rooms are large and comfortable. The shower is in a separate room from the toilet, and each room has its own sink. This definitely makes getting ready in the morning easier when you have several people staying in the room. Beds are comfortable.There is ample parking, an indoor pool/hot tub, and a nice workout room. Staff members were extremely friendly and helpful. The free breakfast was definitely the best free breakfast I have ever had at a hotel. There were so many options: eggs, bacon, sausage, cereal, pastries, etc. Real glass plates, silverware, and glasses are used instead of the usual paper and plastic. The seating area is huge and the breakfast staff keeps things very well stocked.The only complaint I have at all is that the TV is very hard to watch. It's located in the space between the "sitting room" and "bedroom." The TV is bolted to the stand and doesn't pivot far enough to make viewing it from either room comfortable. You will have to watch the TV from an angle from every seat unless you sit in the computer chair and roll it in front of the TV.More</t>
   </si>
   <si>
+    <t>Lynne_judy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r325540826-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1176,6 +1323,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>drlehman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r312883357-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1194,6 +1344,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>pickyBossierCity_LA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r311021038-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1365,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>bogeygolfer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r308075351-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1234,6 +1390,9 @@
   </si>
   <si>
     <t>Very impressed with this Springhill Suites... The place is clean, common areas are spacious, lots of (free) parking.  In spite of being 95+ degrees outside, the indoor part of the hotel was cool and comfortable.     The hotel itself has a bar and room service.  There is alot of restaurants in the area.  Some of them are just over the walking bridge behind the property.   The hotel is close to the mall. The breakfast options are inline with other  Springhill Suites.   The only nitpick is that the elevators were slow so had to resort to using stairs when going down.  Healthwise, probably better using stairs.More</t>
+  </si>
+  <si>
+    <t>mgm858</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r293921455-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -1265,6 +1424,9 @@
 The lobby is large and has several seating areas where guests can gather. Whether we gathered to work on a wedding project, eat a little lunch, or just visit, the space worked out great. It was spacious enough that the other hotel guests could still gather in several areas. As for other amenities, the indoor pool and hot tub were well maintained and a good option for a place to relax. For those who want to sunbathe, there were...We chose the Springhill Suites Plano/Frisco as the hotel for our out of town guests for my son's recent wedding and couldn't be more pleased. The wedding venue was across the street and very convenient to the hotel.We were able to set aside a block of rooms for the wedding at a discounted rate and our guests were able to book their rooms via a direct link on the website. Prior to the wedding, I made a special trip to Plano to stay at the Springhill Suites and lay groundwork in the area for the wedding. The staff couldn't have been more accommodating and answered every question with grace and a smile.When it came time for all of our out of town guests to descend on the hotel, the staff made each of them feel welcome. We asked them to distribute special goodie bags to each party as they arrived and they made sure that everyone received a bag. The lobby is large and has several seating areas where guests can gather. Whether we gathered to work on a wedding project, eat a little lunch, or just visit, the space worked out great. It was spacious enough that the other hotel guests could still gather in several areas. As for other amenities, the indoor pool and hot tub were well maintained and a good option for a place to relax. For those who want to sunbathe, there were lounge chairs on the outside patio near the pool area. Additionally, the hotel has other outdoor spaces for gathering and relaxing.Our rooms were clean, comfortable, and well-planned. The bathrooms are great - I heard several in our party rave about the showers. Each room included a sofa sleeper and desk area. Additionally, there was a long rack over the AC unit that provided extra storage. The closet included several shelving racks as well as hanging racks for clothes. While everything at the Springhill Suites Plano/Frisco was very nice, the best part of our stay was the staff. Manager Kyle and the rest of the staff went out of their way to be welcoming, upbeat, and friendly. They anticipated our every need, and made sure we had everything we needed. I can't give them enough kudos. Thanks for everything you did to make the wedding weekend a huge success!More</t>
   </si>
   <si>
+    <t>L A D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r292286240-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1283,6 +1445,9 @@
     <t>Had a quick one night stay at this location. Hotel is pretty new and has the new décor. Hotel feels modern; and gives off a very clean and bright appearance.  Staff of the hotel were very professional and seemed to be well trained. Front desk experience was top notch; very quick and efficient. Check in took less than a couple of minutes. Everyone staff member said hello and asked if I needed any assistance throughout the hotel.  Room was spacious and well designed. Very quiet and comfortable. Breakfast was the standard buffet but it had good fresh fruit and the breakfast meats were very good.  Very good fitness center and pool.More</t>
   </si>
   <si>
+    <t>robertfranks2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r284697967-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1298,6 +1463,9 @@
     <t>This hotel is the new design spring hill suites, and it is awesome. Extremely friendly atmosphere, and a first class facility. The Marriott designers outdid themselves with this new offering. Tons of shopping and restaurants nearby. Give it a try.</t>
   </si>
   <si>
+    <t>moman37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r278123411-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1325,6 +1493,9 @@
     <t>New hotel in great area with poor policies. Loud noise on weekends from bars and parking lot on South side of hotel till 2 a.m. Brutal! No drinking cups in workout room. Springhill has small bar in lobby with New York City prices. They throw on 20% service charge per drink order while sitting at bar? It's like they were delivering room service. Staff has been trained to say we are only S.H. suites with a bar. We charge what we want. Like its a full service Marriott. Its no different then nice Court yards with lobby bar. 6.50 for draft beer, really! Then service charge on top of it. Platinum P. Elite member, have never heard of auto service charge for 1 person in restaurant or small 12 ft. bar area. Left message for management, never heard from them.More</t>
   </si>
   <si>
+    <t>World_Hiker_Dallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r275378556-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1340,6 +1511,9 @@
     <t>Recently stayed for a business trip -- loved everything about this property!  Great location, brand new modern reviews, excellent staff.   Would highly recommend to anyone!!   Our flight was very late and the night auditor, George, met me at the door with my key -- now that is 5 star service -- thanks, George!</t>
   </si>
   <si>
+    <t>bohste</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r274513841-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1358,6 +1532,9 @@
     <t>My family stayed here over the Memorial Day weekend and overall we really, really liked this place.  Great location near the Frisco Mall and the new Nebraska Furniture Mart in The Colony.  I'll give you the negatives first.  We stayed on the 5th floor (top) and the DFW area was getting some pretty heavy rainfall.  After our 2nd night we saw a leak in our ceiling right over my elderly mother's bed.  I told the front desk about it and they moved us to another suite.  Now ... let me tell you all the positives!  This is a new design SpringHill Suites that is very modern and eclectic from the time you walk in the lobby until you arrive in your room.  The suites are considerably larger than the old hotels with lots of amenities.  Great beds and pillows, a separate toilet and sink from a room with the shower and a sink.  Even a walk-in closet with plenty of storage.  And there is a nice couch area and work desk with high speed internet.  This new SpringHill Suites also has a bar, restaurant and room service which sets it apart from all the others.  There are also tons of restaurants nearby to the hotel.  The complimentary hot breakfast was awesome.  The best of any hotel chain.  Fresh scrambled eggs, fruit, sausage, bacon, waffles, yogurt, bagels, English muffins, banana bread and great coffee.  The best thing about this hotel is...My family stayed here over the Memorial Day weekend and overall we really, really liked this place.  Great location near the Frisco Mall and the new Nebraska Furniture Mart in The Colony.  I'll give you the negatives first.  We stayed on the 5th floor (top) and the DFW area was getting some pretty heavy rainfall.  After our 2nd night we saw a leak in our ceiling right over my elderly mother's bed.  I told the front desk about it and they moved us to another suite.  Now ... let me tell you all the positives!  This is a new design SpringHill Suites that is very modern and eclectic from the time you walk in the lobby until you arrive in your room.  The suites are considerably larger than the old hotels with lots of amenities.  Great beds and pillows, a separate toilet and sink from a room with the shower and a sink.  Even a walk-in closet with plenty of storage.  And there is a nice couch area and work desk with high speed internet.  This new SpringHill Suites also has a bar, restaurant and room service which sets it apart from all the others.  There are also tons of restaurants nearby to the hotel.  The complimentary hot breakfast was awesome.  The best of any hotel chain.  Fresh scrambled eggs, fruit, sausage, bacon, waffles, yogurt, bagels, English muffins, banana bread and great coffee.  The best thing about this hotel is the staff.  They are so well trained, friendly and attentive.  Some of the best I've ever seen at a hotel.More</t>
   </si>
   <si>
+    <t>Norris M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r264332490-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1376,6 +1553,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Ken D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r264298032-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1389,6 +1569,9 @@
   </si>
   <si>
     <t>I would like to thank Phil (Gen  Mgr), Kyle (Asst Mgr), Ryan , and Ashli for making our stay a memorable one. The Staff at this hotel is very responsive to requests, and work to make this a very clean and professional hotel. The Continental Breakfast was very nice (especially the Texas Sized Waffles) our kids loved them. This hotel is very close to many places  to eat sit down or take out (surrounding the hotel), and about a 7 min drive to a very nice Mall.The rooms have a very chic look, and the bar in the lobby is clean and well maintained.Having a family of (4) I am big on customer service and cleanliness. This Hotel exhibited it on our trip. I would recommend this hotel , and will stay here the next time I am in the areaMore</t>
+  </si>
+  <si>
+    <t>Charlie S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r263616862-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -1914,43 +2097,47 @@
       <c r="A2" t="n">
         <v>62855</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>320</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1962,56 +2149,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>62855</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>177714</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2023,56 +2214,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>62855</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136829</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2090,56 +2285,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>62855</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>177715</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2157,47 +2356,51 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>62855</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>177716</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
@@ -2214,56 +2417,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>62855</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>5831</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2281,56 +2488,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>62855</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>177717</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2342,56 +2553,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>62855</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>177718</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
         <v>106</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" t="s">
-        <v>99</v>
-      </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2403,56 +2618,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>62855</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>63184</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2470,56 +2689,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>62855</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>18833</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2531,56 +2754,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>62855</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>37741</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2598,56 +2825,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>62855</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>177719</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2659,56 +2890,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>62855</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>50848</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2720,56 +2955,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>62855</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>177720</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2789,50 +3028,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>62855</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>177721</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2846,50 +3089,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>62855</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>177722</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2907,50 +3154,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>62855</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>177723</v>
+      </c>
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2964,50 +3215,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>62855</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>4074</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3025,50 +3280,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>62855</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>177724</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3082,50 +3341,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>62855</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>177725</v>
+      </c>
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3145,50 +3408,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>62855</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>177726</v>
+      </c>
+      <c r="C22" t="s">
+        <v>210</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="J22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3208,50 +3475,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>62855</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>177727</v>
+      </c>
+      <c r="C23" t="s">
+        <v>216</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3271,50 +3542,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>62855</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>10047</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3328,50 +3603,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>62855</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>43400</v>
+      </c>
+      <c r="C25" t="s">
+        <v>228</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3389,56 +3668,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="X25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="Y25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>62855</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>177728</v>
+      </c>
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3458,50 +3741,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>62855</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>48026</v>
+      </c>
+      <c r="C27" t="s">
+        <v>244</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3521,50 +3808,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>62855</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>177729</v>
+      </c>
+      <c r="C28" t="s">
+        <v>250</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="J28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3578,50 +3869,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>62855</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>177730</v>
+      </c>
+      <c r="C29" t="s">
+        <v>256</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="J29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3635,50 +3930,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>62855</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>177731</v>
+      </c>
+      <c r="C30" t="s">
+        <v>264</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="J30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3696,50 +3995,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>62855</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>177732</v>
+      </c>
+      <c r="C31" t="s">
+        <v>270</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="J31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="K31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3753,50 +4056,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>62855</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>177733</v>
+      </c>
+      <c r="C32" t="s">
+        <v>277</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="J32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3816,50 +4123,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>62855</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>177718</v>
+      </c>
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="J33" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="K33" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3873,50 +4184,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>62855</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>3247</v>
+      </c>
+      <c r="C34" t="s">
+        <v>289</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="J34" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3930,50 +4245,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>62855</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>63184</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="J35" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3991,56 +4310,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="X35" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="Y35" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>62855</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>177734</v>
+      </c>
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="J36" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="K36" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4054,50 +4377,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>62855</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>88582</v>
+      </c>
+      <c r="C37" t="s">
+        <v>311</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="J37" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="K37" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="O37" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4113,56 +4440,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="X37" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="Y37" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>62855</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>177735</v>
+      </c>
+      <c r="C38" t="s">
+        <v>319</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="J38" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="K38" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="L38" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4182,50 +4513,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>62855</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>177736</v>
+      </c>
+      <c r="C39" t="s">
+        <v>325</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="J39" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="K39" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4237,56 +4572,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="X39" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="Y39" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>62855</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>177737</v>
+      </c>
+      <c r="C40" t="s">
+        <v>334</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="J40" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="K40" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="L40" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4304,56 +4643,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="X40" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="Y40" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>62855</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>177738</v>
+      </c>
+      <c r="C41" t="s">
+        <v>344</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="J41" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="K41" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4367,41 +4710,45 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>62855</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>177739</v>
+      </c>
+      <c r="C42" t="s">
+        <v>351</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="J42" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="K42" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
@@ -4418,56 +4765,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="X42" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="Y42" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>62855</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>177740</v>
+      </c>
+      <c r="C43" t="s">
+        <v>360</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="J43" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="K43" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4481,50 +4832,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>62855</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>9704</v>
+      </c>
+      <c r="C44" t="s">
+        <v>367</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="J44" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="K44" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="L44" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4542,50 +4897,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>62855</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>36779</v>
+      </c>
+      <c r="C45" t="s">
+        <v>375</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="J45" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="K45" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4603,56 +4962,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="X45" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="Y45" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>62855</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>177741</v>
+      </c>
+      <c r="C46" t="s">
+        <v>384</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="J46" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="K46" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="L46" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4664,56 +5027,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="X46" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="Y46" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>62855</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>177742</v>
+      </c>
+      <c r="C47" t="s">
+        <v>394</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="J47" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="K47" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="L47" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -4733,50 +5100,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>62855</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>20863</v>
+      </c>
+      <c r="C48" t="s">
+        <v>401</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="J48" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="K48" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="L48" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4790,50 +5161,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>62855</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>126570</v>
+      </c>
+      <c r="C49" t="s">
+        <v>408</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="J49" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="K49" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="L49" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -4853,50 +5228,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>62855</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>44507</v>
+      </c>
+      <c r="C50" t="s">
+        <v>414</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="J50" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="K50" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="L50" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="O50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4914,50 +5293,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>62855</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>177743</v>
+      </c>
+      <c r="C51" t="s">
+        <v>421</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="J51" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="K51" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="L51" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -4975,50 +5358,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>62855</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>177744</v>
+      </c>
+      <c r="C52" t="s">
+        <v>428</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="J52" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="K52" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="O52" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5038,50 +5425,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>62855</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>123428</v>
+      </c>
+      <c r="C53" t="s">
+        <v>435</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="J53" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="K53" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="L53" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="O53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5095,50 +5486,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>62855</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>177745</v>
+      </c>
+      <c r="C54" t="s">
+        <v>442</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="J54" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="K54" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="L54" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="O54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5158,50 +5553,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>62855</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>177746</v>
+      </c>
+      <c r="C55" t="s">
+        <v>449</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="J55" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="K55" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="L55" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5219,56 +5618,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="X55" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="Y55" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>62855</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>177747</v>
+      </c>
+      <c r="C56" t="s">
+        <v>458</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="J56" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="K56" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="L56" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5288,50 +5691,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>62855</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>90954</v>
+      </c>
+      <c r="C57" t="s">
+        <v>466</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="J57" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="K57" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="L57" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5349,50 +5756,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>62855</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>177748</v>
+      </c>
+      <c r="C58" t="s">
+        <v>473</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="J58" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="K58" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="L58" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5406,50 +5817,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>62855</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>177749</v>
+      </c>
+      <c r="C59" t="s">
+        <v>479</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="J59" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="K59" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="L59" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5467,56 +5882,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="X59" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="Y59" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>62855</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>79556</v>
+      </c>
+      <c r="C60" t="s">
+        <v>489</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="J60" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="K60" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="L60" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -5536,50 +5955,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>62855</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>122189</v>
+      </c>
+      <c r="C61" t="s">
+        <v>495</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="J61" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="K61" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="L61" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="O61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5599,50 +6022,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>62855</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>177750</v>
+      </c>
+      <c r="C62" t="s">
+        <v>502</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="J62" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="K62" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="L62" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="O62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5662,50 +6089,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>62855</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>23064</v>
+      </c>
+      <c r="C63" t="s">
+        <v>509</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>451</v>
+        <v>511</v>
       </c>
       <c r="J63" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="K63" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
       <c r="L63" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -5723,50 +6154,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>62855</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>52731</v>
+      </c>
+      <c r="C64" t="s">
+        <v>515</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="J64" t="s">
-        <v>457</v>
+        <v>518</v>
       </c>
       <c r="K64" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="L64" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -5784,7 +6219,7 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_688.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_688.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="765">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,150 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>M T</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r601188228-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>5588563</t>
+  </si>
+  <si>
+    <t>601188228</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Newer hotel in a great location</t>
+  </si>
+  <si>
+    <t>This hotel is right on the Plano/Frisco border so it is close to lots of great venues, like The shops of Legacy and Legacy west and many offices in the area. We stayed 8 nights while my daughter was competing in Nationals for soccer up the road at Toyota Soccer complex in Frisco about ten minutes away. It was nice to have breakfast and coffee every morning (although we were a little disappointed not to have waffles during the week, they only bring out the waffle irons on the weekend). Her team kept winning and we had to keep adding days and the hotel staff was accommodating and friendly and kept us in our same room the entire week. When I checked in they said I had a king bed and I did not remember what I booked, i asked for 2 queens and she said she couldn't accommodate me with that- the first 3 days was just me and so I took it, but then when all 4 of us were in the room the last night it was crowded and I went back to look and my original reservation was definitely for 2 queen beds... since we had different reservations, housekeeping kept thinking we were checking out even though we would stop at the desk the night before, the first time it made our keys stop working too. Little annoyances, but still a great hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This hotel is right on the Plano/Frisco border so it is close to lots of great venues, like The shops of Legacy and Legacy west and many offices in the area. We stayed 8 nights while my daughter was competing in Nationals for soccer up the road at Toyota Soccer complex in Frisco about ten minutes away. It was nice to have breakfast and coffee every morning (although we were a little disappointed not to have waffles during the week, they only bring out the waffle irons on the weekend). Her team kept winning and we had to keep adding days and the hotel staff was accommodating and friendly and kept us in our same room the entire week. When I checked in they said I had a king bed and I did not remember what I booked, i asked for 2 queens and she said she couldn't accommodate me with that- the first 3 days was just me and so I took it, but then when all 4 of us were in the room the last night it was crowded and I went back to look and my original reservation was definitely for 2 queen beds... since we had different reservations, housekeeping kept thinking we were checking out even though we would stop at the desk the night before, the first time it made our keys stop working too. Little annoyances, but still a great hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r600725821-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>600725821</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Basketball Tournament</t>
+  </si>
+  <si>
+    <t>Words cannot express how appreciative I am for the outstanding service my family received at the Springhill Suites in Plano/Frisco, TX. Zack and his staff went way beyond the call of duty to make my stay perfect. Every day I was greeted with a smile. I had major issues with my reservation which were all my fault but they handled it with ease. I learned what is wrong with the world: we need more people like Zack. Colton at the front desk was so kind. I wanted take all of them home with me. Thanks for the best stay ever!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r599719576-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>599719576</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>This Property Rescued Me</t>
+  </si>
+  <si>
+    <t>I was bumped from another hotel and Marriott placed me into this property.  I was met at the door by a young gentleman named Austin and he already had my key available for the room so that I could get to sleep quickly.  Very appreciative of this property helping me out in a bad situation.  The room I stayed in was an accessible room and worked perfectly for my needs.  Excellent Customer Service!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r589879421-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>589879421</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>I was here on business for a meeting and the accommodations that this hotel had to offer were great! The front desk staff, housekeepers, and the breakfast attendants were all really nice. The rooms had a modern feel to them and were very spacious. There were many nice restaurants and store nearby within walking distance. I would definitely stay here again anytime!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Zackary C, Front Office Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2018</t>
+  </si>
+  <si>
+    <t>I was here on business for a meeting and the accommodations that this hotel had to offer were great! The front desk staff, housekeepers, and the breakfast attendants were all really nice. The rooms had a modern feel to them and were very spacious. There were many nice restaurants and store nearby within walking distance. I would definitely stay here again anytime!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r587022660-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>587022660</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Super clean room and a great nights sleep</t>
+  </si>
+  <si>
+    <t>Appreciated the easy parking and fast check-in. The room was sparkling. Good sized bathroom, very comfortable bed. AC was super cold, blackout blinds worked very well, and the bed was comfortable. Wi-fi streamed Netflix quickly.  I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Appreciated the easy parking and fast check-in. The room was sparkling. Good sized bathroom, very comfortable bed. AC was super cold, blackout blinds worked very well, and the bed was comfortable. Wi-fi streamed Netflix quickly.  I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r583768633-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>583768633</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Great hotel and a Great Location</t>
+  </si>
+  <si>
+    <t>Had a three night stay at this clean, stylish, and comfortable hotel! Conveniently located near 121 and Stonebriar. Near lots of shopping, restaurants, and activities. Friendly staff. Typical breakfast fare with great coffee! We loved our stay in our king suite. We will return. Very happy with our stay! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Zackary C, Front Office Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Had a three night stay at this clean, stylish, and comfortable hotel! Conveniently located near 121 and Stonebriar. Near lots of shopping, restaurants, and activities. Friendly staff. Typical breakfast fare with great coffee! We loved our stay in our king suite. We will return. Very happy with our stay! More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r576612117-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
-    <t>56463</t>
-  </si>
-  <si>
-    <t>5588563</t>
-  </si>
-  <si>
     <t>576612117</t>
   </si>
   <si>
@@ -180,9 +309,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Zackary C, Front Office Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded May 1, 2018</t>
   </si>
   <si>
@@ -192,9 +318,6 @@
     <t>Great place Great locationGreat staffI have become a frequent guest at this hotel due to my work schedule and high quality stays!!Austin is one of my favorite front desk staff.  He makes checkin and getting my luggage upstairs easy and smooth. Little wait time and easy. He also helped me book a room for one of my coworkers. Earlier they were booked but later in the week he let me know one Had opened up and we immediately booked it!  Great staff here with a kind personal touch!  The breakfast is always fresh and hot. I love their scrambled eggs and fresh fruit!  Ladies that work there all r kind and helpful. Very clean and plenty of things to chose from. Was pleasantly surprised!!!My room is always clean and cozy. Quiet and relaxing. Best place for a road warrior. Also like the fitness center and oh- location is excellent. Plenty of places to walk to - restaurants bars shops. Awesome. I will stay here again!More</t>
   </si>
   <si>
-    <t>GreatFamilyTime5</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r569387478-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -213,15 +336,9 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We stayed here on a recent trip to Plano! The hotel is very nice and very clean! The rooms are also very spacious. The location of the hotel is great! It is in a newly developed area and is near lots of shopping. You could walk to several different eating places if you wanted to. We look forward to staying here again!More</t>
   </si>
   <si>
-    <t>sayhi2tinee</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r569102955-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -240,9 +357,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Zackary C, Front Office Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded April 30, 2018</t>
   </si>
   <si>
@@ -252,7 +366,47 @@
     <t>I used my Marriott Rewards points for a 3-night stay. Hotel room was a good size but the bathroom was a little tight. Breakfast was standard fare but could have been better.If you're in a room next to the stairwell you will be able to hear people going up and down. Not a big deal unless there are a bunch of kids staying in the hotel, like there was during our stayVery convenient to Frisco/Plano shopping and diningElevators are really slow so you'll need some patienceWould stay here again next time I'm in town.More</t>
   </si>
   <si>
-    <t>gmacfloyd</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r568659629-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>568659629</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Quiet and Comfortable Base for Work Travel</t>
+  </si>
+  <si>
+    <t>If you like space, quiet, and a comfortable base for work travel this hotel is a great choice.
+Everything at check-in was seamless and efficient.  The hotel front desk staff respectfully acknowledged my Marriott platinum status - but I was not fawned over (which I appreciate). The rooms were large, clean, quiet and comfortable.  My internet connectivity and speed was adequate and consistent.  I was also able to easily use the flat screen TV in the room as my second computer monitor. I don't watch Cable or Satellite channels but I do appreciate using the large screen in my room to work or stream internet content like Netflix from my laptop.
+Breakfast worked well for me as I prefer cereal, fruit and coffee and greatly appreciate having plenty of room to eat on my own away from the din of the other guests.  They had 'hot' breakfast items that looked fine but I did not partake. The fitness area was clean and larger than usual and was wonderfully absent of guests while I was in there at 5AM for a morning workout.  Across the board at this hotel there was no waiting or crowding and that is what I appreciate most when I am on business travel (which as a platinum member is quite often).  Without a doubt I will stay here any time I am in the Plano and Frisco area.   The only thing I could possibly suggest is...If you like space, quiet, and a comfortable base for work travel this hotel is a great choice.Everything at check-in was seamless and efficient.  The hotel front desk staff respectfully acknowledged my Marriott platinum status - but I was not fawned over (which I appreciate). The rooms were large, clean, quiet and comfortable.  My internet connectivity and speed was adequate and consistent.  I was also able to easily use the flat screen TV in the room as my second computer monitor. I don't watch Cable or Satellite channels but I do appreciate using the large screen in my room to work or stream internet content like Netflix from my laptop. Breakfast worked well for me as I prefer cereal, fruit and coffee and greatly appreciate having plenty of room to eat on my own away from the din of the other guests.  They had 'hot' breakfast items that looked fine but I did not partake. The fitness area was clean and larger than usual and was wonderfully absent of guests while I was in there at 5AM for a morning workout.  Across the board at this hotel there was no waiting or crowding and that is what I appreciate most when I am on business travel (which as a platinum member is quite often).  Without a doubt I will stay here any time I am in the Plano and Frisco area.   The only thing I could possibly suggest is to make breakfast available at 6AM instead of 630 AM but that is a small issue and one that would not impact my stay in any way.   Keep up the good work and thanks for making my first visit to Frisco pleasant and uneventful!MoreShow less</t>
+  </si>
+  <si>
+    <t>If you like space, quiet, and a comfortable base for work travel this hotel is a great choice.
+Everything at check-in was seamless and efficient.  The hotel front desk staff respectfully acknowledged my Marriott platinum status - but I was not fawned over (which I appreciate). The rooms were large, clean, quiet and comfortable.  My internet connectivity and speed was adequate and consistent.  I was also able to easily use the flat screen TV in the room as my second computer monitor. I don't watch Cable or Satellite channels but I do appreciate using the large screen in my room to work or stream internet content like Netflix from my laptop.
+Breakfast worked well for me as I prefer cereal, fruit and coffee and greatly appreciate having plenty of room to eat on my own away from the din of the other guests.  They had 'hot' breakfast items that looked fine but I did not partake. The fitness area was clean and larger than usual and was wonderfully absent of guests while I was in there at 5AM for a morning workout.  Across the board at this hotel there was no waiting or crowding and that is what I appreciate most when I am on business travel (which as a platinum member is quite often).  Without a doubt I will stay here any time I am in the Plano and Frisco area.   The only thing I could possibly suggest is...If you like space, quiet, and a comfortable base for work travel this hotel is a great choice.Everything at check-in was seamless and efficient.  The hotel front desk staff respectfully acknowledged my Marriott platinum status - but I was not fawned over (which I appreciate). The rooms were large, clean, quiet and comfortable.  My internet connectivity and speed was adequate and consistent.  I was also able to easily use the flat screen TV in the room as my second computer monitor. I don't watch Cable or Satellite channels but I do appreciate using the large screen in my room to work or stream internet content like Netflix from my laptop. Breakfast worked well for me as I prefer cereal, fruit and coffee and greatly appreciate having plenty of room to eat on my own away from the din of the other guests.  They had 'hot' breakfast items that looked fine but I did not partake. The fitness area was clean and larger than usual and was wonderfully absent of guests while I was in there at 5AM for a morning workout.  Across the board at this hotel there was no waiting or crowding and that is what I appreciate most when I am on business travel (which as a platinum member is quite often).  Without a doubt I will stay here any time I am in the Plano and Frisco area.   The only thing I could possibly suggest is to make breakfast available at 6AM instead of 630 AM but that is a small issue and one that would not impact my stay in any way.   Keep up the good work and thanks for making my first visit to Frisco pleasant and uneventful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r564648462-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>564648462</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Modern Feel, Great Breakfast!</t>
+  </si>
+  <si>
+    <t>This property was great! Good location, modern feel, and great staff!The room was modern but still cozy. We loved it!The breakfast was very impressive.Austin checked me in late on a Friday night. He was helpful, pleasant, and swift!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>This property was great! Good location, modern feel, and great staff!The room was modern but still cozy. We loved it!The breakfast was very impressive.Austin checked me in late on a Friday night. He was helpful, pleasant, and swift!!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r562815101-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -276,9 +430,6 @@
     <t>I just enjoyed the most peaceful, quiet night away from home in years at SpringHill Suites Dallas Plano/Frisco. It's a wonderful facility, bright, clean and beautifully decorated. The coffee is excellent, giving Starbuck's a run for its quality. The complementary breakfast was delicious, well balanced, and provided lengthy enjoyment for every guest on a Sunday morning. The hotel is located near the best shopping and within minutes of Stonebriar Community Church, a Frisco treasure. I will definitely return.More</t>
   </si>
   <si>
-    <t>Jahuie M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r559883920-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -303,9 +454,6 @@
     <t>This hotel checks all the marks. The decor is great and the hotel lends itself making someone feel comfortable which visiting the Frisco area. The restaurant/bar is great for happy hour and the staff was extremely nice. All in all, great location. More</t>
   </si>
   <si>
-    <t>retired43</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r558187097-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -327,7 +475,52 @@
     <t>I'd never stayed at this Marriott brand.  It wasn't a true suite with 2 separate rooms.  The living room area was delineated by a 3/4 wall with half of the wall being frosted glass.  There was a fridge &amp; microwave.  There was a pull out couch &amp; a chaise lounge type chair plus 2 queen beds so a family with lots of kids could easily fit.  I forgot my toothbrush &amp; they had an area that sold things.  But the front desk asked what I was looking for &amp; said toothbrush &amp; toothpaste were complementary.  So that was a pleasant surprise.  Check in was 3 PM but I arrive at 9 AM &amp; was given a room immediately.  Obviously if they are full that's not going to happen.  But it's nice that they didn't stand fast on the official check in time. Wi-fi was free for enough to do email.  But if you needed to stream video it was $4.95 a day.More</t>
   </si>
   <si>
-    <t>sleepygirltravels</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r555274195-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>555274195</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Newer Clean Hotel</t>
+  </si>
+  <si>
+    <t>Everything was great during our entire stay from beginning to end of our stay.  The check in staff was very easy to deal with at check in.   I requested a top floor room and was given a very nice top floor room.   The room was fully equipped.  Beds were good.  Couch and furnishings were nice.  Air Conditioner worked well.  Bathrooms fully stocked.  Breakfast was well laid out and fully stock.  Check cut was easy.  This hotel is very nice and conveniently located to everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Everything was great during our entire stay from beginning to end of our stay.  The check in staff was very easy to deal with at check in.   I requested a top floor room and was given a very nice top floor room.   The room was fully equipped.  Beds were good.  Couch and furnishings were nice.  Air Conditioner worked well.  Bathrooms fully stocked.  Breakfast was well laid out and fully stock.  Check cut was easy.  This hotel is very nice and conveniently located to everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r546279342-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>546279342</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>New Visit</t>
+  </si>
+  <si>
+    <t>Staff is friendly and helpful. Was greated with excitement.  Since I am a gold member that offer me a choice of extra points or gift from store. I chosen the extra points. Room had king size bed with seperate sitting area. Hotel is family friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Zackary C, Front Office Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Staff is friendly and helpful. Was greated with excitement.  Since I am a gold member that offer me a choice of extra points or gift from store. I chosen the extra points. Room had king size bed with seperate sitting area. Hotel is family friendly.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r544721023-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -357,9 +550,6 @@
     <t>Newer hotel. Clean hotel. Great location. Close to restaurants and shopping. They have an indoor pool and hot tub. Good breakfast with fresh fruit. They didn’t have the waffles or pancakes though. Rooms were excellent. Nice and spacious for a family.More</t>
   </si>
   <si>
-    <t>Saurav S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r544700524-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -372,9 +562,6 @@
     <t>The hotel staff is so friendly. I stayed for 50 days and got so familiar with them. Felt like staying at a home away from home. The housekeeping staff is very nice too. Looking forward to another stay on my next visit to Plano.MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>Zackary C, Front Office Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded December 4, 2017</t>
   </si>
   <si>
@@ -384,9 +571,6 @@
     <t>The hotel staff is so friendly. I stayed for 50 days and got so familiar with them. Felt like staying at a home away from home. The housekeeping staff is very nice too. Looking forward to another stay on my next visit to Plano.More</t>
   </si>
   <si>
-    <t>Tom K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r543778475-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -405,7 +589,43 @@
     <t>While visiting family in the Dallas area we once again stayed at SpringHill Suites. Just like our previous stay here there were no surprises.  Staff very friendly and professional. Breakfast was great. Even though we stayed here over Thanksgiving and they had a full house, the food selections were always kept supplied. This was no small task since there were a lot of kids there fro some sort of Soccer tournament. I'm not sure how they kept up with the food, but they did. I have a lower back issue and a good nights sleep sometimes escapes me , when staying in a hotel. Not this place! In fact it was so comfortable I was going to see what type of mattresses they use. I forgot to check, must call them and find out.  They have a bar for those that would like an adult beverage after a long day of travel.  Our family in the area does not have room for guests so my wife and I stay here. We will be back. Thanks to the great staff for making our stay enjoyable.  Complementary Newspaper and Wall Street Journal.More</t>
   </si>
   <si>
-    <t>Jerry B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r543478795-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>543478795</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice modern hotel. </t>
+  </si>
+  <si>
+    <t>Hotel is new with pool, hot tub and fitness centre. Rooms were spacious and clean sleeps 5 comfortably. Hot and cold breakfast available with multiple options. Front desk staff was great and it is close to the Stone Briar shopping centre and many restaurants. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is new with pool, hot tub and fitness centre. Rooms were spacious and clean sleeps 5 comfortably. Hot and cold breakfast available with multiple options. Front desk staff was great and it is close to the Stone Briar shopping centre and many restaurants. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r541705640-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>541705640</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Brand new hotel</t>
+  </si>
+  <si>
+    <t>This is a modern hotel. Excellent front desk staff. Breakfast is very good with fresh products.Amazing internal heated pool. Our suite was quiet and housekeeping works fine.We will stay again.Location is good and safe, but you need a car.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>This is a modern hotel. Excellent front desk staff. Breakfast is very good with fresh products.Amazing internal heated pool. Our suite was quiet and housekeeping works fine.We will stay again.Location is good and safe, but you need a car.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r540246099-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -432,9 +652,6 @@
     <t>I slept like a baby.  The place is only a couple years old.  It clean and the bed was very comfortable.  I would stay again and probably will.  Very close to the Stonebriar Shopping Center and many other shopping opportunities.  Within walking distance of numerous restaurants.  The staff was very friendly.  No complaints here!More</t>
   </si>
   <si>
-    <t>Daniel L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r539424852-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -459,9 +676,6 @@
     <t>The Hotel is new and modern with a very comfortable feel. The room was very impressive with an outstanding bathroom. The service was excellent with all staff members being very friendly and inviting. The continental breakfast and items off of the menu were great.More</t>
   </si>
   <si>
-    <t>life108</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r539410092-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -480,7 +694,46 @@
     <t>We ended up at this location by mistake.  When I called the location I wanted to stay at I was switched to the reservation line and they booked my room at this location.  Upon arrival I was very upset but the personnel was awesome.  She was very nice and assured me there where things close by.  Our room and was very nice.  Breakfast set up was great.  Staff very helpful.  Location turned out to be awesome.  I will stay here again.More</t>
   </si>
   <si>
-    <t>Beverly C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r536964623-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>536964623</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Very clean very nice</t>
+  </si>
+  <si>
+    <t>We were in town from Chicago for a Soccer Tournament.  After looking through Trip Advisor to find a hotel close to the field, I picked the Springhill Suites.Glad I did.  Very clean and plenty of room.  The bathroom was awesome.  Very modern and comfortable.  I was glad to have the refrigerator in the room as we were staying for few days and eating out all of the time can be expensive.Wi-Fi was good.I ordered room service and actually shocked at how good the food was.  We got in late so I didn't feel like going back out.Greta food and at a good price.I highly recommend staying here for business of for pleasure.Nice for families. Lots of shopping and restaurants nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Zackary C, Front Office Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>We were in town from Chicago for a Soccer Tournament.  After looking through Trip Advisor to find a hotel close to the field, I picked the Springhill Suites.Glad I did.  Very clean and plenty of room.  The bathroom was awesome.  Very modern and comfortable.  I was glad to have the refrigerator in the room as we were staying for few days and eating out all of the time can be expensive.Wi-Fi was good.I ordered room service and actually shocked at how good the food was.  We got in late so I didn't feel like going back out.Greta food and at a good price.I highly recommend staying here for business of for pleasure.Nice for families. Lots of shopping and restaurants nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r534741599-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>534741599</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>An even better Springhill</t>
+  </si>
+  <si>
+    <t>I always choose Springhill when I travel as they have very high standards keeping everything tidy clean and very comfortable. This hotel has gone one step further and has added a full bar plus full menu of food with room service. A nice step up. Hotel is spotless with spacious rooms, comfortable beds and nice bathrooms. Location is great next to large shopping center. Upper level floors even have pretty city views. Great stay and will book again if back in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>I always choose Springhill when I travel as they have very high standards keeping everything tidy clean and very comfortable. This hotel has gone one step further and has added a full bar plus full menu of food with room service. A nice step up. Hotel is spotless with spacious rooms, comfortable beds and nice bathrooms. Location is great next to large shopping center. Upper level floors even have pretty city views. Great stay and will book again if back in the area. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r533143200-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -507,9 +760,6 @@
     <t>We stayed at spring hill Marriott in Plano Texas. The staff was amazing!!! We flew in for a wedding from out of state we had forgotten some items when we went to front desk they took care of us immediately and got us the forgotten items  free of charge. Every time we went anywhere in the hotel the staff was so friendly and very attentive to our needs. I would recommend this hotel to any one staying in Plano Texas area. Way to go Spring hill Marriott. We are coming back in April and i plan to stay here againMore</t>
   </si>
   <si>
-    <t>PJT99</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r525143054-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -528,9 +778,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>Lyndal B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r522058846-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -546,7 +793,40 @@
     <t>Reasonably new hotel that has beautiful modern rooms, superb hot breakfast, and very friendly staff. Also has meeting rooms for conferences. Location, once you can find the place, is convenient to a large shopping mall, numerous restaurants nearby, and near accessible freeways. Plenty of parking, but somewhat a long walk. Would definitely stay here again.</t>
   </si>
   <si>
-    <t>Ramachandran V</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r517553603-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>517553603</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t>C'Mon - Let's Give it Up for these guys</t>
+  </si>
+  <si>
+    <t>Great little budget hotel - top notch all the way.  Great room, great breakfast, good workout room, good service, good everything....Bravo!Much nicer than many of the full service Marriotts I frequent.  An absolute winner.  Even has a great little bar with a nice selection of beers!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r507226177-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>507226177</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Best place to stay in plano with corporate code..</t>
+  </si>
+  <si>
+    <t>Nice Marriott property this is..great service, also has complimentary breakfast, Indian restaurant is just oppsite...offices are very nearby also they've ofc shuttle for 5mile radius..Loved the stay, awesome</t>
+  </si>
+  <si>
+    <t>July 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r496705772-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -567,9 +847,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>Grizzly386</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r495270089-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -588,9 +865,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>Kim M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r492779953-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -609,7 +883,52 @@
     <t>I'm writing this review after having stayed at this hotel twice in the last month for softball tournaments.  Both stays were excellent!  The room is very clean and the bed very comfortable.  The staff very accommodating and friendly.  Great breakfast!We try to stay here every time we are in Plano, however, last weekend they were booked and we had to stay at the Hilton Granite Park... MISTAKE!  The Hilton room was not any nicer, but was nearly $200 more because of the surprise "incidental expenses" and hidden fees. If you are traveling for softball... this hotel is awesome because it is in the middle of Shawnee Trail Sports Complex in Frisco, Heritage Yards and Archgate park in Plano.  Within 15 min. of each park. Also, there is a 7-11 on the corner near the hotel for ice and snacks.  A Chick-fil-A in the shopping center across from the hotel.Great hotel for the money.  Some reviews say the hotel is loud or the doors are loud.  I didn't notice that, but I always turn the a/c fan to "on" (not auto) in my room which muffles the sound from the hallway.More</t>
   </si>
   <si>
-    <t>Kirit P</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r490829144-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>490829144</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Good, overnight stop</t>
+  </si>
+  <si>
+    <t>This was an overnight stop on a road trip from Kansas City to Galveston.  The room was exactly what we needed it to be -- clean, quiet, safe, and comfortable.  Pros:- Two separate bathroom areas, one with a bathtub/shower, sink and vanity the other with the toilet and a smaller sink.  This gave us extra sink and mirror space to get ready in the morning.  - The included breakfast had many options and was well-maintained.Cons:- The sliding door to the room with the toilet wouldn't lock, so my daughters and I had to keep it closed with our foot while using the facilities if we wanted privacy.MoreShow less</t>
+  </si>
+  <si>
+    <t>Phil K, General Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2017</t>
+  </si>
+  <si>
+    <t>This was an overnight stop on a road trip from Kansas City to Galveston.  The room was exactly what we needed it to be -- clean, quiet, safe, and comfortable.  Pros:- Two separate bathroom areas, one with a bathtub/shower, sink and vanity the other with the toilet and a smaller sink.  This gave us extra sink and mirror space to get ready in the morning.  - The included breakfast had many options and was well-maintained.Cons:- The sliding door to the room with the toilet wouldn't lock, so my daughters and I had to keep it closed with our foot while using the facilities if we wanted privacy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r488895294-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>488895294</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Typical Springhill but loudest doors of any hotel I have ever been at</t>
+  </si>
+  <si>
+    <t>This is a typical Springhill Suites - clean, nice rooms, laid out well, nice staff, standard breakfast, decent location (restaurants near by, close to major highways).  But in all my many years of travel I have never seen where the room doors slam shut so fast and so loud.  And my loud I mean vibrate the floor loud.  I have seen very effective, quiet security doors close securely but quietly.  if the hotel is busy, in the evening and night they just slam all night long.  Also for about 100 rooms there are only 2 very slow elevators.  We like these hotels but just can't really recommend this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Phil K, General Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>This is a typical Springhill Suites - clean, nice rooms, laid out well, nice staff, standard breakfast, decent location (restaurants near by, close to major highways).  But in all my many years of travel I have never seen where the room doors slam shut so fast and so loud.  And my loud I mean vibrate the floor loud.  I have seen very effective, quiet security doors close securely but quietly.  if the hotel is busy, in the evening and night they just slam all night long.  Also for about 100 rooms there are only 2 very slow elevators.  We like these hotels but just can't really recommend this one.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r484773571-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -627,9 +946,6 @@
     <t>Good and clean rooms and friendly employee. Everything you need is close by. Breakfast was also decent. But not too many choices.  We stayed there for three days. Nice view on the back side of the building.</t>
   </si>
   <si>
-    <t>pramzy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r482288631-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -648,9 +964,6 @@
     <t>Stayed here recently for 8 nights whilst in Dallas for a wedding as part of a  group of 11 from the UK. I have stayed in many a business hotel over the years but I have to say that the cleanliness of this hotel, the quality of service and the positive attitude of all the staff made this one of the best hotel experiences I have ever had. OK the breakfast is not quite the full on English that we are used to but still exceeded our expectations and was more than adequate.A special thanks must go out to all of the front desk staff especially Austin who always wore a broad smile and was forever willing to share information about the locality or just chat.I will without hesitation use this hotel again if in the area.More</t>
   </si>
   <si>
-    <t>Maroon108</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r477266961-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -666,7 +979,55 @@
     <t>I like to stay in this hotel , had been here at least 10 times so far, nice team, breakfast is absurdity good ( I which they added vegetables as well ) The rooms are clean and i do like their design and coloring also the settings of everything is nice, I got this time the disabled room and it is just fine</t>
   </si>
   <si>
-    <t>JasonKirksey</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r474993981-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>474993981</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Lovely stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights while attending a wedding. It is a very friendly hotel, staff and front desk-all shifts- go out of their way to make you feel at home. I am now calling this my home away from home when I travel annually to the Dallas/Plano area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Phil K, General Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights while attending a wedding. It is a very friendly hotel, staff and front desk-all shifts- go out of their way to make you feel at home. I am now calling this my home away from home when I travel annually to the Dallas/Plano area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r473057937-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>473057937</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Glass bathrooms doors - what were they thinking!</t>
+  </si>
+  <si>
+    <t>This location is new and centrally located.  However, like all Springhill's,  this hotel has glass doors on the bathrooms.  I really have to wonder what thought went into that.  The glass allows ZERO PRIVACY when showering or using the restroom.  In addition there are no towel bars??  The beds were also horribly uncomfortable.The breakfast was good but each time I went up to refill my coffee my plate of half-eaten food was cleared away.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Phil K, Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2017</t>
+  </si>
+  <si>
+    <t>This location is new and centrally located.  However, like all Springhill's,  this hotel has glass doors on the bathrooms.  I really have to wonder what thought went into that.  The glass allows ZERO PRIVACY when showering or using the restroom.  In addition there are no towel bars??  The beds were also horribly uncomfortable.The breakfast was good but each time I went up to refill my coffee my plate of half-eaten food was cleared away.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r472988299-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -675,15 +1036,9 @@
     <t>472988299</t>
   </si>
   <si>
-    <t>04/05/2017</t>
-  </si>
-  <si>
     <t>By the looks of it, this hotel is practically brand new. The whole area around the hotel is brand new/still being built as well. There are about 50 places to eat within a five minute drive or short walk. The room was very spacious and set up well. I have to return to the area in a few months and will book here again. The hotel is right on par with the Marriott standard and certainly at the top of the Springhill Suites Brand standards.</t>
   </si>
   <si>
-    <t>Julie H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r468350838-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -699,12 +1054,6 @@
     <t>Last minute booking and we were super pleased with our stay from start to finish. Very clean, bright, large rooms with a large bathroom. Bed was comfortable. Breakfast was well above average. Great location with several dining options nearby. Not far from Baylor Scott &amp;a White hospitals. Would highly recommend.</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
-    <t>travelingfamily5</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r467695868-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -729,7 +1078,34 @@
     <t>Nice newer lobby and rooms. Convenient location to 121 and tollroads and to shopping and restaurants. Large room and wonderful large walk-in closet. VERY STRANGE toilet and shower area that are each separate but both open directly into the room. In the room, you could hear everything from the toilet room which was uncomfortable for everyone. The toilet room door was a large heavy sliding door that made so much noise when rolled closed and woke up all sleepers during the night. Worst part was the motion activated AC thermostat that went off all night while we were sleeping!  It's hot in the Dallas area - even in March. Front desk said the motion detector should not have kept the unit from blowing, and they would look into repairs. We only stayed one night. So many hotels nearby that I will choose a different one next time.More</t>
   </si>
   <si>
-    <t>peve33</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r466932845-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>466932845</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I stayed at the Springhill from December 2016 - March 2017 for business. They have great rooms, that are very clean. They have an awesome breakfast selection every morning and there is no charge. Everyone that works there is friendly,  helpful and really great. They even have a free shuttle if you need it. I would definitely stay here again. Shannon</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r466612656-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>466612656</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spectacular! </t>
+  </si>
+  <si>
+    <t>We took the kids to the mall to go shopping...stayed here the night before..wifi was great...breakfast was very good...wide variety..has an indoor pool and nice fitness center....room was very spacious and clean...love the separate bathrooms...</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r465957366-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -750,9 +1126,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>VIEQUESBEACHBUM</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r465198761-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -768,9 +1141,6 @@
     <t>I booked this room without even looking at the room rate assuming(yes I know) that it would be in line with other Marriott properties I stay at.  Unfortunately it was not.  The one night room tab clocked in at an accountant eyebrow raising $197.00  i will not be staying here again with so many other more reasonable options in the area</t>
   </si>
   <si>
-    <t>699louises</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r460015787-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -786,7 +1156,46 @@
     <t xml:space="preserve">Pleasant visit.  The hotel staff was friendly and courteous.  More importantly it was clean.  Lots of restaurants close by and even a mall for all the shoppers.  Complimentary breakfast with healthy options.  Ample parking and the rooms were spacious. Highly recommend.  </t>
   </si>
   <si>
-    <t>Traveller18755</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r459191505-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>459191505</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Very Nice in Every Way</t>
+  </si>
+  <si>
+    <t>Stayed a night here and was very pleased.  The rooms are spacious and well appointed.  The bathroom is fabulous--spacious, spotless, well illuminated and well appointed with soaps, shampoo and lotions.  Service at the front desk was A+.  Nice complimentary breakfast and a large spacious area in which to dine. Conveniently located to many restaurants.  Definitely will stay here again and  I'd pick this place over the Marriott in Plano.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r455009642-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>455009642</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Wheelchair users and elderly beware - roll in shower bathroom flooding issue</t>
+  </si>
+  <si>
+    <t>When I  called directly to the SpringHill Suites Dallas Plano/Frisco I inquired about a handicap accessible room with a roll in shower to accommodate my husband's disability needs.  I was told that they had such rooms with either king or two queen beds.  I chose a king suite and was assigned Rm 223.  The room was clean and quiet and comfortable. Fortunately I am able bodied and took a shower before suggesting to my husband that he could shower in the large shower room with grab bars installed in the shower stall.  I turned the shower head away from the sink area and towards the inner walls and took a short shower.  After showering I emerged into a flooded bathroom because the shower stall does not have adequate drainage in the shower and just outside the curtained shower stall. The flooded bathroom was an accident waiting to happen for an elderly person or anybody unsteady on their feet. It is obvious that this shower space was installed improperly. There should be drainage all along the edges of the shower stall. I talked to a maintenance staff person about the situation and was told that he was aware of the flooding problem but there wasn't anything that could be done.  This is not acceptable in a Marriott property.  This is the first time my husband and I have encountered this type of carelessly designed and built roll in shower during a...When I  called directly to the SpringHill Suites Dallas Plano/Frisco I inquired about a handicap accessible room with a roll in shower to accommodate my husband's disability needs.  I was told that they had such rooms with either king or two queen beds.  I chose a king suite and was assigned Rm 223.  The room was clean and quiet and comfortable. Fortunately I am able bodied and took a shower before suggesting to my husband that he could shower in the large shower room with grab bars installed in the shower stall.  I turned the shower head away from the sink area and towards the inner walls and took a short shower.  After showering I emerged into a flooded bathroom because the shower stall does not have adequate drainage in the shower and just outside the curtained shower stall. The flooded bathroom was an accident waiting to happen for an elderly person or anybody unsteady on their feet. It is obvious that this shower space was installed improperly. There should be drainage all along the edges of the shower stall. I talked to a maintenance staff person about the situation and was told that he was aware of the flooding problem but there wasn't anything that could be done.  This is not acceptable in a Marriott property.  This is the first time my husband and I have encountered this type of carelessly designed and built roll in shower during a Marriott stay. As a result, my husband was not able to shower during our three days stay in Frisco.  We will not return to this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Phil K, Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2017</t>
+  </si>
+  <si>
+    <t>When I  called directly to the SpringHill Suites Dallas Plano/Frisco I inquired about a handicap accessible room with a roll in shower to accommodate my husband's disability needs.  I was told that they had such rooms with either king or two queen beds.  I chose a king suite and was assigned Rm 223.  The room was clean and quiet and comfortable. Fortunately I am able bodied and took a shower before suggesting to my husband that he could shower in the large shower room with grab bars installed in the shower stall.  I turned the shower head away from the sink area and towards the inner walls and took a short shower.  After showering I emerged into a flooded bathroom because the shower stall does not have adequate drainage in the shower and just outside the curtained shower stall. The flooded bathroom was an accident waiting to happen for an elderly person or anybody unsteady on their feet. It is obvious that this shower space was installed improperly. There should be drainage all along the edges of the shower stall. I talked to a maintenance staff person about the situation and was told that he was aware of the flooding problem but there wasn't anything that could be done.  This is not acceptable in a Marriott property.  This is the first time my husband and I have encountered this type of carelessly designed and built roll in shower during a...When I  called directly to the SpringHill Suites Dallas Plano/Frisco I inquired about a handicap accessible room with a roll in shower to accommodate my husband's disability needs.  I was told that they had such rooms with either king or two queen beds.  I chose a king suite and was assigned Rm 223.  The room was clean and quiet and comfortable. Fortunately I am able bodied and took a shower before suggesting to my husband that he could shower in the large shower room with grab bars installed in the shower stall.  I turned the shower head away from the sink area and towards the inner walls and took a short shower.  After showering I emerged into a flooded bathroom because the shower stall does not have adequate drainage in the shower and just outside the curtained shower stall. The flooded bathroom was an accident waiting to happen for an elderly person or anybody unsteady on their feet. It is obvious that this shower space was installed improperly. There should be drainage all along the edges of the shower stall. I talked to a maintenance staff person about the situation and was told that he was aware of the flooding problem but there wasn't anything that could be done.  This is not acceptable in a Marriott property.  This is the first time my husband and I have encountered this type of carelessly designed and built roll in shower during a Marriott stay. As a result, my husband was not able to shower during our three days stay in Frisco.  We will not return to this property.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r454936444-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -795,24 +1204,15 @@
     <t>454936444</t>
   </si>
   <si>
-    <t>01/26/2017</t>
-  </si>
-  <si>
     <t>Nice stay</t>
   </si>
   <si>
     <t>This was my first time at the SpringHill Suites and being a part of Marriott, I anticipated a cut-above in terms of food quality. On that point we were not disappointed. The breakfast buffet was very good and I doubt could disappoint in terms of quality and selection of hot and cold items and a large selection of breakfast breads and coffee. The rooms are a sufficient size but not oversized like I find in some similar class hotels. The rooms are stylishly appointed though appropriate for the price per night and I particularly enjoyed the large flat screen TV. We sat at the bar one night and ordered some drinks which were made very well in a friendly atmosphere. Check-in and check-out were friendly and efficient. Overall it was a good stay. MoreShow less</t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>This was my first time at the SpringHill Suites and being a part of Marriott, I anticipated a cut-above in terms of food quality. On that point we were not disappointed. The breakfast buffet was very good and I doubt could disappoint in terms of quality and selection of hot and cold items and a large selection of breakfast breads and coffee. The rooms are a sufficient size but not oversized like I find in some similar class hotels. The rooms are stylishly appointed though appropriate for the price per night and I particularly enjoyed the large flat screen TV. We sat at the bar one night and ordered some drinks which were made very well in a friendly atmosphere. Check-in and check-out were friendly and efficient. Overall it was a good stay. More</t>
   </si>
   <si>
-    <t>Traveller C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r449761461-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -828,9 +1228,6 @@
     <t>except for the overly sprayed room fresher which smells good but has side effects of heavy head and gradually a head ache that lasted for nearly 3 days after checking out....the hotel was great. I will stay here again, but ask for non chemical sprayed room. The bed and the pillows were very comfortable; there is an indoor pool(towels provided) that has a good warm water, there is also a sauna which we took advantage of on a cold evening.The breakfast is typical Marriott style, but would love more options for vegetarians. The front desk is very cordial, polite and friendly, the service is prompt.</t>
   </si>
   <si>
-    <t>Iamawwsum</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r445872097-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -846,10 +1243,37 @@
     <t xml:space="preserve">Had a great stay here. The rooms were big and beautiful. The hotel was very clean and well maintained. The staff was friendly and helpful. Their breakfast buffet was very good. Highly recommend if you are going to be in the area. </t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
-    <t>kall29</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r444929631-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>444929631</t>
+  </si>
+  <si>
+    <t>12/17/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a great 2 night stay at this Springhill Suites. This hotel is only a year old &amp; is location in the heart of Frisco shopping and restaurants. Hotel has plenty of free parking &amp; a free breakfast each day. Highly recommend this hotel for business or pleasure. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r435637882-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>435637882</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel -</t>
+  </si>
+  <si>
+    <t>Modern, clean, good food at the bar and a decent breakfast, value for money.  A conventional modern hotel. There is a pool and gym, The bedroom are excellent, good sized beds, an office area and a good shower room with separate toilet.  Very clean and the housekeeping is first rate.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r434113048-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -885,9 +1309,6 @@
     <t xml:space="preserve">Double queen room is great .  Bathroom is separated with shower &amp; sink in one section &amp; toilet &amp; sink in another section.  Great when traveling with friend.  Beds are very comfortable.  Staff very nice and accommodating.  Close to shopping.  </t>
   </si>
   <si>
-    <t>150hotelnightsayear</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r425689214-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -903,6 +1324,39 @@
     <t>PROs- very comfortable bed!- clean, spacious rooms- full bar / restaurant   -- evening only; similar style / food to a Courtyard- free breakfast; excellent choices- free wifi- walkable to shops and restaurants- very nice staffCONs- the bathroom needs another wall hook- I'm no fan of glass doors for a bathroom</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r424856129-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>424856129</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely perfect! Stayed here for our girls soccer games and it was the best. The rooms are very spacious and the beds are very comfortable. Lots to chose from for breakfast so we saved money but not eating out. Although we didn't get anything from the room service it is available as well as a small bar in the lobby. Staff was very friendly and helpful. We will be staying here again! </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r418641796-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>418641796</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Great hotel close to action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can't say enough good about this hotel. The moment you walk in the staff greet you and are genuinely nice and helpful. The rooms are spacious and clean with a refrigerator and desk. The hotel lobby is spacious and very attractive with a nice bar. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r412293117-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -930,9 +1384,6 @@
     <t>My wife and I flew to Dallas to meet up with family to take a trip down to San Antonio. Since it was close to my daughter and grandkids we decided to stay at the SpringHill Suites in Plano  8401 Angels Dr. We stayed the first night in Texas and the last night prior to departing for home.  We were not disappointed. This Suite was top notch. We had a great desk area , very clean room, comfortable bed and the staff was very friendly and helpful. There are several new places to eat within walking distance of the facility. The breakfast bar was great , everything was fresh and the staff working this area stayed on top of keeping everything full .More</t>
   </si>
   <si>
-    <t>Jodi D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r409923594-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -951,9 +1402,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>Scott N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r405842097-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -969,13 +1417,37 @@
     <t>This hotel was clean and well maintained and the staff were friendly.  The room was larger than normal and the bed was very comfortable.  For a quick weekend visit, it suited my needs perfectly.  I have zero complaints.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>This hotel was clean and well maintained and the staff were friendly.  The room was larger than normal and the bed was very comfortable.  For a quick weekend visit, it suited my needs perfectly.  I have zero complaints.More</t>
   </si>
   <si>
-    <t>MtnMadMan</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r402929376-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>402929376</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Nice room, Nice stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed 1 night.  Absolutely loved the size of the room.  Our family of 5 wasn't stepping all over each other.  Loved the setup of the bathroom (toilet and small sink w/mirror behind a sliding door) and the shower with a full vanity and sink behind another.  The staff was friendly and accomodating.  The breakfast area was very nice and kept tidy by a really nice group of ladies.  Overall no complaints!  Very clean!  We'd stay again.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r400033063-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>400033063</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel has a great location near the Stonebriar Center and other shopping destinations in Frisco/Plano. There is a walking bridge behind the hotel that connects you to an area with a lot of good restaurant options. The hotel was clean and quiet. It had friendly and efficient staff. My children enjoyed the indoor swimming pool. The beds were comfy. The free breakfast was great and even had fresh fruit. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r393683579-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -993,9 +1465,6 @@
     <t>Traveled to Frisco to attend #Summerwc2016 @ Collin College and chose to stay here. Decor in lobby and room was very nice. Should a picture of the room and friends said, "very Euro." And I agree. Room was a generous size with a mini fridge seating area, desk , and bath was right in front of the bed. Big, frosted glass and wood sliding door was a nice touch. Shower only, but I didn't mind. When I travel with my wife, she prefers rooms with a nice bath tub. Staff was very friendly.</t>
   </si>
   <si>
-    <t>Gustavo R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r388686647-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1020,9 +1489,6 @@
     <t>We came to Dallas, TX for my brother's wedding. We stayed for 2 nights at this hotel. We let management know ahead that we had a toddler. During our stay we got no room cleaning whatsoever. What that means was that our room was smelling of dirty diapers for most of our stay, our beds were never made, our towels were wet and so on. That also meant that we had to deal with local ROACHES as you can see in my picture. Disgusting. I complained at front desk only to hear from them there was nothing they could do. There was no compensation. Nothing. I really don't recommend staying here, unless you want to de treated this way.More</t>
   </si>
   <si>
-    <t>WineTraveler1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r386677852-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1050,7 +1516,49 @@
     <t>I stayed an entire week at this new property. Typical beautiful new Marriott facility, but to my total surprise, the customer service was horrible. After the week, I felt like I had to share with the manager, as again this must be atypical. I was WRONG. The manager gave me attitude and didn't care in the least that all week long the staff left things in our room, didn't put new towels in, the front desk person had similar attitude and hung up on me. Incredibly disappointing to see a Marriott have such poor customer service, but after speaking with the manager, Kyle. I now know why .......More</t>
   </si>
   <si>
-    <t>Carolinablue26</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r379162382-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>379162382</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accommodating </t>
+  </si>
+  <si>
+    <t>Decided to do a mini trip over Christmas to visit six flags one more time in the winter and use our Marriott points. We could've stayed at the Lewisville location again since we liked it a lot but decided to try a new place where we haven't stayed before and even though it was a bit out of the way, we wanted to see this part of town :) 
+This Springhill was nice, new and was just as comfortable. The room is modern and nice but upon inspection everything is just a bit off. If you have a critical eye on construction like my husband does you can tell they did a rush job in building this hotel. The sliding doors didn't close all the way, tv a bit off, thermostat a bit off, mirrors, lighting etc. But none of that deters from the comfort and modern feel of the place. We did like how the shower is separated from the toilet area. That helps with bigger families. The beds were comfortable. We actually had a couple of sick ones this time so it mattered how comfortable the place was.
+Breakfast was fine and delicious as usual. Really liked the calming pond in the back of the hotel you can walk across the bridge and stare down at or sit out back in they r lounge chairs and stare off.
+Overall nice remote comfort place. Wouldn't mind staying here again...Decided to do a mini trip over Christmas to visit six flags one more time in the winter and use our Marriott points. We could've stayed at the Lewisville location again since we liked it a lot but decided to try a new place where we haven't stayed before and even though it was a bit out of the way, we wanted to see this part of town :) This Springhill was nice, new and was just as comfortable. The room is modern and nice but upon inspection everything is just a bit off. If you have a critical eye on construction like my husband does you can tell they did a rush job in building this hotel. The sliding doors didn't close all the way, tv a bit off, thermostat a bit off, mirrors, lighting etc. But none of that deters from the comfort and modern feel of the place. We did like how the shower is separated from the toilet area. That helps with bigger families. The beds were comfortable. We actually had a couple of sick ones this time so it mattered how comfortable the place was.Breakfast was fine and delicious as usual. Really liked the calming pond in the back of the hotel you can walk across the bridge and stare down at or sit out back in they r lounge chairs and stare off.Overall nice remote comfort place. Wouldn't mind staying here again with points if we were here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Decided to do a mini trip over Christmas to visit six flags one more time in the winter and use our Marriott points. We could've stayed at the Lewisville location again since we liked it a lot but decided to try a new place where we haven't stayed before and even though it was a bit out of the way, we wanted to see this part of town :) 
+This Springhill was nice, new and was just as comfortable. The room is modern and nice but upon inspection everything is just a bit off. If you have a critical eye on construction like my husband does you can tell they did a rush job in building this hotel. The sliding doors didn't close all the way, tv a bit off, thermostat a bit off, mirrors, lighting etc. But none of that deters from the comfort and modern feel of the place. We did like how the shower is separated from the toilet area. That helps with bigger families. The beds were comfortable. We actually had a couple of sick ones this time so it mattered how comfortable the place was.
+Breakfast was fine and delicious as usual. Really liked the calming pond in the back of the hotel you can walk across the bridge and stare down at or sit out back in they r lounge chairs and stare off.
+Overall nice remote comfort place. Wouldn't mind staying here again...Decided to do a mini trip over Christmas to visit six flags one more time in the winter and use our Marriott points. We could've stayed at the Lewisville location again since we liked it a lot but decided to try a new place where we haven't stayed before and even though it was a bit out of the way, we wanted to see this part of town :) This Springhill was nice, new and was just as comfortable. The room is modern and nice but upon inspection everything is just a bit off. If you have a critical eye on construction like my husband does you can tell they did a rush job in building this hotel. The sliding doors didn't close all the way, tv a bit off, thermostat a bit off, mirrors, lighting etc. But none of that deters from the comfort and modern feel of the place. We did like how the shower is separated from the toilet area. That helps with bigger families. The beds were comfortable. We actually had a couple of sick ones this time so it mattered how comfortable the place was.Breakfast was fine and delicious as usual. Really liked the calming pond in the back of the hotel you can walk across the bridge and stare down at or sit out back in they r lounge chairs and stare off.Overall nice remote comfort place. Wouldn't mind staying here again with points if we were here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r378477445-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>378477445</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Quick trip</t>
+  </si>
+  <si>
+    <t>When we arrived, the man at the front desk was very friendly. At 99.9% of hotels if I want to pay for the room with cash, I am able to do so upon checking in. Yes, I do know a credit card has to be put on file as well. I was told I was not able to pay in cash until check out per management. I found this to be inconvenient.  The room was very clean and spacious. The mattresses and pillows were comfortable. The only complaint I had with the room was the shower. It leaked. There was always a large puddle of water on the floor. It seemed as if the door wasn't shutting properly. Overall it was a nice stay. I would go back. MoreShow less</t>
+  </si>
+  <si>
+    <t>When we arrived, the man at the front desk was very friendly. At 99.9% of hotels if I want to pay for the room with cash, I am able to do so upon checking in. Yes, I do know a credit card has to be put on file as well. I was told I was not able to pay in cash until check out per management. I found this to be inconvenient.  The room was very clean and spacious. The mattresses and pillows were comfortable. The only complaint I had with the room was the shower. It leaked. There was always a large puddle of water on the floor. It seemed as if the door wasn't shutting properly. Overall it was a nice stay. I would go back. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r378466717-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -1059,9 +1567,6 @@
     <t>378466717</t>
   </si>
   <si>
-    <t>05/31/2016</t>
-  </si>
-  <si>
     <t>Great stay and very accomodating</t>
   </si>
   <si>
@@ -1071,9 +1576,6 @@
     <t>The hotel is practically brand new or seems to be kept in like new condition! The hotel staff is very accommodating and friendly. My family stayed here for a wedding that was at Noah's and the location was just perfect. There is plenty of dining around so you will not have to travel far. It's close enough to the main highway but far enough back so you do not hear the road noise. I was unable to use the pool, fitness center, or even have breakfast but I'm sure it was per Marriott standards which would be acceptable. The only complaint I have is that the elevators are super slow! But not the hotels fault just a slow elevator. Should have gone with Otis because they can adjust speeds. If I was in the area I would definitely stay here again without a doubt. More</t>
   </si>
   <si>
-    <t>mimijoyce</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r373878443-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1098,9 +1600,6 @@
     <t>It's new,the staff is young and eager to please, beds are comfy and the breakfast in the morning is hot.  The onlything that bothers me a little is-I'm short and the shower nozzle is for very tall folks, so I have to hold my breath to keep from drowning when I'm under it.  I'm sure you get the picture of why I like these suites, but the real reason I'm so fond of it is that I make a phone call when I'm 5 minutes away, and my great grand daughter meets me at the front door.More</t>
   </si>
   <si>
-    <t>Will Z</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r373525152-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1119,7 +1618,43 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>Aaron W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r373396738-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>373396738</t>
+  </si>
+  <si>
+    <t>MIXED Feelings</t>
+  </si>
+  <si>
+    <t>Please note I tried to find a place on the Marriott website or a direct link to address this with the hotel management instead of posting to Trip Advisor. We are committed to the Marriott chain and use them exclusively when traveling in the U.S. unless we rent a condo or use timeshare properties. We are Elite members and always feel welcomed and know 100% what to expect.  This particular visit was the exception to our general love of Marriott.  We were going to be arriving late so I called to let the front desk know. I was also having issues with my mobile app (probably due to the crazy weather) while on the phone I also told them that the past several times I've checked in the exp. date on the credit card on file showed expired but that I've updated it online and hopefully it is corrected in his computer as well. We arrived about 8:45 but could have been later. The two young men at the front desk were to the point of being curt/ short / rude. Before I could give them my ID and card they let me know my credit card has expired. I know they were probably busy but there was no excuse to be short with me since I had already called earlier and explained that when the new MARIOTT CREDIT CARD was sent due to the CHIP the expiration date had...Please note I tried to find a place on the Marriott website or a direct link to address this with the hotel management instead of posting to Trip Advisor. We are committed to the Marriott chain and use them exclusively when traveling in the U.S. unless we rent a condo or use timeshare properties. We are Elite members and always feel welcomed and know 100% what to expect.  This particular visit was the exception to our general love of Marriott.  We were going to be arriving late so I called to let the front desk know. I was also having issues with my mobile app (probably due to the crazy weather) while on the phone I also told them that the past several times I've checked in the exp. date on the credit card on file showed expired but that I've updated it online and hopefully it is corrected in his computer as well. We arrived about 8:45 but could have been later. The two young men at the front desk were to the point of being curt/ short / rude. Before I could give them my ID and card they let me know my credit card has expired. I know they were probably busy but there was no excuse to be short with me since I had already called earlier and explained that when the new MARIOTT CREDIT CARD was sent due to the CHIP the expiration date had changed. I had even offered to give him the new exp date over the phone. Thankfully that was our last dealings we these two. My husband said their attitude wasn't as "bad" as and I thought it was. We were a bit concerned because there were so many kids in the parking lot  playing ball or Frisbee / lobby / elevators / elevator bays / gym / pool etc... HOWEVER, every child we came into contact with inside the hotel was exceedingly polite and well mannered. There was never a noise issue, our room placement provided us a great night's sleep. The bar across the water retention pond was loud but with the a/c on and drapes pulled we couldn't hear anything.  The room was very well laid out. Bed as with all Marriott properties was AWESOME! The modern style of the entire room was very appealing but... the lighting in the bathroom was NOT adequate to even attempt to put on makeup. Bathroom toilet didn't flush well, light bulb above toilet was not working and we didn't need it EXCEPT to maybe shed some extra light for applying makeup. Shower set up while looks nice is a LEAKY mess no matter how you turn the shower head water was all over the bathroom floor. Somehow that needs to be addressed. I can foresee many slipping falls/ accidents in the future. I loved the area. Lots of places to eat and shop but we were so late  arriving and it was a Friday night. We could have walked to the pub/bar I mentioned earlier but thankfully we drove. We saw once we got back to our room that the sprinkler was showering the concrete walkway so we would have been soaked if we had tried to use that path. FYI...I can't remember the name of the local pub on the end behind the hotel but food was VERY good and not the typical greasy bar food. I had a great salad, my husband had sliders appetizer and it was more than enough for 2 people to share as a meal. I think buns homemade.  Drinks spot on and live music was really great! We did not eat the free breakfast at the hotel. Even with the negative things I've posted and minus the two young men we encountered at check-in I would without a doubt return to this facility. In my opinion the employees were not up to the Marriott standard and there are some issues that can easily be corrected but I'd choose this over other hotel brands in the area hands down. AND in their defense it was clearly a very busy weekend for this hotel. I just wish I could have addressed this in an email to the management at the hotel instead of posting on T.A.   Marriott doesn't allow you to post any reviews on their websites unless you receive a review request / customer satisfaction survey.MoreShow less</t>
+  </si>
+  <si>
+    <t>Please note I tried to find a place on the Marriott website or a direct link to address this with the hotel management instead of posting to Trip Advisor. We are committed to the Marriott chain and use them exclusively when traveling in the U.S. unless we rent a condo or use timeshare properties. We are Elite members and always feel welcomed and know 100% what to expect.  This particular visit was the exception to our general love of Marriott.  We were going to be arriving late so I called to let the front desk know. I was also having issues with my mobile app (probably due to the crazy weather) while on the phone I also told them that the past several times I've checked in the exp. date on the credit card on file showed expired but that I've updated it online and hopefully it is corrected in his computer as well. We arrived about 8:45 but could have been later. The two young men at the front desk were to the point of being curt/ short / rude. Before I could give them my ID and card they let me know my credit card has expired. I know they were probably busy but there was no excuse to be short with me since I had already called earlier and explained that when the new MARIOTT CREDIT CARD was sent due to the CHIP the expiration date had...Please note I tried to find a place on the Marriott website or a direct link to address this with the hotel management instead of posting to Trip Advisor. We are committed to the Marriott chain and use them exclusively when traveling in the U.S. unless we rent a condo or use timeshare properties. We are Elite members and always feel welcomed and know 100% what to expect.  This particular visit was the exception to our general love of Marriott.  We were going to be arriving late so I called to let the front desk know. I was also having issues with my mobile app (probably due to the crazy weather) while on the phone I also told them that the past several times I've checked in the exp. date on the credit card on file showed expired but that I've updated it online and hopefully it is corrected in his computer as well. We arrived about 8:45 but could have been later. The two young men at the front desk were to the point of being curt/ short / rude. Before I could give them my ID and card they let me know my credit card has expired. I know they were probably busy but there was no excuse to be short with me since I had already called earlier and explained that when the new MARIOTT CREDIT CARD was sent due to the CHIP the expiration date had changed. I had even offered to give him the new exp date over the phone. Thankfully that was our last dealings we these two. My husband said their attitude wasn't as "bad" as and I thought it was. We were a bit concerned because there were so many kids in the parking lot  playing ball or Frisbee / lobby / elevators / elevator bays / gym / pool etc... HOWEVER, every child we came into contact with inside the hotel was exceedingly polite and well mannered. There was never a noise issue, our room placement provided us a great night's sleep. The bar across the water retention pond was loud but with the a/c on and drapes pulled we couldn't hear anything.  The room was very well laid out. Bed as with all Marriott properties was AWESOME! The modern style of the entire room was very appealing but... the lighting in the bathroom was NOT adequate to even attempt to put on makeup. Bathroom toilet didn't flush well, light bulb above toilet was not working and we didn't need it EXCEPT to maybe shed some extra light for applying makeup. Shower set up while looks nice is a LEAKY mess no matter how you turn the shower head water was all over the bathroom floor. Somehow that needs to be addressed. I can foresee many slipping falls/ accidents in the future. I loved the area. Lots of places to eat and shop but we were so late  arriving and it was a Friday night. We could have walked to the pub/bar I mentioned earlier but thankfully we drove. We saw once we got back to our room that the sprinkler was showering the concrete walkway so we would have been soaked if we had tried to use that path. FYI...I can't remember the name of the local pub on the end behind the hotel but food was VERY good and not the typical greasy bar food. I had a great salad, my husband had sliders appetizer and it was more than enough for 2 people to share as a meal. I think buns homemade.  Drinks spot on and live music was really great! We did not eat the free breakfast at the hotel. Even with the negative things I've posted and minus the two young men we encountered at check-in I would without a doubt return to this facility. In my opinion the employees were not up to the Marriott standard and there are some issues that can easily be corrected but I'd choose this over other hotel brands in the area hands down. AND in their defense it was clearly a very busy weekend for this hotel. I just wish I could have addressed this in an email to the management at the hotel instead of posting on T.A.   Marriott doesn't allow you to post any reviews on their websites unless you receive a review request / customer satisfaction survey.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r372688304-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>372688304</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Horrible Experience and Horrible Management</t>
+  </si>
+  <si>
+    <t>I have checked my friend in to this Hotel with her daughter who is only 7 years old. When they got to the room they realized that room was dirty. Bed was not made the Tv was on There is blood on the sink and also bloody towels in the bathroom. They were terrified so they called m while i am driving to the Airport. And told me no way they will stay there and need to find another hotel and they ended up at Embassy suites. I called the hotel to let them know what is going on and cancel my reservation. The young lady at the front desk took care of it. I receive a survey in the mail and after filling that out i get a email from The General Manager ( who  is very rude and unprofessional ) He basically tells me he is going to give me 15,000 points for the inconvenience having a freaked out child is little more then inconvenience having to find another hotel and pay twice for it per night is more then inconvenience ..So i just would like to warn everyone to make sure you check your bed and sheets all the way to the mattress to make sure they are being changed. And to let you know that this place is not safe and if you happen to catch any disease or get sick The GM IS AWARE of...I have checked my friend in to this Hotel with her daughter who is only 7 years old. When they got to the room they realized that room was dirty. Bed was not made the Tv was on There is blood on the sink and also bloody towels in the bathroom. They were terrified so they called m while i am driving to the Airport. And told me no way they will stay there and need to find another hotel and they ended up at Embassy suites. I called the hotel to let them know what is going on and cancel my reservation. The young lady at the front desk took care of it. I receive a survey in the mail and after filling that out i get a email from The General Manager ( who  is very rude and unprofessional ) He basically tells me he is going to give me 15,000 points for the inconvenience having a freaked out child is little more then inconvenience having to find another hotel and pay twice for it per night is more then inconvenience ..So i just would like to warn everyone to make sure you check your bed and sheets all the way to the mattress to make sure they are being changed. And to let you know that this place is not safe and if you happen to catch any disease or get sick The GM IS AWARE of the situation and he will not make it right .. So please take your hard earn money elsewhere and enjoy other hotels with much better management .  I am going to assume this is not a actual Marriott owned hotel and is a Franchise hotel so the GM doesn't really care or hold the Marriott Standards.. If you would like to see the bloody pics and the room condition please feel free to email me and also if you would like to see the response from the ARROGANT GM email me as well.. Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>Phil K, Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded May 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2016</t>
+  </si>
+  <si>
+    <t>I have checked my friend in to this Hotel with her daughter who is only 7 years old. When they got to the room they realized that room was dirty. Bed was not made the Tv was on There is blood on the sink and also bloody towels in the bathroom. They were terrified so they called m while i am driving to the Airport. And told me no way they will stay there and need to find another hotel and they ended up at Embassy suites. I called the hotel to let them know what is going on and cancel my reservation. The young lady at the front desk took care of it. I receive a survey in the mail and after filling that out i get a email from The General Manager ( who  is very rude and unprofessional ) He basically tells me he is going to give me 15,000 points for the inconvenience having a freaked out child is little more then inconvenience having to find another hotel and pay twice for it per night is more then inconvenience ..So i just would like to warn everyone to make sure you check your bed and sheets all the way to the mattress to make sure they are being changed. And to let you know that this place is not safe and if you happen to catch any disease or get sick The GM IS AWARE of...I have checked my friend in to this Hotel with her daughter who is only 7 years old. When they got to the room they realized that room was dirty. Bed was not made the Tv was on There is blood on the sink and also bloody towels in the bathroom. They were terrified so they called m while i am driving to the Airport. And told me no way they will stay there and need to find another hotel and they ended up at Embassy suites. I called the hotel to let them know what is going on and cancel my reservation. The young lady at the front desk took care of it. I receive a survey in the mail and after filling that out i get a email from The General Manager ( who  is very rude and unprofessional ) He basically tells me he is going to give me 15,000 points for the inconvenience having a freaked out child is little more then inconvenience having to find another hotel and pay twice for it per night is more then inconvenience ..So i just would like to warn everyone to make sure you check your bed and sheets all the way to the mattress to make sure they are being changed. And to let you know that this place is not safe and if you happen to catch any disease or get sick The GM IS AWARE of the situation and he will not make it right .. So please take your hard earn money elsewhere and enjoy other hotels with much better management .  I am going to assume this is not a actual Marriott owned hotel and is a Franchise hotel so the GM doesn't really care or hold the Marriott Standards.. If you would like to see the bloody pics and the room condition please feel free to email me and also if you would like to see the response from the ARROGANT GM email me as well.. Thank youMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r368750610-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -1143,9 +1678,6 @@
     <t>I have stayed at the Springhill Suites in Plano/Frisco several times for both business and with my family.  There are no Marriott affiliated hotels currently in Frisco and I have tried several different ones around. This is now my go to when I am in the area. The staff is friendly and the hotel is new and modern.  It is located just across the 121 from the Stonebriar Mall and there are a lot of restaurant choices in the immediate vicinity.  I was last there in early April and had an issue with my wifi but a call down to the desk took care of the problem immediately.  There is a cafe type restaurant and bar on the first floor so they offer room service as well.  The breakfast buffet is typical for a Springhill Suites but the staff is attentive and it is a nice eating area.  The price is a little high for the brand but the location for me makes it worth it. I will definitely be going back to stay here on my next trip.More</t>
   </si>
   <si>
-    <t>Sheila L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r361581258-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1170,9 +1702,6 @@
     <t>My son whet to use a folded towel after his shower and there where HUGE DRIED GREEN BOOGERS on it!  Disgusting!  So glad he seen them! We shrugged it off and took the towel to the front desk to show them and it was a simple sorry (with attitude).  Due to the response I asked or a Manager and was told there was not one available, that this will be brought up to the Manager for follow up  and acted like I was bothering him and asked what else can I do for you (with an attitude).  I snapped back, handed my bill and the Booger laced Towel to him and stated just as rude as he was “You can take the cost of the complementary boogers and the cost of my room of my bill!”   He looked at me as smiled and stated, yes Ma’am.  I received no follow up call from anyone.  I called back to speak to a Manager the following day, no Manager available but did get a call back later that afternoon.  The Manager stated he did know of the situation, seen the boogers on the towel but didn’t know I was expecting a call.  Really!  You’re the Manager and you know a guest had boogers on their towel and didn’t follow up??  Anyway, he informed me that he would not hold up to what the Hotel employee stated about taking the booger and room...My son whet to use a folded towel after his shower and there where HUGE DRIED GREEN BOOGERS on it!  Disgusting!  So glad he seen them! We shrugged it off and took the towel to the front desk to show them and it was a simple sorry (with attitude).  Due to the response I asked or a Manager and was told there was not one available, that this will be brought up to the Manager for follow up  and acted like I was bothering him and asked what else can I do for you (with an attitude).  I snapped back, handed my bill and the Booger laced Towel to him and stated just as rude as he was “You can take the cost of the complementary boogers and the cost of my room of my bill!”   He looked at me as smiled and stated, yes Ma’am.  I received no follow up call from anyone.  I called back to speak to a Manager the following day, no Manager available but did get a call back later that afternoon.  The Manager stated he did know of the situation, seen the boogers on the towel but didn’t know I was expecting a call.  Really!  You’re the Manager and you know a guest had boogers on their towel and didn’t follow up??  Anyway, he informed me that he would not hold up to what the Hotel employee stated about taking the booger and room charge off (not the money- the principle!)  but thought a credit of $20.00 should accommodate the rude employee and booger towel.  I declined the credit.More</t>
   </si>
   <si>
-    <t>DiamondMemberScott</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r358635573-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1200,7 +1729,52 @@
     <t>I have stayed at most hotels in the area.  I prefer this place over the upscale Westin Stonebriar.  Clean.  Friendly.  Convenient. Good breakfast.  Decent restaurant.  Perfect business hotel.  Walking distance to a variety of restaurants and bars.More</t>
   </si>
   <si>
-    <t>jjkittycat</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r355722600-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>355722600</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Nice, clean, good customer service for the price</t>
+  </si>
+  <si>
+    <t>I was at this place for 3 nights and I enjoyed my stay.  The front desk folks are nice, it has decent options for breakfast, has a bar so night cap was easy access.  Had clean sheets, the rooms were cleaned and stocked well.  Did not use the them but it has a pool, hot tub (?) and fitness room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle E, Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded March 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2016</t>
+  </si>
+  <si>
+    <t>I was at this place for 3 nights and I enjoyed my stay.  The front desk folks are nice, it has decent options for breakfast, has a bar so night cap was easy access.  Had clean sheets, the rooms were cleaned and stocked well.  Did not use the them but it has a pool, hot tub (?) and fitness room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r354603094-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>354603094</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Bright and Shining SpringHill Suites</t>
+  </si>
+  <si>
+    <t>This is a relatively new property and the modern design and overall appeal reflects this.  The rooms have a great design that maximizes the space but has the functionality.  The desk is on the other side of a half wall from the bed, and you can slide open a glass window to talk to someone in the bed.  The shower is large and a good tall shower head.  There is a refrigerator, two TVs, couch, microwave.  The sink itself in the bathroom is small, but that is in order to have two counter areas if there are two people.  There is a wooden slatted bench under the window with a nice picture window overlooking a lake (in my case).  There is a local restaurant/pub (II Brothers) that is a short walk behind the hotel.  The breakfast is decent (not as good as a Hilton Garden Inn, which has eggs cooked to order, but scrambled eggs were warm).  There is also a small bar at night (again, not as nice as a Hilton Garden Inn but decent).  The bed and pillows and towels all reflect a newly-built property and are nice.  There was a room service menu that reflected a nice variety and unusual as well as standard fare (and expensive), but we didn't partake.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kyle E, Guest Relations Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded March 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2016</t>
+  </si>
+  <si>
+    <t>This is a relatively new property and the modern design and overall appeal reflects this.  The rooms have a great design that maximizes the space but has the functionality.  The desk is on the other side of a half wall from the bed, and you can slide open a glass window to talk to someone in the bed.  The shower is large and a good tall shower head.  There is a refrigerator, two TVs, couch, microwave.  The sink itself in the bathroom is small, but that is in order to have two counter areas if there are two people.  There is a wooden slatted bench under the window with a nice picture window overlooking a lake (in my case).  There is a local restaurant/pub (II Brothers) that is a short walk behind the hotel.  The breakfast is decent (not as good as a Hilton Garden Inn, which has eggs cooked to order, but scrambled eggs were warm).  There is also a small bar at night (again, not as nice as a Hilton Garden Inn but decent).  The bed and pillows and towels all reflect a newly-built property and are nice.  There was a room service menu that reflected a nice variety and unusual as well as standard fare (and expensive), but we didn't partake.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r353980732-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -1221,9 +1795,6 @@
     <t>Definitely will come back for the next business trip. This place is located 3 mins from my  office where I travel to. And plenty places to eat or have a spa experience in walking distance(literally across a bridge in the back). This was a fairly new hotel. The lobby was quite modern with the bright color decor. Plenty seats in the lobby. The room I got was a suite with a King sized bed. Nice sofa in the sitting area and a good sized deck. The TV had a decent size to be shared between the sitting area and the bedroom. The bath room was bright and clean. However, somehow the shower water's tempature was not quite stable for one morning. The services were great. The front desk was always polite and happy to see you and eager to help. The complimentary breakfast was fine. Everything just worked out for the business travalers which i think this place is geared for.More</t>
   </si>
   <si>
-    <t>Peter K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r353605727-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1242,9 +1813,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Tenderpaw01</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r351995350-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1260,7 +1828,37 @@
     <t>We stayed here 3 nights for a basketball tournament.  The rooms are large with walk in closets and split bathrooms.  There is plenty of storage and room for multiple suitcases to be open.  The rooms are split with a sitting area on one end and the bedroom on the other separated by a desk.  There is also a small fridge and microwave.   Breakfast included scambled eggs, sausage, bagels, english muffins and other things.  It was very good.  Nearby within walking distance are numerous restaurants and shops.  It was a great stay.</t>
   </si>
   <si>
-    <t>Ed D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r338011182-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>338011182</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>Very nice and comfortable</t>
+  </si>
+  <si>
+    <t>Came here for a Christmas stay-cation with my boys. Very fun overnight stay. Very good variety for the breakfast. The (indoor) pool and spa were also very nice and well-kept. I didn't have a chance to use the exercise facilities, but I took a look and they appeared to be very up-to-date. Highly recommended.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r332642480-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>332642480</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Newer hotel in Plano and shops and events are nearby.</t>
+  </si>
+  <si>
+    <t>The hotel is modern in design and looks great inside.  The staff was very friendly and we had a great stay.  It is close to lots of things in Plano and should suit your needs very well.  The rates were moderate considering the look and feel of the motel.  Our base rate was about $109 per night.The grandson loved the pool and swam several times.  The breakfast in the morning was typical of the free breakfasts at better hotels.  It did have a large area for seating and that was pretty unusual as many of these rooms are quite small for seating.My only complaint would be with the design of the rooms.  The bathroom has a sliding door and it is opaque.  So, every time you get up at night and turn on the bathroom light it lights up the entire sleeping area.  Not a good design!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is modern in design and looks great inside.  The staff was very friendly and we had a great stay.  It is close to lots of things in Plano and should suit your needs very well.  The rates were moderate considering the look and feel of the motel.  Our base rate was about $109 per night.The grandson loved the pool and swam several times.  The breakfast in the morning was typical of the free breakfasts at better hotels.  It did have a large area for seating and that was pretty unusual as many of these rooms are quite small for seating.My only complaint would be with the design of the rooms.  The bathroom has a sliding door and it is opaque.  So, every time you get up at night and turn on the bathroom light it lights up the entire sleeping area.  Not a good design!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r332358167-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -1278,12 +1876,6 @@
     <t>Very nice room and at a good price. The only downside is that it is difficult to get into and out of. Like a lot of new places, they forget that the shortest distance between two points is a straight line! I can't blame it all on the hotel, as that is just how they lay out roads and driveways nowadays.</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
-    <t>Inquisitive_Wayfarer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r330784428-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1302,9 +1894,6 @@
     <t>This hotel is truly exceptional in nearly every way. From the beautiful lobby, to the spacious and well-designed rooms, this fairly new property was designed to impress.The decor is very modern and inviting. The rooms are large and comfortable. The shower is in a separate room from the toilet, and each room has its own sink. This definitely makes getting ready in the morning easier when you have several people staying in the room. Beds are comfortable.There is ample parking, an indoor pool/hot tub, and a nice workout room. Staff members were extremely friendly and helpful. The free breakfast was definitely the best free breakfast I have ever had at a hotel. There were so many options: eggs, bacon, sausage, cereal, pastries, etc. Real glass plates, silverware, and glasses are used instead of the usual paper and plastic. The seating area is huge and the breakfast staff keeps things very well stocked.The only complaint I have at all is that the TV is very hard to watch. It's located in the space between the "sitting room" and "bedroom." The TV is bolted to the stand and doesn't pivot far enough to make viewing it from either room comfortable. You will have to watch the TV from an angle from every seat unless you sit in the computer chair and roll it in front of the TV.More</t>
   </si>
   <si>
-    <t>Lynne_judy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r325540826-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1323,7 +1912,58 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>drlehman</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r321857357-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>321857357</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay</t>
+  </si>
+  <si>
+    <t>This was our first stay at this property.  We were pleased to find a clean comfortable room and a friendly staff.  The breakfast was terrific.  The location is close to major shopping and any kind of restaurant you can imagine.  We'll be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Kyle E, Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2015</t>
+  </si>
+  <si>
+    <t>This was our first stay at this property.  We were pleased to find a clean comfortable room and a friendly staff.  The breakfast was terrific.  The location is close to major shopping and any kind of restaurant you can imagine.  We'll be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r315833865-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>315833865</t>
+  </si>
+  <si>
+    <t>10/03/2015</t>
+  </si>
+  <si>
+    <t>Elegant living in a Texas city</t>
+  </si>
+  <si>
+    <t>The minute you enter the lobby, you'll think you're in a metropolitan city like New York or Paris. And the staff is wonderful. Great breakfast, bar, and restaurant (try the Angus burger). The rooms are large and mine offered a desk complete with WiFi, and a microwave and refrigerator. I'll book this one on my next trip before the year end.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Kyle E, Guest Relations Manager at SpringHill Suites Dallas Plano/Frisco, responded to this reviewResponded October 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2015</t>
+  </si>
+  <si>
+    <t>The minute you enter the lobby, you'll think you're in a metropolitan city like New York or Paris. And the staff is wonderful. Great breakfast, bar, and restaurant (try the Angus burger). The rooms are large and mine offered a desk complete with WiFi, and a microwave and refrigerator. I'll book this one on my next trip before the year end.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r312883357-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -1341,12 +1981,6 @@
     <t>Nothing better within 5 miles.  We are so excited that SpringHill finally opened in the Plano. The new hotel is perfect...great rooms, great service and nice breakfast. We look forward to staying here again.  Because of it's location, it is a little difficult to reach.</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
-    <t>pickyBossierCity_LA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r311021038-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1365,9 +1999,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>bogeygolfer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r308075351-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1392,7 +2023,37 @@
     <t>Very impressed with this Springhill Suites... The place is clean, common areas are spacious, lots of (free) parking.  In spite of being 95+ degrees outside, the indoor part of the hotel was cool and comfortable.     The hotel itself has a bar and room service.  There is alot of restaurants in the area.  Some of them are just over the walking bridge behind the property.   The hotel is close to the mall. The breakfast options are inline with other  Springhill Suites.   The only nitpick is that the elevators were slow so had to resort to using stairs when going down.  Healthwise, probably better using stairs.More</t>
   </si>
   <si>
-    <t>mgm858</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r303692800-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>303692800</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>We stayed for just one night this past weekend. It was a spacious, clean, and modern hotel which was very comfortable. I would definitely recommend staying here! We also ate at the restaurant and the food was very good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r297025681-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>297025681</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>WONDERFUL and NEW!</t>
+  </si>
+  <si>
+    <t>This hotel was 5 months old as of our stay. I stayed with my parents and my young daughter in a 2 bed suite. It was perfect for us. I loved that there were two bathroom areas! One with a beautiful walk in shower with glass door and a sink. The other had a toilet and a sink. We loved having a sitting area separated by a half wall from the bed area. The entire hotel was REALLY clean and bright. I really have no complaints!!! The hotel staff were ALL nice and helpful. Breakfast was wonderful. Had hot oatmeal, cereals, both mornings had scrambled eggs and assorted breakfast meat along with muffins, bread, etc... Saturday morning had make-your-own texas shaped waffles! Nice open lobby and tons of places to enjoy our breakfast. The pool area looked really nice as did the work out space, although we did not use either. Overall our stay was great!!!! I do think the regular rates were a little high, so I am glad we got a military rate. Very nice area, really close to a ton of shopping and restaurants! GREAT visit!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was 5 months old as of our stay. I stayed with my parents and my young daughter in a 2 bed suite. It was perfect for us. I loved that there were two bathroom areas! One with a beautiful walk in shower with glass door and a sink. The other had a toilet and a sink. We loved having a sitting area separated by a half wall from the bed area. The entire hotel was REALLY clean and bright. I really have no complaints!!! The hotel staff were ALL nice and helpful. Breakfast was wonderful. Had hot oatmeal, cereals, both mornings had scrambled eggs and assorted breakfast meat along with muffins, bread, etc... Saturday morning had make-your-own texas shaped waffles! Nice open lobby and tons of places to enjoy our breakfast. The pool area looked really nice as did the work out space, although we did not use either. Overall our stay was great!!!! I do think the regular rates were a little high, so I am glad we got a military rate. Very nice area, really close to a ton of shopping and restaurants! GREAT visit!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r293921455-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -1424,9 +2085,6 @@
 The lobby is large and has several seating areas where guests can gather. Whether we gathered to work on a wedding project, eat a little lunch, or just visit, the space worked out great. It was spacious enough that the other hotel guests could still gather in several areas. As for other amenities, the indoor pool and hot tub were well maintained and a good option for a place to relax. For those who want to sunbathe, there were...We chose the Springhill Suites Plano/Frisco as the hotel for our out of town guests for my son's recent wedding and couldn't be more pleased. The wedding venue was across the street and very convenient to the hotel.We were able to set aside a block of rooms for the wedding at a discounted rate and our guests were able to book their rooms via a direct link on the website. Prior to the wedding, I made a special trip to Plano to stay at the Springhill Suites and lay groundwork in the area for the wedding. The staff couldn't have been more accommodating and answered every question with grace and a smile.When it came time for all of our out of town guests to descend on the hotel, the staff made each of them feel welcome. We asked them to distribute special goodie bags to each party as they arrived and they made sure that everyone received a bag. The lobby is large and has several seating areas where guests can gather. Whether we gathered to work on a wedding project, eat a little lunch, or just visit, the space worked out great. It was spacious enough that the other hotel guests could still gather in several areas. As for other amenities, the indoor pool and hot tub were well maintained and a good option for a place to relax. For those who want to sunbathe, there were lounge chairs on the outside patio near the pool area. Additionally, the hotel has other outdoor spaces for gathering and relaxing.Our rooms were clean, comfortable, and well-planned. The bathrooms are great - I heard several in our party rave about the showers. Each room included a sofa sleeper and desk area. Additionally, there was a long rack over the AC unit that provided extra storage. The closet included several shelving racks as well as hanging racks for clothes. While everything at the Springhill Suites Plano/Frisco was very nice, the best part of our stay was the staff. Manager Kyle and the rest of the staff went out of their way to be welcoming, upbeat, and friendly. They anticipated our every need, and made sure we had everything we needed. I can't give them enough kudos. Thanks for everything you did to make the wedding weekend a huge success!More</t>
   </si>
   <si>
-    <t>L A D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r292286240-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1445,9 +2103,6 @@
     <t>Had a quick one night stay at this location. Hotel is pretty new and has the new décor. Hotel feels modern; and gives off a very clean and bright appearance.  Staff of the hotel were very professional and seemed to be well trained. Front desk experience was top notch; very quick and efficient. Check in took less than a couple of minutes. Everyone staff member said hello and asked if I needed any assistance throughout the hotel.  Room was spacious and well designed. Very quiet and comfortable. Breakfast was the standard buffet but it had good fresh fruit and the breakfast meats were very good.  Very good fitness center and pool.More</t>
   </si>
   <si>
-    <t>robertfranks2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r284697967-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1463,7 +2118,40 @@
     <t>This hotel is the new design spring hill suites, and it is awesome. Extremely friendly atmosphere, and a first class facility. The Marriott designers outdid themselves with this new offering. Tons of shopping and restaurants nearby. Give it a try.</t>
   </si>
   <si>
-    <t>moman37</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r282427674-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>282427674</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>SpringHill suites in Plano Texas is a very nice, modern and vibrant hotel. This hotel is far different than the traditional SpringHill hotels.This hotel is new and has an eye catching lobby that is spacious and colorful. The furniture in the lobby is nice and decorative. The rooms are quite spacious, very clean and modern. Each room has a flat TV, MicroWave, Refrigerator and a sofa. The bed is very comfortable.The hotel has a very good restaurant and offers a good variety of breakfast. My stay was quite short and couldn’t explore the hotel fully. But it is really worth and offers good value for money.  Hotel has ample parking space and also offers free wi-fi.I strongly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>SpringHill suites in Plano Texas is a very nice, modern and vibrant hotel. This hotel is far different than the traditional SpringHill hotels.This hotel is new and has an eye catching lobby that is spacious and colorful. The furniture in the lobby is nice and decorative. The rooms are quite spacious, very clean and modern. Each room has a flat TV, MicroWave, Refrigerator and a sofa. The bed is very comfortable.The hotel has a very good restaurant and offers a good variety of breakfast. My stay was quite short and couldn’t explore the hotel fully. But it is really worth and offers good value for money.  Hotel has ample parking space and also offers free wi-fi.I strongly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r281652959-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>281652959</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Visit to Plano, TX</t>
+  </si>
+  <si>
+    <t>I stayed at the SpringHill Suites Dallas Plano/Frisco the week of June 8th for business. The hotel was extremely nice. The hotel staff was friendly. The rooms have a modern look and feel. There is a pool and gym. The free breakfast can help get your day started. They do have room service, I did not get a chance try it on my trip. There are various restaurants in the same area as the hotel so you will not have to go far to find something to eat. I would definitely stay there again for a business or vacation trip.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r278123411-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -1493,9 +2181,6 @@
     <t>New hotel in great area with poor policies. Loud noise on weekends from bars and parking lot on South side of hotel till 2 a.m. Brutal! No drinking cups in workout room. Springhill has small bar in lobby with New York City prices. They throw on 20% service charge per drink order while sitting at bar? It's like they were delivering room service. Staff has been trained to say we are only S.H. suites with a bar. We charge what we want. Like its a full service Marriott. Its no different then nice Court yards with lobby bar. 6.50 for draft beer, really! Then service charge on top of it. Platinum P. Elite member, have never heard of auto service charge for 1 person in restaurant or small 12 ft. bar area. Left message for management, never heard from them.More</t>
   </si>
   <si>
-    <t>World_Hiker_Dallas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r275378556-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1511,9 +2196,6 @@
     <t>Recently stayed for a business trip -- loved everything about this property!  Great location, brand new modern reviews, excellent staff.   Would highly recommend to anyone!!   Our flight was very late and the night auditor, George, met me at the door with my key -- now that is 5 star service -- thanks, George!</t>
   </si>
   <si>
-    <t>bohste</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r274513841-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1532,7 +2214,37 @@
     <t>My family stayed here over the Memorial Day weekend and overall we really, really liked this place.  Great location near the Frisco Mall and the new Nebraska Furniture Mart in The Colony.  I'll give you the negatives first.  We stayed on the 5th floor (top) and the DFW area was getting some pretty heavy rainfall.  After our 2nd night we saw a leak in our ceiling right over my elderly mother's bed.  I told the front desk about it and they moved us to another suite.  Now ... let me tell you all the positives!  This is a new design SpringHill Suites that is very modern and eclectic from the time you walk in the lobby until you arrive in your room.  The suites are considerably larger than the old hotels with lots of amenities.  Great beds and pillows, a separate toilet and sink from a room with the shower and a sink.  Even a walk-in closet with plenty of storage.  And there is a nice couch area and work desk with high speed internet.  This new SpringHill Suites also has a bar, restaurant and room service which sets it apart from all the others.  There are also tons of restaurants nearby to the hotel.  The complimentary hot breakfast was awesome.  The best of any hotel chain.  Fresh scrambled eggs, fruit, sausage, bacon, waffles, yogurt, bagels, English muffins, banana bread and great coffee.  The best thing about this hotel is...My family stayed here over the Memorial Day weekend and overall we really, really liked this place.  Great location near the Frisco Mall and the new Nebraska Furniture Mart in The Colony.  I'll give you the negatives first.  We stayed on the 5th floor (top) and the DFW area was getting some pretty heavy rainfall.  After our 2nd night we saw a leak in our ceiling right over my elderly mother's bed.  I told the front desk about it and they moved us to another suite.  Now ... let me tell you all the positives!  This is a new design SpringHill Suites that is very modern and eclectic from the time you walk in the lobby until you arrive in your room.  The suites are considerably larger than the old hotels with lots of amenities.  Great beds and pillows, a separate toilet and sink from a room with the shower and a sink.  Even a walk-in closet with plenty of storage.  And there is a nice couch area and work desk with high speed internet.  This new SpringHill Suites also has a bar, restaurant and room service which sets it apart from all the others.  There are also tons of restaurants nearby to the hotel.  The complimentary hot breakfast was awesome.  The best of any hotel chain.  Fresh scrambled eggs, fruit, sausage, bacon, waffles, yogurt, bagels, English muffins, banana bread and great coffee.  The best thing about this hotel is the staff.  They are so well trained, friendly and attentive.  Some of the best I've ever seen at a hotel.More</t>
   </si>
   <si>
-    <t>Norris M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r270410211-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>270410211</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel with family type atmosphere. Staff were fantastic and special mention to Kyle ( deputy manager ). He was fantastic and things were always done above and beyond what we needed with great enthusiasm. It's a new hotel with an excellent location to stone briar and legacy. Free parking and only a 20 min drive to Allen mall. We will definitely be staying staying here and this would be our choice for business trip or pleasure to visit Plano. Rooms. Were a good size with a nice pollo and hot tub downstairs. We will def be back.  Well done Kyle keep up good work!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r266075692-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>266075692</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Beautiful New Hotel! Great staff!</t>
+  </si>
+  <si>
+    <t>The new hotel is sleek and clean. The beds and pillows were very comfortable. The staff was truly amazing, I can tell they were well trained.   The hotel is close to everything you could need including restaurants, bars and shopping.  Great stay!  We will go back!</t>
+  </si>
+  <si>
+    <t>April 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r264332490-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
@@ -1550,12 +2262,6 @@
     <t>This hotel is less than one year old.  The new design reminded me of a European hotel design.  There are lots of glass and mirrors in the room.  I've attached several photos to give you a good view of what you will get when staying at this hotel.The area is within walking distance of many restaurants.  The staff was very friendly and the buffet breakfast was excellent.  Waffles are available on the buffet on the weekends.  There are many couches both indoors and outdoors to relax and enjoy the weather on nice days.</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
-    <t>Ken D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r264298032-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1571,9 +2277,6 @@
     <t>I would like to thank Phil (Gen  Mgr), Kyle (Asst Mgr), Ryan , and Ashli for making our stay a memorable one. The Staff at this hotel is very responsive to requests, and work to make this a very clean and professional hotel. The Continental Breakfast was very nice (especially the Texas Sized Waffles) our kids loved them. This hotel is very close to many places  to eat sit down or take out (surrounding the hotel), and about a 7 min drive to a very nice Mall.The rooms have a very chic look, and the bar in the lobby is clean and well maintained.Having a family of (4) I am big on customer service and cleanliness. This Hotel exhibited it on our trip. I would recommend this hotel , and will stay here the next time I am in the areaMore</t>
   </si>
   <si>
-    <t>Charlie S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r263616862-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
   </si>
   <si>
@@ -1593,6 +2296,39 @@
   </si>
   <si>
     <t>This SpringHill Suites is a very nice hotel located right off Hwy 121 in north Plano. The property is very new and nicely appointed. The staff is very courteous and knowledgeable of the area. The hotel is located within walking distance of several restaurants and a 5 minute drive to a very large mall, movie theater, AA Minor League ballpark, and more restaurants. The rooms are a good size, very clean, and neat. There is a bar in the lobby that is open to midnight. The breakfast buffet is standard fare and again kept up very well. This is definitely a good place to stay while traveling through North Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r262032312-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>262032312</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>Brand new, even smells new still. Couple small problems to still address, but very nicely done.</t>
+  </si>
+  <si>
+    <t>VERY VERY nice hotel, brand new and in the middle of a lot of easy restaurants and shopping.  The lobby is very nicely appointed and the staff was very friendly. The room had two small issues which are just growing pains of a brand new place. The shower drain was not working and the room air was not quite cold enough.Neither of these would keep me from staying again though and I hope they are already dealing with the issues.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d5588563-r261235732-SpringHill_Suites_Dallas_Plano_Frisco-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>261235732</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>New Hotel with Nice Friendly Staff</t>
+  </si>
+  <si>
+    <t>I stayed for a week with the family over Spring Break. This place had only been open a week so you know the place was well maintained and had all the upgrades that you would expect. If you're looking to have a large meeting, they have very large meeting rooms as well.  So, I will go immediately to the staff. I really wish that could remember names but I can't. They were all outgoing and really went out of their way to make us feel at home. And this was from the front desk staff, to the general manager, to the people that ran the breakfast area and the housekeeping. They were all very outgoing. Lastly, I have to say that this hotel is in a very good place as well. If you're looking for shopping throughout the day and the nightlife of Plano, this will be the place for you. Excellent Stay!! MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for a week with the family over Spring Break. This place had only been open a week so you know the place was well maintained and had all the upgrades that you would expect. If you're looking to have a large meeting, they have very large meeting rooms as well.  So, I will go immediately to the staff. I really wish that could remember names but I can't. They were all outgoing and really went out of their way to make us feel at home. And this was from the front desk staff, to the general manager, to the people that ran the breakfast area and the housekeeping. They were all very outgoing. Lastly, I have to say that this hotel is in a very good place as well. If you're looking for shopping throughout the day and the nightlife of Plano, this will be the place for you. Excellent Stay!! More</t>
   </si>
 </sst>
 </file>
@@ -2097,112 +2833,106 @@
       <c r="A2" t="n">
         <v>62855</v>
       </c>
-      <c r="B2" t="n">
-        <v>320</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>62855</v>
       </c>
-      <c r="B3" t="n">
-        <v>177714</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2213,67 +2943,59 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" t="s">
-        <v>56</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>62855</v>
       </c>
-      <c r="B4" t="n">
-        <v>136829</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
@@ -2284,261 +3006,239 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>75</v>
-      </c>
-      <c r="X4" t="s">
-        <v>76</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>62855</v>
       </c>
-      <c r="B5" t="n">
-        <v>177715</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>62855</v>
       </c>
-      <c r="B6" t="n">
-        <v>177716</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>62855</v>
       </c>
-      <c r="B7" t="n">
-        <v>5831</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>62855</v>
       </c>
-      <c r="B8" t="n">
-        <v>177717</v>
-      </c>
-      <c r="C8" t="s">
-        <v>103</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
         <v>65</v>
@@ -2553,60 +3253,56 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>62855</v>
       </c>
-      <c r="B9" t="n">
-        <v>177718</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2618,69 +3314,65 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="X9" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>62855</v>
       </c>
-      <c r="B10" t="n">
-        <v>63184</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -2689,134 +3381,130 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>62855</v>
       </c>
-      <c r="B11" t="n">
-        <v>18833</v>
-      </c>
-      <c r="C11" t="s">
-        <v>129</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>62855</v>
       </c>
-      <c r="B12" t="n">
-        <v>37741</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
       </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -2825,126 +3513,120 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>62855</v>
       </c>
-      <c r="B13" t="n">
-        <v>177719</v>
-      </c>
-      <c r="C13" t="s">
-        <v>147</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="X13" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>62855</v>
       </c>
-      <c r="B14" t="n">
-        <v>50848</v>
-      </c>
-      <c r="C14" t="s">
-        <v>154</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
-      <c r="N14" t="s">
-        <v>152</v>
-      </c>
-      <c r="O14" t="s">
-        <v>65</v>
-      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
@@ -2955,127 +3637,123 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="X14" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>62855</v>
       </c>
-      <c r="B15" t="n">
-        <v>177720</v>
-      </c>
-      <c r="C15" t="s">
-        <v>163</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>141</v>
+      </c>
+      <c r="X15" t="s">
+        <v>142</v>
+      </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>62855</v>
       </c>
-      <c r="B16" t="n">
-        <v>177721</v>
-      </c>
-      <c r="C16" t="s">
-        <v>170</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3086,122 +3764,118 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>141</v>
+      </c>
+      <c r="X16" t="s">
+        <v>142</v>
+      </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>62855</v>
       </c>
-      <c r="B17" t="n">
-        <v>177722</v>
-      </c>
-      <c r="C17" t="s">
-        <v>176</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>62855</v>
       </c>
-      <c r="B18" t="n">
-        <v>177723</v>
-      </c>
-      <c r="C18" t="s">
-        <v>183</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3212,650 +3886,618 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>173</v>
+      </c>
+      <c r="X18" t="s">
+        <v>174</v>
+      </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>62855</v>
       </c>
-      <c r="B19" t="n">
-        <v>4074</v>
-      </c>
-      <c r="C19" t="s">
-        <v>190</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="O19" t="s">
         <v>65</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>180</v>
+      </c>
+      <c r="X19" t="s">
+        <v>181</v>
+      </c>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>62855</v>
       </c>
-      <c r="B20" t="n">
-        <v>177724</v>
-      </c>
-      <c r="C20" t="s">
-        <v>197</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="O20" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>180</v>
+      </c>
+      <c r="X20" t="s">
+        <v>181</v>
+      </c>
       <c r="Y20" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>62855</v>
       </c>
-      <c r="B21" t="n">
-        <v>177725</v>
-      </c>
-      <c r="C21" t="s">
-        <v>203</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="O21" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>180</v>
+      </c>
+      <c r="X21" t="s">
+        <v>181</v>
+      </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>62855</v>
       </c>
-      <c r="B22" t="n">
-        <v>177726</v>
-      </c>
-      <c r="C22" t="s">
-        <v>210</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>180</v>
+      </c>
+      <c r="X22" t="s">
+        <v>181</v>
+      </c>
       <c r="Y22" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>62855</v>
       </c>
-      <c r="B23" t="n">
-        <v>177727</v>
-      </c>
-      <c r="C23" t="s">
-        <v>216</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X23" t="s">
+        <v>208</v>
+      </c>
       <c r="Y23" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>62855</v>
       </c>
-      <c r="B24" t="n">
-        <v>10047</v>
-      </c>
-      <c r="C24" t="s">
-        <v>221</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="O24" t="s">
-        <v>65</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>215</v>
+      </c>
+      <c r="X24" t="s">
+        <v>216</v>
+      </c>
       <c r="Y24" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>62855</v>
       </c>
-      <c r="B25" t="n">
-        <v>43400</v>
-      </c>
-      <c r="C25" t="s">
-        <v>228</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O25" t="s">
-        <v>65</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="X25" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="Y25" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>62855</v>
       </c>
-      <c r="B26" t="n">
-        <v>177728</v>
-      </c>
-      <c r="C26" t="s">
-        <v>237</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="J26" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>3</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>229</v>
+      </c>
+      <c r="X26" t="s">
+        <v>230</v>
+      </c>
       <c r="Y26" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>62855</v>
       </c>
-      <c r="B27" t="n">
-        <v>48026</v>
-      </c>
-      <c r="C27" t="s">
-        <v>244</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>229</v>
+      </c>
+      <c r="X27" t="s">
+        <v>230</v>
+      </c>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>62855</v>
       </c>
-      <c r="B28" t="n">
-        <v>177729</v>
-      </c>
-      <c r="C28" t="s">
-        <v>250</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="O28" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3866,115 +4508,117 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>243</v>
+      </c>
+      <c r="X28" t="s">
+        <v>244</v>
+      </c>
       <c r="Y28" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>62855</v>
       </c>
-      <c r="B29" t="n">
-        <v>177730</v>
-      </c>
-      <c r="C29" t="s">
-        <v>256</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="J29" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="K29" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>62855</v>
       </c>
-      <c r="B30" t="n">
-        <v>177731</v>
-      </c>
-      <c r="C30" t="s">
-        <v>264</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="J30" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="K30" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="O30" t="s">
         <v>65</v>
@@ -3982,256 +4626,240 @@
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>62855</v>
       </c>
-      <c r="B31" t="n">
-        <v>177732</v>
-      </c>
-      <c r="C31" t="s">
-        <v>270</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="J31" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s">
         <v>65</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>62855</v>
       </c>
-      <c r="B32" t="n">
-        <v>177733</v>
-      </c>
-      <c r="C32" t="s">
-        <v>277</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="O32" t="s">
         <v>65</v>
       </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>62855</v>
       </c>
-      <c r="B33" t="n">
-        <v>177718</v>
-      </c>
-      <c r="C33" t="s">
-        <v>147</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J33" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="O33" t="s">
         <v>65</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>62855</v>
       </c>
-      <c r="B34" t="n">
-        <v>3247</v>
-      </c>
-      <c r="C34" t="s">
-        <v>289</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="J34" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4245,58 +4873,52 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>62855</v>
       </c>
-      <c r="B35" t="n">
-        <v>63184</v>
-      </c>
-      <c r="C35" t="s">
-        <v>122</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="J35" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="K35" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="O35" t="s">
-        <v>65</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
         <v>5</v>
       </c>
@@ -4309,394 +4931,368 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>301</v>
-      </c>
-      <c r="X35" t="s">
-        <v>302</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>62855</v>
       </c>
-      <c r="B36" t="n">
-        <v>177734</v>
-      </c>
-      <c r="C36" t="s">
-        <v>304</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="J36" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="O36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>292</v>
+      </c>
+      <c r="X36" t="s">
+        <v>293</v>
+      </c>
       <c r="Y36" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>62855</v>
       </c>
-      <c r="B37" t="n">
-        <v>88582</v>
-      </c>
-      <c r="C37" t="s">
-        <v>311</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="J37" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="K37" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="O37" t="s">
-        <v>317</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
+        <v>300</v>
+      </c>
+      <c r="X37" t="s">
         <v>301</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>302</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>62855</v>
       </c>
-      <c r="B38" t="n">
-        <v>177735</v>
-      </c>
-      <c r="C38" t="s">
-        <v>319</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="J38" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="K38" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>300</v>
+        <v>112</v>
       </c>
       <c r="O38" t="s">
-        <v>54</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>4</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>62855</v>
       </c>
-      <c r="B39" t="n">
-        <v>177736</v>
-      </c>
-      <c r="C39" t="s">
-        <v>325</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="J39" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="K39" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>300</v>
+        <v>112</v>
       </c>
       <c r="O39" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>331</v>
-      </c>
-      <c r="X39" t="s">
-        <v>332</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>62855</v>
       </c>
-      <c r="B40" t="n">
-        <v>177737</v>
-      </c>
-      <c r="C40" t="s">
-        <v>334</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="J40" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="K40" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>340</v>
+        <v>112</v>
       </c>
       <c r="O40" t="s">
         <v>65</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>341</v>
-      </c>
-      <c r="X40" t="s">
-        <v>342</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>62855</v>
       </c>
-      <c r="B41" t="n">
-        <v>177738</v>
-      </c>
-      <c r="C41" t="s">
-        <v>344</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="J41" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="K41" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="L41" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>340</v>
+        <v>112</v>
       </c>
       <c r="O41" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4707,315 +5303,311 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>324</v>
+      </c>
+      <c r="X41" t="s">
+        <v>325</v>
+      </c>
       <c r="Y41" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>62855</v>
       </c>
-      <c r="B42" t="n">
-        <v>177739</v>
-      </c>
-      <c r="C42" t="s">
-        <v>351</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="J42" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="K42" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="L42" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
-      <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>332</v>
+      </c>
+      <c r="O42" t="s">
+        <v>65</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="X42" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="Y42" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>62855</v>
       </c>
-      <c r="B43" t="n">
-        <v>177740</v>
-      </c>
-      <c r="C43" t="s">
-        <v>360</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="J43" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="K43" t="s">
-        <v>364</v>
+        <v>241</v>
       </c>
       <c r="L43" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>366</v>
+        <v>112</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>62855</v>
       </c>
-      <c r="B44" t="n">
-        <v>9704</v>
-      </c>
-      <c r="C44" t="s">
-        <v>367</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="J44" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="K44" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="L44" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>62855</v>
       </c>
-      <c r="B45" t="n">
-        <v>36779</v>
-      </c>
-      <c r="C45" t="s">
-        <v>375</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="J45" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="K45" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="L45" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="O45" t="s">
-        <v>65</v>
-      </c>
-      <c r="P45" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
       <c r="Q45" t="s"/>
       <c r="R45" t="n">
         <v>4</v>
       </c>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="X45" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="Y45" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>62855</v>
       </c>
-      <c r="B46" t="n">
-        <v>177741</v>
-      </c>
-      <c r="C46" t="s">
-        <v>384</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="J46" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="K46" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="L46" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="O46" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5026,196 +5618,180 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>391</v>
-      </c>
-      <c r="X46" t="s">
-        <v>392</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>62855</v>
       </c>
-      <c r="B47" t="n">
-        <v>177742</v>
-      </c>
-      <c r="C47" t="s">
-        <v>394</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="J47" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="K47" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="L47" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="O47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P47" t="s"/>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>62855</v>
       </c>
-      <c r="B48" t="n">
-        <v>20863</v>
-      </c>
-      <c r="C48" t="s">
-        <v>401</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="J48" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="K48" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="O48" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="P48" t="s"/>
-      <c r="Q48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
       <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>62855</v>
       </c>
-      <c r="B49" t="n">
-        <v>126570</v>
-      </c>
-      <c r="C49" t="s">
-        <v>408</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="J49" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="K49" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>407</v>
+        <v>332</v>
       </c>
       <c r="O49" t="s">
         <v>65</v>
       </c>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
@@ -5228,62 +5804,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>62855</v>
       </c>
-      <c r="B50" t="n">
-        <v>44507</v>
-      </c>
-      <c r="C50" t="s">
-        <v>414</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="J50" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="K50" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="O50" t="s">
-        <v>74</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
+      <c r="R50" t="s"/>
       <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="s"/>
@@ -5293,61 +5861,59 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>62855</v>
       </c>
-      <c r="B51" t="n">
-        <v>177743</v>
-      </c>
-      <c r="C51" t="s">
-        <v>421</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="J51" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="K51" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
       <c r="O51" t="s">
         <v>65</v>
       </c>
       <c r="P51" t="s"/>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
         <v>5</v>
@@ -5358,121 +5924,115 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>62855</v>
       </c>
-      <c r="B52" t="n">
-        <v>177744</v>
-      </c>
-      <c r="C52" t="s">
-        <v>428</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="J52" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
       <c r="K52" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="L52" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>434</v>
+        <v>383</v>
       </c>
       <c r="O52" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="P52" t="s"/>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>389</v>
+      </c>
+      <c r="X52" t="s">
+        <v>390</v>
+      </c>
       <c r="Y52" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>62855</v>
       </c>
-      <c r="B53" t="n">
-        <v>123428</v>
-      </c>
-      <c r="C53" t="s">
-        <v>435</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="J53" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="K53" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="O53" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5486,60 +6046,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>62855</v>
       </c>
-      <c r="B54" t="n">
-        <v>177745</v>
-      </c>
-      <c r="C54" t="s">
-        <v>442</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>443</v>
+        <v>397</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>444</v>
+        <v>398</v>
       </c>
       <c r="J54" t="s">
-        <v>445</v>
+        <v>399</v>
       </c>
       <c r="K54" t="s">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="L54" t="s">
-        <v>447</v>
+        <v>401</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="O54" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
         <v>5</v>
       </c>
@@ -5553,202 +6107,174 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>447</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>62855</v>
       </c>
-      <c r="B55" t="n">
-        <v>177746</v>
-      </c>
-      <c r="C55" t="s">
-        <v>449</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="J55" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="K55" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s">
-        <v>454</v>
+        <v>406</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>441</v>
+        <v>200</v>
       </c>
       <c r="O55" t="s">
-        <v>54</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
       <c r="R55" t="s"/>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>5</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
-        <v>455</v>
-      </c>
-      <c r="X55" t="s">
-        <v>456</v>
-      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>62855</v>
       </c>
-      <c r="B56" t="n">
-        <v>177747</v>
-      </c>
-      <c r="C56" t="s">
-        <v>458</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="J56" t="s">
-        <v>461</v>
+        <v>409</v>
       </c>
       <c r="K56" t="s">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="L56" t="s">
-        <v>463</v>
+        <v>411</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>464</v>
+        <v>200</v>
       </c>
       <c r="O56" t="s">
-        <v>65</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
+      <c r="R56" t="s"/>
       <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>5</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>465</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>62855</v>
       </c>
-      <c r="B57" t="n">
-        <v>90954</v>
-      </c>
-      <c r="C57" t="s">
-        <v>466</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="J57" t="s">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="K57" t="s">
-        <v>470</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s">
-        <v>471</v>
+        <v>416</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="O57" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
-      <c r="R57" t="s"/>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5756,393 +6282,349 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>62855</v>
       </c>
-      <c r="B58" t="n">
-        <v>177748</v>
-      </c>
-      <c r="C58" t="s">
-        <v>473</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>474</v>
+        <v>418</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="J58" t="s">
-        <v>476</v>
+        <v>420</v>
       </c>
       <c r="K58" t="s">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="L58" t="s">
-        <v>478</v>
+        <v>422</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="O58" t="s">
-        <v>65</v>
-      </c>
-      <c r="P58" t="s"/>
-      <c r="Q58" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
       <c r="R58" t="s"/>
       <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>478</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>62855</v>
       </c>
-      <c r="B59" t="n">
-        <v>177749</v>
-      </c>
-      <c r="C59" t="s">
-        <v>479</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>480</v>
+        <v>424</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>481</v>
+        <v>425</v>
       </c>
       <c r="J59" t="s">
-        <v>482</v>
+        <v>426</v>
       </c>
       <c r="K59" t="s">
-        <v>483</v>
+        <v>427</v>
       </c>
       <c r="L59" t="s">
-        <v>484</v>
+        <v>428</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>485</v>
+        <v>423</v>
       </c>
       <c r="O59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
-      <c r="S59" t="n">
-        <v>4</v>
-      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>3</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
-        <v>486</v>
-      </c>
-      <c r="X59" t="s">
-        <v>487</v>
-      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>62855</v>
       </c>
-      <c r="B60" t="n">
-        <v>79556</v>
-      </c>
-      <c r="C60" t="s">
-        <v>489</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>490</v>
+        <v>429</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>491</v>
+        <v>430</v>
       </c>
       <c r="J60" t="s">
-        <v>492</v>
+        <v>431</v>
       </c>
       <c r="K60" t="s">
-        <v>493</v>
+        <v>432</v>
       </c>
       <c r="L60" t="s">
-        <v>494</v>
+        <v>433</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>485</v>
+        <v>423</v>
       </c>
       <c r="O60" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P60" t="s"/>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q60" t="s"/>
       <c r="R60" t="s"/>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>5</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>494</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>62855</v>
       </c>
-      <c r="B61" t="n">
-        <v>122189</v>
-      </c>
-      <c r="C61" t="s">
-        <v>495</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>497</v>
+        <v>435</v>
       </c>
       <c r="J61" t="s">
-        <v>498</v>
+        <v>436</v>
       </c>
       <c r="K61" t="s">
-        <v>499</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>485</v>
+        <v>439</v>
       </c>
       <c r="O61" t="s">
-        <v>65</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
-      <c r="R61" t="n">
-        <v>4</v>
-      </c>
+      <c r="R61" t="s"/>
       <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>5</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>501</v>
+        <v>438</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>62855</v>
       </c>
-      <c r="B62" t="n">
-        <v>177750</v>
-      </c>
-      <c r="C62" t="s">
-        <v>502</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>503</v>
+        <v>440</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>504</v>
+        <v>441</v>
       </c>
       <c r="J62" t="s">
-        <v>505</v>
+        <v>442</v>
       </c>
       <c r="K62" t="s">
-        <v>506</v>
+        <v>443</v>
       </c>
       <c r="L62" t="s">
-        <v>507</v>
+        <v>444</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>508</v>
+        <v>439</v>
       </c>
       <c r="O62" t="s">
-        <v>74</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
       <c r="R62" t="s"/>
       <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>5</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>507</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>62855</v>
       </c>
-      <c r="B63" t="n">
-        <v>23064</v>
-      </c>
-      <c r="C63" t="s">
-        <v>509</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>510</v>
+        <v>445</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>511</v>
+        <v>446</v>
       </c>
       <c r="J63" t="s">
-        <v>505</v>
+        <v>447</v>
       </c>
       <c r="K63" t="s">
-        <v>512</v>
+        <v>448</v>
       </c>
       <c r="L63" t="s">
-        <v>513</v>
+        <v>449</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>508</v>
+        <v>450</v>
       </c>
       <c r="O63" t="s">
-        <v>65</v>
-      </c>
-      <c r="P63" t="s"/>
-      <c r="Q63" t="s"/>
-      <c r="R63" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="s"/>
       <c r="S63" t="s"/>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
@@ -6151,75 +6633,3031 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>451</v>
+      </c>
+      <c r="X63" t="s">
+        <v>452</v>
+      </c>
       <c r="Y63" t="s">
-        <v>514</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>62855</v>
       </c>
-      <c r="B64" t="n">
-        <v>52731</v>
-      </c>
-      <c r="C64" t="s">
-        <v>515</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>516</v>
+        <v>454</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>517</v>
+        <v>455</v>
       </c>
       <c r="J64" t="s">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="K64" t="s">
-        <v>519</v>
+        <v>457</v>
       </c>
       <c r="L64" t="s">
-        <v>520</v>
+        <v>458</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>521</v>
+        <v>459</v>
       </c>
       <c r="O64" t="s">
-        <v>54</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
       <c r="R64" t="s"/>
       <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>5</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>460</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>461</v>
+      </c>
+      <c r="J65" t="s">
+        <v>462</v>
+      </c>
+      <c r="K65" t="s">
+        <v>463</v>
+      </c>
+      <c r="L65" t="s">
+        <v>464</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>459</v>
+      </c>
+      <c r="O65" t="s">
+        <v>163</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>451</v>
+      </c>
+      <c r="X65" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>466</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>467</v>
+      </c>
+      <c r="J66" t="s">
+        <v>468</v>
+      </c>
+      <c r="K66" t="s">
+        <v>469</v>
+      </c>
+      <c r="L66" t="s">
+        <v>470</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>459</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>471</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>472</v>
+      </c>
+      <c r="J67" t="s">
+        <v>473</v>
+      </c>
+      <c r="K67" t="s">
+        <v>474</v>
+      </c>
+      <c r="L67" t="s">
+        <v>475</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>459</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>476</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>477</v>
+      </c>
+      <c r="J68" t="s">
+        <v>478</v>
+      </c>
+      <c r="K68" t="s">
+        <v>479</v>
+      </c>
+      <c r="L68" t="s">
+        <v>480</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>450</v>
+      </c>
+      <c r="O68" t="s">
+        <v>65</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>481</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>482</v>
+      </c>
+      <c r="J69" t="s">
+        <v>483</v>
+      </c>
+      <c r="K69" t="s">
+        <v>484</v>
+      </c>
+      <c r="L69" t="s">
+        <v>485</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>450</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>486</v>
+      </c>
+      <c r="X69" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>489</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>490</v>
+      </c>
+      <c r="J70" t="s">
+        <v>491</v>
+      </c>
+      <c r="K70" t="s">
+        <v>492</v>
+      </c>
+      <c r="L70" t="s">
+        <v>493</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>494</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>495</v>
+      </c>
+      <c r="X70" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>498</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>499</v>
+      </c>
+      <c r="J71" t="s">
+        <v>500</v>
+      </c>
+      <c r="K71" t="s">
+        <v>501</v>
+      </c>
+      <c r="L71" t="s">
+        <v>502</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>503</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>505</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>506</v>
+      </c>
+      <c r="J72" t="s">
+        <v>507</v>
+      </c>
+      <c r="K72" t="s">
+        <v>508</v>
+      </c>
+      <c r="L72" t="s">
+        <v>509</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>494</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>511</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>512</v>
+      </c>
+      <c r="J73" t="s">
+        <v>507</v>
+      </c>
+      <c r="K73" t="s">
+        <v>513</v>
+      </c>
+      <c r="L73" t="s">
+        <v>514</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>494</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>516</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>517</v>
+      </c>
+      <c r="J74" t="s">
+        <v>518</v>
+      </c>
+      <c r="K74" t="s">
+        <v>519</v>
+      </c>
+      <c r="L74" t="s">
+        <v>520</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>521</v>
+      </c>
+      <c r="X74" t="s">
         <v>522</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>524</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>525</v>
+      </c>
+      <c r="J75" t="s">
+        <v>526</v>
+      </c>
+      <c r="K75" t="s">
+        <v>527</v>
+      </c>
+      <c r="L75" t="s">
+        <v>528</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>529</v>
+      </c>
+      <c r="O75" t="s">
+        <v>65</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>530</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>531</v>
+      </c>
+      <c r="J76" t="s">
+        <v>526</v>
+      </c>
+      <c r="K76" t="s">
+        <v>532</v>
+      </c>
+      <c r="L76" t="s">
+        <v>533</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>529</v>
+      </c>
+      <c r="O76" t="s">
+        <v>87</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>521</v>
+      </c>
+      <c r="X76" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>535</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>536</v>
+      </c>
+      <c r="J77" t="s">
+        <v>537</v>
+      </c>
+      <c r="K77" t="s">
+        <v>538</v>
+      </c>
+      <c r="L77" t="s">
+        <v>539</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>529</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>540</v>
+      </c>
+      <c r="X77" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>543</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>544</v>
+      </c>
+      <c r="J78" t="s">
+        <v>545</v>
+      </c>
+      <c r="K78" t="s">
+        <v>546</v>
+      </c>
+      <c r="L78" t="s">
+        <v>547</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>548</v>
+      </c>
+      <c r="O78" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>550</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>551</v>
+      </c>
+      <c r="J79" t="s">
+        <v>552</v>
+      </c>
+      <c r="K79" t="s">
+        <v>553</v>
+      </c>
+      <c r="L79" t="s">
+        <v>554</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>548</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>555</v>
+      </c>
+      <c r="X79" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>558</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>559</v>
+      </c>
+      <c r="J80" t="s">
+        <v>560</v>
+      </c>
+      <c r="K80" t="s">
+        <v>561</v>
+      </c>
+      <c r="L80" t="s">
+        <v>562</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>563</v>
+      </c>
+      <c r="O80" t="s">
+        <v>65</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>564</v>
+      </c>
+      <c r="X80" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>567</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>568</v>
+      </c>
+      <c r="J81" t="s">
+        <v>569</v>
+      </c>
+      <c r="K81" t="s">
+        <v>570</v>
+      </c>
+      <c r="L81" t="s">
+        <v>571</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>563</v>
+      </c>
+      <c r="O81" t="s">
+        <v>65</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>572</v>
+      </c>
+      <c r="X81" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>575</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>576</v>
+      </c>
+      <c r="J82" t="s">
+        <v>577</v>
+      </c>
+      <c r="K82" t="s">
+        <v>578</v>
+      </c>
+      <c r="L82" t="s">
+        <v>579</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>563</v>
+      </c>
+      <c r="O82" t="s">
+        <v>87</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>580</v>
+      </c>
+      <c r="X82" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>583</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>584</v>
+      </c>
+      <c r="J83" t="s">
+        <v>585</v>
+      </c>
+      <c r="K83" t="s">
+        <v>586</v>
+      </c>
+      <c r="L83" t="s">
+        <v>587</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>563</v>
+      </c>
+      <c r="O83" t="s">
+        <v>65</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>589</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>590</v>
+      </c>
+      <c r="J84" t="s">
+        <v>591</v>
+      </c>
+      <c r="K84" t="s">
+        <v>592</v>
+      </c>
+      <c r="L84" t="s">
+        <v>593</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>594</v>
+      </c>
+      <c r="O84" t="s">
+        <v>65</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>595</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>596</v>
+      </c>
+      <c r="J85" t="s">
+        <v>597</v>
+      </c>
+      <c r="K85" t="s">
+        <v>598</v>
+      </c>
+      <c r="L85" t="s">
+        <v>599</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>594</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>600</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>601</v>
+      </c>
+      <c r="J86" t="s">
+        <v>602</v>
+      </c>
+      <c r="K86" t="s">
+        <v>603</v>
+      </c>
+      <c r="L86" t="s">
+        <v>604</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>503</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>605</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>606</v>
+      </c>
+      <c r="J87" t="s">
+        <v>607</v>
+      </c>
+      <c r="K87" t="s">
+        <v>608</v>
+      </c>
+      <c r="L87" t="s">
+        <v>609</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>503</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>611</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>612</v>
+      </c>
+      <c r="J88" t="s">
+        <v>613</v>
+      </c>
+      <c r="K88" t="s">
+        <v>614</v>
+      </c>
+      <c r="L88" t="s">
+        <v>615</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>503</v>
+      </c>
+      <c r="O88" t="s">
+        <v>87</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>616</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>617</v>
+      </c>
+      <c r="J89" t="s">
+        <v>618</v>
+      </c>
+      <c r="K89" t="s">
+        <v>619</v>
+      </c>
+      <c r="L89" t="s">
+        <v>620</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>503</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>622</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>623</v>
+      </c>
+      <c r="J90" t="s">
+        <v>624</v>
+      </c>
+      <c r="K90" t="s">
+        <v>625</v>
+      </c>
+      <c r="L90" t="s">
+        <v>626</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>627</v>
+      </c>
+      <c r="O90" t="s">
+        <v>149</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>628</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>629</v>
+      </c>
+      <c r="J91" t="s">
+        <v>630</v>
+      </c>
+      <c r="K91" t="s">
+        <v>631</v>
+      </c>
+      <c r="L91" t="s">
+        <v>632</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>633</v>
+      </c>
+      <c r="O91" t="s">
+        <v>65</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>634</v>
+      </c>
+      <c r="X91" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>637</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>638</v>
+      </c>
+      <c r="J92" t="s">
+        <v>639</v>
+      </c>
+      <c r="K92" t="s">
+        <v>640</v>
+      </c>
+      <c r="L92" t="s">
+        <v>641</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>642</v>
+      </c>
+      <c r="O92" t="s">
+        <v>65</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>643</v>
+      </c>
+      <c r="X92" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>646</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>647</v>
+      </c>
+      <c r="J93" t="s">
+        <v>648</v>
+      </c>
+      <c r="K93" t="s">
+        <v>649</v>
+      </c>
+      <c r="L93" t="s">
+        <v>650</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>642</v>
+      </c>
+      <c r="O93" t="s">
+        <v>87</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>651</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>652</v>
+      </c>
+      <c r="J94" t="s">
+        <v>653</v>
+      </c>
+      <c r="K94" t="s">
+        <v>654</v>
+      </c>
+      <c r="L94" t="s">
+        <v>655</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>656</v>
+      </c>
+      <c r="O94" t="s">
+        <v>87</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>657</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>658</v>
+      </c>
+      <c r="J95" t="s">
+        <v>659</v>
+      </c>
+      <c r="K95" t="s">
+        <v>660</v>
+      </c>
+      <c r="L95" t="s">
+        <v>661</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>642</v>
+      </c>
+      <c r="O95" t="s">
+        <v>65</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>662</v>
+      </c>
+      <c r="X95" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>665</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>666</v>
+      </c>
+      <c r="J96" t="s">
+        <v>667</v>
+      </c>
+      <c r="K96" t="s">
+        <v>668</v>
+      </c>
+      <c r="L96" t="s">
+        <v>669</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>656</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>670</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>671</v>
+      </c>
+      <c r="J97" t="s">
+        <v>672</v>
+      </c>
+      <c r="K97" t="s">
+        <v>673</v>
+      </c>
+      <c r="L97" t="s">
+        <v>674</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>656</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>676</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>677</v>
+      </c>
+      <c r="J98" t="s">
+        <v>678</v>
+      </c>
+      <c r="K98" t="s">
+        <v>679</v>
+      </c>
+      <c r="L98" t="s">
+        <v>680</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>681</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>683</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>684</v>
+      </c>
+      <c r="J99" t="s">
+        <v>685</v>
+      </c>
+      <c r="K99" t="s">
+        <v>686</v>
+      </c>
+      <c r="L99" t="s">
+        <v>687</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>681</v>
+      </c>
+      <c r="O99" t="s">
+        <v>65</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>689</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>690</v>
+      </c>
+      <c r="J100" t="s">
+        <v>691</v>
+      </c>
+      <c r="K100" t="s">
+        <v>692</v>
+      </c>
+      <c r="L100" t="s">
+        <v>693</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>681</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>694</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>695</v>
+      </c>
+      <c r="J101" t="s">
+        <v>696</v>
+      </c>
+      <c r="K101" t="s">
+        <v>697</v>
+      </c>
+      <c r="L101" t="s">
+        <v>698</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>699</v>
+      </c>
+      <c r="O101" t="s">
+        <v>65</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>701</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>702</v>
+      </c>
+      <c r="J102" t="s">
+        <v>703</v>
+      </c>
+      <c r="K102" t="s">
+        <v>704</v>
+      </c>
+      <c r="L102" t="s">
+        <v>705</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>699</v>
+      </c>
+      <c r="O102" t="s">
+        <v>65</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>706</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>707</v>
+      </c>
+      <c r="J103" t="s">
+        <v>708</v>
+      </c>
+      <c r="K103" t="s">
+        <v>709</v>
+      </c>
+      <c r="L103" t="s">
+        <v>710</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>711</v>
+      </c>
+      <c r="O103" t="s">
+        <v>65</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>712</v>
+      </c>
+      <c r="X103" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>715</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>716</v>
+      </c>
+      <c r="J104" t="s">
+        <v>717</v>
+      </c>
+      <c r="K104" t="s">
+        <v>718</v>
+      </c>
+      <c r="L104" t="s">
+        <v>719</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>711</v>
+      </c>
+      <c r="O104" t="s">
+        <v>65</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>720</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>721</v>
+      </c>
+      <c r="J105" t="s">
+        <v>722</v>
+      </c>
+      <c r="K105" t="s">
+        <v>723</v>
+      </c>
+      <c r="L105" t="s">
+        <v>724</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>711</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>726</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>727</v>
+      </c>
+      <c r="J106" t="s">
+        <v>728</v>
+      </c>
+      <c r="K106" t="s">
+        <v>729</v>
+      </c>
+      <c r="L106" t="s">
+        <v>730</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>731</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>732</v>
+      </c>
+      <c r="J107" t="s">
+        <v>733</v>
+      </c>
+      <c r="K107" t="s">
+        <v>734</v>
+      </c>
+      <c r="L107" t="s">
+        <v>735</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>736</v>
+      </c>
+      <c r="O107" t="s">
+        <v>65</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>737</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>738</v>
+      </c>
+      <c r="J108" t="s">
+        <v>739</v>
+      </c>
+      <c r="K108" t="s">
+        <v>740</v>
+      </c>
+      <c r="L108" t="s">
+        <v>741</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>736</v>
+      </c>
+      <c r="O108" t="s">
+        <v>87</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>742</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>743</v>
+      </c>
+      <c r="J109" t="s">
+        <v>739</v>
+      </c>
+      <c r="K109" t="s">
+        <v>744</v>
+      </c>
+      <c r="L109" t="s">
+        <v>745</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>736</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>747</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>748</v>
+      </c>
+      <c r="J110" t="s">
+        <v>749</v>
+      </c>
+      <c r="K110" t="s">
+        <v>750</v>
+      </c>
+      <c r="L110" t="s">
+        <v>751</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>752</v>
+      </c>
+      <c r="O110" t="s">
+        <v>65</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>754</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>755</v>
+      </c>
+      <c r="J111" t="s">
+        <v>756</v>
+      </c>
+      <c r="K111" t="s">
+        <v>757</v>
+      </c>
+      <c r="L111" t="s">
+        <v>758</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>752</v>
+      </c>
+      <c r="O111" t="s">
+        <v>65</v>
+      </c>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>62855</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>759</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>760</v>
+      </c>
+      <c r="J112" t="s">
+        <v>761</v>
+      </c>
+      <c r="K112" t="s">
+        <v>762</v>
+      </c>
+      <c r="L112" t="s">
+        <v>763</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>712</v>
+      </c>
+      <c r="X112" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>764</v>
       </c>
     </row>
   </sheetData>
